--- a/code/matlab_testerino/Filter coef.xlsx
+++ b/code/matlab_testerino/Filter coef.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>LP FIR 1 KSPS (f3dB = 41)</t>
   </si>
@@ -57,12 +57,6 @@
   </si>
   <si>
     <t>fstop=165</t>
-  </si>
-  <si>
-    <t>sintonizer num</t>
-  </si>
-  <si>
-    <t>sintonizer dem</t>
   </si>
 </sst>
 </file>
@@ -194,6 +188,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -229,6 +240,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -383,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:MX344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A144" sqref="A4:A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,12 +430,6 @@
       <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="U1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>12</v>
-      </c>
       <c r="AK1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="CR1" s="1"/>
@@ -464,6 +486,8 @@
       </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -533,6 +557,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -736,28 +761,6 @@
         <f>R4</f>
         <v>20</v>
       </c>
-      <c r="U4">
-        <v>0.59608618312088801</v>
-      </c>
-      <c r="V4">
-        <f>ROUND(U4*1024,0)</f>
-        <v>610</v>
-      </c>
-      <c r="W4">
-        <f>V4</f>
-        <v>610</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <f>ROUND(Y4*1024,0)</f>
-        <v>1024</v>
-      </c>
-      <c r="AA4">
-        <f>Z4</f>
-        <v>1024</v>
-      </c>
     </row>
     <row r="5" spans="1:362" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -820,28 +823,6 @@
         <f>CONCATENATE(S4,", ",R5)</f>
         <v>20, -40</v>
       </c>
-      <c r="U5" s="1">
-        <v>-2.3843394305202699</v>
-      </c>
-      <c r="V5">
-        <f t="shared" ref="V5:V22" si="8">ROUND(U5*1024,0)</f>
-        <v>-2442</v>
-      </c>
-      <c r="W5" t="str">
-        <f>CONCATENATE(W4,", ",V5)</f>
-        <v>610, -2442</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>-3.1539403763392699</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" ref="Z5:Z22" si="9">ROUND(Y5*1024,0)</f>
-        <v>-3230</v>
-      </c>
-      <c r="AA5" t="str">
-        <f>CONCATENATE(AA4,", ",Z5)</f>
-        <v>1024, -3230</v>
-      </c>
     </row>
     <row r="6" spans="1:362" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -856,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:D69" si="10">CONCATENATE(D5,", ",C6)</f>
+        <f t="shared" ref="D6:D69" si="8">CONCATENATE(D5,", ",C6)</f>
         <v>0, 1, 1</v>
       </c>
       <c r="F6" s="1">
@@ -886,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" ref="N6:N69" si="11">CONCATENATE(N5,", ",M6)</f>
+        <f t="shared" ref="N6:N69" si="9">CONCATENATE(N5,", ",M6)</f>
         <v>0, 0, 0</v>
       </c>
       <c r="P6">
@@ -901,30 +882,8 @@
         <v>56</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" ref="S6:S13" si="12">CONCATENATE(S5,", ",R6)</f>
+        <f t="shared" ref="S6:S13" si="10">CONCATENATE(S5,", ",R6)</f>
         <v>20, -40, 56</v>
-      </c>
-      <c r="U6" s="1">
-        <v>3.9430955683048299</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="8"/>
-        <v>4038</v>
-      </c>
-      <c r="W6" t="str">
-        <f t="shared" ref="W6:W22" si="13">CONCATENATE(W5,", ",V6)</f>
-        <v>610, -2442, 4038</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>3.9430955683048299</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="9"/>
-        <v>4038</v>
-      </c>
-      <c r="AA6" t="str">
-        <f t="shared" ref="AA6:AA22" si="14">CONCATENATE(AA5,", ",Z6)</f>
-        <v>1024, -3230, 4038</v>
       </c>
     </row>
     <row r="7" spans="1:362" x14ac:dyDescent="0.25">
@@ -940,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1</v>
       </c>
       <c r="F7">
@@ -955,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" ref="I7:I69" si="15">CONCATENATE(I6,", ",H7)</f>
+        <f t="shared" ref="I7:I69" si="11">CONCATENATE(I6,", ",H7)</f>
         <v>1, 0, 0, 0</v>
       </c>
       <c r="K7" s="1">
@@ -970,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0</v>
       </c>
       <c r="P7">
@@ -985,30 +944,8 @@
         <v>-148</v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>20, -40, 56, -148</v>
-      </c>
-      <c r="U7" s="1">
-        <v>-3.1539403763392699</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="8"/>
-        <v>-3230</v>
-      </c>
-      <c r="W7" t="str">
-        <f t="shared" si="13"/>
-        <v>610, -2442, 4038, -3230</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>-2.3843394305202699</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="9"/>
-        <v>-2442</v>
-      </c>
-      <c r="AA7" t="str">
-        <f t="shared" si="14"/>
-        <v>1024, -3230, 4038, -2442</v>
       </c>
     </row>
     <row r="8" spans="1:362" x14ac:dyDescent="0.25">
@@ -1024,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1</v>
       </c>
       <c r="F8">
@@ -1039,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0</v>
       </c>
       <c r="K8" s="1">
@@ -1054,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0</v>
       </c>
       <c r="P8">
@@ -1069,30 +1006,8 @@
         <v>1306</v>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>20, -40, 56, -148, 1306</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="8"/>
-        <v>1024</v>
-      </c>
-      <c r="W8" t="str">
-        <f t="shared" si="13"/>
-        <v>610, -2442, 4038, -3230, 1024</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>0.59608618312088801</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="9"/>
-        <v>610</v>
-      </c>
-      <c r="AA8" t="str">
-        <f t="shared" si="14"/>
-        <v>1024, -3230, 4038, -2442, 610</v>
       </c>
     </row>
     <row r="9" spans="1:362" x14ac:dyDescent="0.25">
@@ -1108,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0</v>
       </c>
       <c r="F9">
@@ -1123,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0</v>
       </c>
       <c r="K9" s="1">
@@ -1138,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
       <c r="P9">
@@ -1153,11 +1068,9 @@
         <v>-1306</v>
       </c>
       <c r="S9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>20, -40, 56, -148, 1306, -1306</v>
       </c>
-      <c r="U9" s="1"/>
-      <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:362" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1172,7 +1085,7 @@
         <v>-1</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1</v>
       </c>
       <c r="F10">
@@ -1187,7 +1100,7 @@
         <v>-1</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1</v>
       </c>
       <c r="K10" s="1">
@@ -1202,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0</v>
       </c>
       <c r="P10">
@@ -1217,11 +1130,9 @@
         <v>148</v>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>20, -40, 56, -148, 1306, -1306, 148</v>
       </c>
-      <c r="U10" s="1"/>
-      <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:362" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1236,7 +1147,7 @@
         <v>-1</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1</v>
       </c>
       <c r="F11">
@@ -1251,7 +1162,7 @@
         <v>-1</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1</v>
       </c>
       <c r="K11" s="1">
@@ -1266,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
       <c r="P11">
@@ -1281,11 +1192,9 @@
         <v>-56</v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>20, -40, 56, -148, 1306, -1306, 148, -56</v>
       </c>
-      <c r="U11" s="1"/>
-      <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:362" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1300,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0</v>
       </c>
       <c r="F12">
@@ -1315,7 +1224,7 @@
         <v>-1</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1</v>
       </c>
       <c r="K12" s="1">
@@ -1330,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
       <c r="P12">
@@ -1345,11 +1254,9 @@
         <v>40</v>
       </c>
       <c r="S12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>20, -40, 56, -148, 1306, -1306, 148, -56, 40</v>
       </c>
-      <c r="U12" s="1"/>
-      <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:362" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1364,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1</v>
       </c>
       <c r="F13">
@@ -1379,7 +1286,7 @@
         <v>-1</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1</v>
       </c>
       <c r="K13" s="1">
@@ -1394,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
       <c r="P13">
@@ -1409,11 +1316,9 @@
         <v>-20</v>
       </c>
       <c r="S13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>20, -40, 56, -148, 1306, -1306, 148, -56, 40, -20</v>
       </c>
-      <c r="U13" s="1"/>
-      <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:362" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1428,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1</v>
       </c>
       <c r="F14">
@@ -1443,7 +1348,7 @@
         <v>-1</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1</v>
       </c>
       <c r="K14" s="1">
@@ -1458,11 +1363,9 @@
         <v>0</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="U14" s="1"/>
-      <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:362" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1477,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1</v>
       </c>
       <c r="F15">
@@ -1492,7 +1395,7 @@
         <v>-1</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1</v>
       </c>
       <c r="K15" s="1">
@@ -1507,11 +1410,9 @@
         <v>0</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="U15" s="1"/>
-      <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:362" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1526,7 +1427,7 @@
         <v>-1</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1</v>
       </c>
       <c r="F16">
@@ -1541,7 +1442,7 @@
         <v>-1</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1</v>
       </c>
       <c r="K16" s="1">
@@ -1556,11 +1457,9 @@
         <v>0</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="U16" s="1"/>
-      <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -1575,7 +1474,7 @@
         <v>-1</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1</v>
       </c>
       <c r="F17">
@@ -1590,7 +1489,7 @@
         <v>-1</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1</v>
       </c>
       <c r="K17" s="1">
@@ -1605,10 +1504,9 @@
         <v>0</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="U17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="AL17" s="1"/>
       <c r="AY17" s="1"/>
@@ -1629,7 +1527,7 @@
         <v>-1</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1</v>
       </c>
       <c r="F18">
@@ -1644,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0</v>
       </c>
       <c r="K18" s="1">
@@ -1659,11 +1557,9 @@
         <v>0</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="U18" s="1"/>
-      <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1678,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0</v>
       </c>
       <c r="F19">
@@ -1693,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0</v>
       </c>
       <c r="K19" s="1">
@@ -1708,11 +1604,9 @@
         <v>0</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="U19" s="1"/>
-      <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1727,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2</v>
       </c>
       <c r="F20">
@@ -1742,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0</v>
       </c>
       <c r="K20" s="1">
@@ -1757,11 +1651,9 @@
         <v>0</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="U20" s="1"/>
-      <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1776,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2</v>
       </c>
       <c r="F21">
@@ -1791,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1</v>
       </c>
       <c r="K21" s="1">
@@ -1806,11 +1698,9 @@
         <v>0</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="U21" s="1"/>
-      <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1825,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0</v>
       </c>
       <c r="F22">
@@ -1840,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1</v>
       </c>
       <c r="K22" s="1">
@@ -1855,11 +1745,9 @@
         <v>0</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
-      <c r="U22" s="1"/>
-      <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -1874,7 +1762,7 @@
         <v>-2</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2</v>
       </c>
       <c r="F23">
@@ -1889,7 +1777,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2</v>
       </c>
       <c r="K23" s="1">
@@ -1904,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -1921,7 +1809,7 @@
         <v>-2</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2</v>
       </c>
       <c r="F24">
@@ -1936,7 +1824,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2</v>
       </c>
       <c r="K24" s="1">
@@ -1951,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -1968,7 +1856,7 @@
         <v>-1</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1</v>
       </c>
       <c r="F25">
@@ -1983,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2</v>
       </c>
       <c r="K25" s="1">
@@ -1998,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2015,7 +1903,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2</v>
       </c>
       <c r="F26">
@@ -2030,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2</v>
       </c>
       <c r="K26" s="1">
@@ -2045,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2062,7 +1950,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3</v>
       </c>
       <c r="F27">
@@ -2077,7 +1965,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2</v>
       </c>
       <c r="K27" s="1">
@@ -2092,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2109,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1</v>
       </c>
       <c r="F28">
@@ -2124,7 +2012,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2</v>
       </c>
       <c r="K28" s="1">
@@ -2139,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2156,7 +2044,7 @@
         <v>-2</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2</v>
       </c>
       <c r="F29">
@@ -2171,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1</v>
       </c>
       <c r="K29" s="1">
@@ -2186,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2203,7 +2091,7 @@
         <v>-3</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3</v>
       </c>
       <c r="F30">
@@ -2218,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1</v>
       </c>
       <c r="K30" s="1">
@@ -2233,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2250,7 +2138,7 @@
         <v>-2</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2</v>
       </c>
       <c r="F31" s="1">
@@ -2265,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0</v>
       </c>
       <c r="K31" s="1">
@@ -2280,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2297,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1</v>
       </c>
       <c r="F32">
@@ -2312,7 +2200,7 @@
         <v>-1</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1</v>
       </c>
       <c r="K32">
@@ -2327,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2344,7 +2232,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4</v>
       </c>
       <c r="F33">
@@ -2359,7 +2247,7 @@
         <v>-2</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2</v>
       </c>
       <c r="K33">
@@ -2374,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2391,7 +2279,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4</v>
       </c>
       <c r="F34">
@@ -2406,7 +2294,7 @@
         <v>-3</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3</v>
       </c>
       <c r="K34">
@@ -2421,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2438,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0</v>
       </c>
       <c r="F35">
@@ -2453,7 +2341,7 @@
         <v>-4</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4</v>
       </c>
       <c r="K35">
@@ -2468,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2485,7 +2373,7 @@
         <v>-4</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4</v>
       </c>
       <c r="F36">
@@ -2500,7 +2388,7 @@
         <v>-4</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4</v>
       </c>
       <c r="K36">
@@ -2515,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2532,7 +2420,7 @@
         <v>-5</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5</v>
       </c>
       <c r="F37">
@@ -2547,7 +2435,7 @@
         <v>-5</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5</v>
       </c>
       <c r="K37">
@@ -2562,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2579,7 +2467,7 @@
         <v>-1</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1</v>
       </c>
       <c r="F38">
@@ -2594,7 +2482,7 @@
         <v>-4</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4</v>
       </c>
       <c r="K38">
@@ -2609,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2626,7 +2514,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4</v>
       </c>
       <c r="F39">
@@ -2641,7 +2529,7 @@
         <v>-4</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4</v>
       </c>
       <c r="K39" s="1">
@@ -2656,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2673,7 +2561,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6</v>
       </c>
       <c r="F40">
@@ -2688,7 +2576,7 @@
         <v>-3</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3</v>
       </c>
       <c r="K40" s="1">
@@ -2703,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2720,7 +2608,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3</v>
       </c>
       <c r="F41">
@@ -2735,7 +2623,7 @@
         <v>-2</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2</v>
       </c>
       <c r="K41">
@@ -2750,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2767,7 +2655,7 @@
         <v>-3</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3</v>
       </c>
       <c r="F42">
@@ -2782,7 +2670,7 @@
         <v>-1</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1</v>
       </c>
       <c r="K42">
@@ -2797,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2814,7 +2702,7 @@
         <v>-7</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7</v>
       </c>
       <c r="F43">
@@ -2829,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1</v>
       </c>
       <c r="K43">
@@ -2844,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2861,7 +2749,7 @@
         <v>-5</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5</v>
       </c>
       <c r="F44">
@@ -2876,7 +2764,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3</v>
       </c>
       <c r="K44">
@@ -2891,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2908,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2</v>
       </c>
       <c r="F45">
@@ -2923,7 +2811,7 @@
         <v>5</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5</v>
       </c>
       <c r="K45">
@@ -2938,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2955,7 +2843,7 @@
         <v>8</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8</v>
       </c>
       <c r="F46">
@@ -2970,7 +2858,7 @@
         <v>6</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6</v>
       </c>
       <c r="K46">
@@ -2985,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3002,7 +2890,7 @@
         <v>8</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8</v>
       </c>
       <c r="F47">
@@ -3017,7 +2905,7 @@
         <v>8</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8</v>
       </c>
       <c r="K47">
@@ -3032,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3049,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0</v>
       </c>
       <c r="F48">
@@ -3064,7 +2952,7 @@
         <v>8</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8</v>
       </c>
       <c r="K48">
@@ -3079,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3096,7 +2984,7 @@
         <v>-8</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8</v>
       </c>
       <c r="F49">
@@ -3111,7 +2999,7 @@
         <v>9</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9</v>
       </c>
       <c r="K49">
@@ -3126,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3143,7 +3031,7 @@
         <v>-10</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10</v>
       </c>
       <c r="F50">
@@ -3158,7 +3046,7 @@
         <v>8</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8</v>
       </c>
       <c r="K50">
@@ -3173,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3190,7 +3078,7 @@
         <v>-3</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3</v>
       </c>
       <c r="F51">
@@ -3205,7 +3093,7 @@
         <v>7</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7</v>
       </c>
       <c r="K51" s="1">
@@ -3220,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3237,7 +3125,7 @@
         <v>8</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8</v>
       </c>
       <c r="F52">
@@ -3252,7 +3140,7 @@
         <v>5</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5</v>
       </c>
       <c r="K52">
@@ -3267,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3284,7 +3172,7 @@
         <v>13</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13</v>
       </c>
       <c r="F53">
@@ -3299,7 +3187,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2</v>
       </c>
       <c r="K53">
@@ -3314,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3331,7 +3219,7 @@
         <v>7</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7</v>
       </c>
       <c r="F54">
@@ -3346,7 +3234,7 @@
         <v>-1</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1</v>
       </c>
       <c r="K54">
@@ -3361,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3378,7 +3266,7 @@
         <v>-7</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7</v>
       </c>
       <c r="F55">
@@ -3393,7 +3281,7 @@
         <v>-4</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4</v>
       </c>
       <c r="K55">
@@ -3408,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1</v>
       </c>
     </row>
@@ -3425,7 +3313,7 @@
         <v>-16</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16</v>
       </c>
       <c r="F56">
@@ -3440,7 +3328,7 @@
         <v>-8</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8</v>
       </c>
       <c r="K56">
@@ -3455,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1</v>
       </c>
     </row>
@@ -3472,7 +3360,7 @@
         <v>-12</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12</v>
       </c>
       <c r="F57">
@@ -3487,7 +3375,7 @@
         <v>-11</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11</v>
       </c>
       <c r="K57">
@@ -3502,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1</v>
       </c>
     </row>
@@ -3519,7 +3407,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4</v>
       </c>
       <c r="F58">
@@ -3534,7 +3422,7 @@
         <v>-14</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14</v>
       </c>
       <c r="K58">
@@ -3549,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1</v>
       </c>
     </row>
@@ -3566,7 +3454,7 @@
         <v>19</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19</v>
       </c>
       <c r="F59">
@@ -3581,7 +3469,7 @@
         <v>-17</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17</v>
       </c>
       <c r="K59">
@@ -3596,7 +3484,7 @@
         <v>1</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1</v>
       </c>
     </row>
@@ -3613,7 +3501,7 @@
         <v>18</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18</v>
       </c>
       <c r="F60">
@@ -3628,7 +3516,7 @@
         <v>-18</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18</v>
       </c>
       <c r="K60">
@@ -3643,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0</v>
       </c>
     </row>
@@ -3660,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0</v>
       </c>
       <c r="F61">
@@ -3675,7 +3563,7 @@
         <v>-18</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18</v>
       </c>
       <c r="K61">
@@ -3690,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0</v>
       </c>
     </row>
@@ -3707,7 +3595,7 @@
         <v>-21</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21</v>
       </c>
       <c r="F62">
@@ -3722,7 +3610,7 @@
         <v>-16</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16</v>
       </c>
       <c r="K62" s="1">
@@ -3737,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0</v>
       </c>
     </row>
@@ -3754,7 +3642,7 @@
         <v>-27</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27</v>
       </c>
       <c r="F63">
@@ -3769,7 +3657,7 @@
         <v>-13</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13</v>
       </c>
       <c r="K63">
@@ -3784,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3801,7 +3689,7 @@
         <v>-8</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8</v>
       </c>
       <c r="F64">
@@ -3816,7 +3704,7 @@
         <v>-8</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8</v>
       </c>
       <c r="K64">
@@ -3831,7 +3719,7 @@
         <v>-1</v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1</v>
       </c>
     </row>
@@ -3848,7 +3736,7 @@
         <v>23</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23</v>
       </c>
       <c r="F65">
@@ -3863,7 +3751,7 @@
         <v>-1</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1</v>
       </c>
       <c r="K65">
@@ -3878,7 +3766,7 @@
         <v>-1</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1</v>
       </c>
     </row>
@@ -3895,7 +3783,7 @@
         <v>40</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40</v>
       </c>
       <c r="F66">
@@ -3910,7 +3798,7 @@
         <v>7</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7</v>
       </c>
       <c r="K66">
@@ -3925,7 +3813,7 @@
         <v>-1</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1</v>
       </c>
     </row>
@@ -3942,7 +3830,7 @@
         <v>21</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21</v>
       </c>
       <c r="F67">
@@ -3957,7 +3845,7 @@
         <v>16</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16</v>
       </c>
       <c r="K67">
@@ -3972,7 +3860,7 @@
         <v>-1</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1</v>
       </c>
     </row>
@@ -3989,7 +3877,7 @@
         <v>-25</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25</v>
       </c>
       <c r="F68">
@@ -4004,7 +3892,7 @@
         <v>27</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27</v>
       </c>
       <c r="K68">
@@ -4019,7 +3907,7 @@
         <v>-1</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1</v>
       </c>
     </row>
@@ -4028,45 +3916,45 @@
         <v>-6.2604193124299407E-2</v>
       </c>
       <c r="B69">
-        <f t="shared" ref="B69:B132" si="16">A69*1024</f>
+        <f t="shared" ref="B69:B132" si="12">A69*1024</f>
         <v>-64.106693759282592</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:C132" si="17">ROUND(B69,0)</f>
+        <f t="shared" ref="C69:C132" si="13">ROUND(B69,0)</f>
         <v>-64</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64</v>
       </c>
       <c r="F69">
         <v>3.6448469384432698E-2</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G132" si="18">F69*1024</f>
+        <f t="shared" ref="G69:G132" si="14">F69*1024</f>
         <v>37.323232649659083</v>
       </c>
       <c r="H69">
-        <f t="shared" ref="H69:H132" si="19">ROUND(G69,0)</f>
+        <f t="shared" ref="H69:H132" si="15">ROUND(G69,0)</f>
         <v>37</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37</v>
       </c>
       <c r="K69">
         <v>-1.17756792418474E-3</v>
       </c>
       <c r="L69">
-        <f t="shared" ref="L69:L132" si="20">K69*1024</f>
+        <f t="shared" ref="L69:L132" si="16">K69*1024</f>
         <v>-1.2058295543651738</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:M132" si="21">ROUND(L69,0)</f>
+        <f t="shared" ref="M69:M132" si="17">ROUND(L69,0)</f>
         <v>-1</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1</v>
       </c>
     </row>
@@ -4075,45 +3963,45 @@
         <v>-5.2647007037701497E-2</v>
       </c>
       <c r="B70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-53.910535206606333</v>
       </c>
       <c r="C70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-54</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" ref="D70:D133" si="22">CONCATENATE(D69,", ",C70)</f>
+        <f t="shared" ref="D70:D133" si="18">CONCATENATE(D69,", ",C70)</f>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54</v>
       </c>
       <c r="F70">
         <v>4.7004163260535803E-2</v>
       </c>
       <c r="G70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>48.132263178788662</v>
       </c>
       <c r="H70">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>48</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" ref="I70:I133" si="23">CONCATENATE(I69,", ",H70)</f>
+        <f t="shared" ref="I70:I133" si="19">CONCATENATE(I69,", ",H70)</f>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48</v>
       </c>
       <c r="K70">
         <v>-1.0511192539460401E-3</v>
       </c>
       <c r="L70">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>-1.076346116040745</v>
       </c>
       <c r="M70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" ref="N70:N133" si="24">CONCATENATE(N69,", ",M70)</f>
+        <f t="shared" ref="N70:N133" si="20">CONCATENATE(N69,", ",M70)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1</v>
       </c>
     </row>
@@ -4122,45 +4010,45 @@
         <v>2.5075940414236799E-2</v>
       </c>
       <c r="B71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>25.677762984178482</v>
       </c>
       <c r="C71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26</v>
       </c>
       <c r="F71">
         <v>5.7176037065042297E-2</v>
       </c>
       <c r="G71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>58.548261954603312</v>
       </c>
       <c r="H71">
+        <f t="shared" si="15"/>
+        <v>59</v>
+      </c>
+      <c r="I71" t="str">
         <f t="shared" si="19"/>
-        <v>59</v>
-      </c>
-      <c r="I71" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59</v>
       </c>
       <c r="K71">
         <v>-8.2406283336857204E-4</v>
       </c>
       <c r="L71">
+        <f t="shared" si="16"/>
+        <v>-0.84384034136941777</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="N71" t="str">
         <f t="shared" si="20"/>
-        <v>-0.84384034136941777</v>
-      </c>
-      <c r="M71">
-        <f t="shared" si="21"/>
-        <v>-1</v>
-      </c>
-      <c r="N71" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1</v>
       </c>
     </row>
@@ -4169,45 +4057,45 @@
         <v>0.14851307290093901</v>
       </c>
       <c r="B72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>152.07738665056155</v>
       </c>
       <c r="C72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>152</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152</v>
       </c>
       <c r="F72">
         <v>6.6507394523251107E-2</v>
       </c>
       <c r="G72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>68.103571991809133</v>
       </c>
       <c r="H72">
+        <f t="shared" si="15"/>
+        <v>68</v>
+      </c>
+      <c r="I72" t="str">
         <f t="shared" si="19"/>
-        <v>68</v>
-      </c>
-      <c r="I72" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68</v>
       </c>
       <c r="K72">
         <v>-5.05524916229736E-4</v>
       </c>
       <c r="L72">
+        <f t="shared" si="16"/>
+        <v>-0.51765751421924966</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="N72" t="str">
         <f t="shared" si="20"/>
-        <v>-0.51765751421924966</v>
-      </c>
-      <c r="M72">
-        <f t="shared" si="21"/>
-        <v>-1</v>
-      </c>
-      <c r="N72" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1</v>
       </c>
     </row>
@@ -4216,45 +4104,45 @@
         <v>0.26200806284168698</v>
       </c>
       <c r="B73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>268.29625634988747</v>
       </c>
       <c r="C73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>268</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268</v>
       </c>
       <c r="F73">
         <v>7.4567872679991501E-2</v>
       </c>
       <c r="G73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>76.357501624311297</v>
       </c>
       <c r="H73">
+        <f t="shared" si="15"/>
+        <v>76</v>
+      </c>
+      <c r="I73" t="str">
         <f t="shared" si="19"/>
-        <v>76</v>
-      </c>
-      <c r="I73" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76</v>
       </c>
       <c r="K73">
         <v>-1.13179140360855E-4</v>
       </c>
       <c r="L73">
+        <f t="shared" si="16"/>
+        <v>-0.11589543972951552</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N73" t="str">
         <f t="shared" si="20"/>
-        <v>-0.11589543972951552</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N73" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0</v>
       </c>
     </row>
@@ -4263,45 +4151,45 @@
         <v>0.30793577186684701</v>
       </c>
       <c r="B74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>315.32623039165134</v>
       </c>
       <c r="C74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315</v>
       </c>
       <c r="F74">
         <v>8.0977906099365102E-2</v>
       </c>
       <c r="G74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>82.921375845749864</v>
       </c>
       <c r="H74">
+        <f t="shared" si="15"/>
+        <v>83</v>
+      </c>
+      <c r="I74" t="str">
         <f t="shared" si="19"/>
-        <v>83</v>
-      </c>
-      <c r="I74" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83</v>
       </c>
       <c r="K74">
         <v>3.27536944162918E-4</v>
       </c>
       <c r="L74">
+        <f t="shared" si="16"/>
+        <v>0.33539783082282804</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N74" t="str">
         <f t="shared" si="20"/>
-        <v>0.33539783082282804</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N74" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0</v>
       </c>
     </row>
@@ -4310,45 +4198,45 @@
         <v>0.26200806284168698</v>
       </c>
       <c r="B75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>268.29625634988747</v>
       </c>
       <c r="C75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>268</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268</v>
       </c>
       <c r="F75">
         <v>8.5431437901348495E-2</v>
       </c>
       <c r="G75">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>87.481792410980859</v>
       </c>
       <c r="H75">
+        <f t="shared" si="15"/>
+        <v>87</v>
+      </c>
+      <c r="I75" t="str">
         <f t="shared" si="19"/>
-        <v>87</v>
-      </c>
-      <c r="I75" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87</v>
       </c>
       <c r="K75">
         <v>7.8470838166812295E-4</v>
       </c>
       <c r="L75">
+        <f t="shared" si="16"/>
+        <v>0.8035413828281579</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N75" t="str">
         <f t="shared" si="20"/>
-        <v>0.8035413828281579</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="N75" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1</v>
       </c>
     </row>
@@ -4357,45 +4245,45 @@
         <v>0.14851307290093901</v>
       </c>
       <c r="B76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>152.07738665056155</v>
       </c>
       <c r="C76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>152</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152</v>
       </c>
       <c r="F76">
         <v>8.7713589138552997E-2</v>
       </c>
       <c r="G76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>89.818715277878269</v>
       </c>
       <c r="H76">
+        <f t="shared" si="15"/>
+        <v>90</v>
+      </c>
+      <c r="I76" t="str">
         <f t="shared" si="19"/>
-        <v>90</v>
-      </c>
-      <c r="I76" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90</v>
       </c>
       <c r="K76">
         <v>1.2220423801477E-3</v>
       </c>
       <c r="L76">
+        <f t="shared" si="16"/>
+        <v>1.2513713972712448</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N76" t="str">
         <f t="shared" si="20"/>
-        <v>1.2513713972712448</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="N76" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1</v>
       </c>
     </row>
@@ -4404,45 +4292,45 @@
         <v>2.5075940414236799E-2</v>
       </c>
       <c r="B77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>25.677762984178482</v>
       </c>
       <c r="C77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26</v>
       </c>
       <c r="F77">
         <v>8.7713589138552997E-2</v>
       </c>
       <c r="G77">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>89.818715277878269</v>
       </c>
       <c r="H77">
+        <f t="shared" si="15"/>
+        <v>90</v>
+      </c>
+      <c r="I77" t="str">
         <f t="shared" si="19"/>
-        <v>90</v>
-      </c>
-      <c r="I77" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90</v>
       </c>
       <c r="K77" s="1">
         <v>1.6014086483712E-3</v>
       </c>
       <c r="L77">
+        <f t="shared" si="16"/>
+        <v>1.6398424559321088</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="N77" t="str">
         <f t="shared" si="20"/>
-        <v>1.6398424559321088</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="N77" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2</v>
       </c>
     </row>
@@ -4451,45 +4339,45 @@
         <v>-5.2647007037701497E-2</v>
       </c>
       <c r="B78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-53.910535206606333</v>
       </c>
       <c r="C78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-54</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54</v>
       </c>
       <c r="F78">
         <v>8.5431437901348495E-2</v>
       </c>
       <c r="G78">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>87.481792410980859</v>
       </c>
       <c r="H78">
+        <f t="shared" si="15"/>
+        <v>87</v>
+      </c>
+      <c r="I78" t="str">
         <f t="shared" si="19"/>
-        <v>87</v>
-      </c>
-      <c r="I78" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87</v>
       </c>
       <c r="K78">
         <v>1.8858596843242799E-3</v>
       </c>
       <c r="L78">
+        <f t="shared" si="16"/>
+        <v>1.9311203167480626</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="N78" t="str">
         <f t="shared" si="20"/>
-        <v>1.9311203167480626</v>
-      </c>
-      <c r="M78">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="N78" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2</v>
       </c>
     </row>
@@ -4498,45 +4386,45 @@
         <v>-6.2604193124299407E-2</v>
       </c>
       <c r="B79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-64.106693759282592</v>
       </c>
       <c r="C79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-64</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64</v>
       </c>
       <c r="F79">
         <v>8.0977906099365102E-2</v>
       </c>
       <c r="G79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>82.921375845749864</v>
       </c>
       <c r="H79">
+        <f t="shared" si="15"/>
+        <v>83</v>
+      </c>
+      <c r="I79" t="str">
         <f t="shared" si="19"/>
-        <v>83</v>
-      </c>
-      <c r="I79" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83</v>
       </c>
       <c r="K79">
         <v>2.0424978890667901E-3</v>
       </c>
       <c r="L79">
+        <f t="shared" si="16"/>
+        <v>2.0915178384043931</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="N79" t="str">
         <f t="shared" si="20"/>
-        <v>2.0915178384043931</v>
-      </c>
-      <c r="M79">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="N79" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2</v>
       </c>
     </row>
@@ -4545,45 +4433,45 @@
         <v>-2.4128967891027201E-2</v>
       </c>
       <c r="B80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-24.708063120411854</v>
       </c>
       <c r="C80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-25</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25</v>
       </c>
       <c r="F80">
         <v>7.4567872679991501E-2</v>
       </c>
       <c r="G80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>76.357501624311297</v>
       </c>
       <c r="H80">
+        <f t="shared" si="15"/>
+        <v>76</v>
+      </c>
+      <c r="I80" t="str">
         <f t="shared" si="19"/>
-        <v>76</v>
-      </c>
-      <c r="I80" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76</v>
       </c>
       <c r="K80">
         <v>2.0459196595336202E-3</v>
       </c>
       <c r="L80">
+        <f t="shared" si="16"/>
+        <v>2.0950217313624271</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="N80" t="str">
         <f t="shared" si="20"/>
-        <v>2.0950217313624271</v>
-      </c>
-      <c r="M80">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="N80" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2</v>
       </c>
     </row>
@@ -4592,45 +4480,45 @@
         <v>2.0969084366429001E-2</v>
       </c>
       <c r="B81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>21.472342391223297</v>
       </c>
       <c r="C81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21</v>
       </c>
       <c r="F81">
         <v>6.6507394523251107E-2</v>
       </c>
       <c r="G81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>68.103571991809133</v>
       </c>
       <c r="H81">
+        <f t="shared" si="15"/>
+        <v>68</v>
+      </c>
+      <c r="I81" t="str">
         <f t="shared" si="19"/>
-        <v>68</v>
-      </c>
-      <c r="I81" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68</v>
       </c>
       <c r="K81">
         <v>1.8804912501151701E-3</v>
       </c>
       <c r="L81">
+        <f t="shared" si="16"/>
+        <v>1.9256230401179342</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="N81" t="str">
         <f t="shared" si="20"/>
-        <v>1.9256230401179342</v>
-      </c>
-      <c r="M81">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="N81" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2</v>
       </c>
     </row>
@@ -4639,45 +4527,45 @@
         <v>3.8626734916027E-2</v>
       </c>
       <c r="B82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>39.553776554011648</v>
       </c>
       <c r="C82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40</v>
       </c>
       <c r="F82">
         <v>5.7176037065042297E-2</v>
       </c>
       <c r="G82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>58.548261954603312</v>
       </c>
       <c r="H82">
+        <f t="shared" si="15"/>
+        <v>59</v>
+      </c>
+      <c r="I82" t="str">
         <f t="shared" si="19"/>
-        <v>59</v>
-      </c>
-      <c r="I82" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59</v>
       </c>
       <c r="K82">
         <v>1.54269454967713E-3</v>
       </c>
       <c r="L82">
+        <f t="shared" si="16"/>
+        <v>1.5797192188693812</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="N82" t="str">
         <f t="shared" si="20"/>
-        <v>1.5797192188693812</v>
-      </c>
-      <c r="M82">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="N82" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2</v>
       </c>
     </row>
@@ -4686,45 +4574,45 @@
         <v>2.2609189709489198E-2</v>
       </c>
       <c r="B83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>23.151810262516939</v>
       </c>
       <c r="C83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23</v>
       </c>
       <c r="F83">
         <v>4.7004163260535803E-2</v>
       </c>
       <c r="G83">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>48.132263178788662</v>
       </c>
       <c r="H83">
+        <f t="shared" si="15"/>
+        <v>48</v>
+      </c>
+      <c r="I83" t="str">
         <f t="shared" si="19"/>
-        <v>48</v>
-      </c>
-      <c r="I83" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48</v>
       </c>
       <c r="K83">
         <v>1.0424804818891199E-3</v>
       </c>
       <c r="L83">
+        <f t="shared" si="16"/>
+        <v>1.0675000134544588</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N83" t="str">
         <f t="shared" si="20"/>
-        <v>1.0675000134544588</v>
-      </c>
-      <c r="M83">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="N83" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1</v>
       </c>
     </row>
@@ -4733,45 +4621,45 @@
         <v>-7.5642623596063599E-3</v>
       </c>
       <c r="B84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-7.7458046562369125</v>
       </c>
       <c r="C84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-8</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8</v>
       </c>
       <c r="F84">
         <v>3.6448469384432698E-2</v>
       </c>
       <c r="G84">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>37.323232649659083</v>
       </c>
       <c r="H84">
+        <f t="shared" si="15"/>
+        <v>37</v>
+      </c>
+      <c r="I84" t="str">
         <f t="shared" si="19"/>
-        <v>37</v>
-      </c>
-      <c r="I84" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37</v>
       </c>
       <c r="K84">
         <v>4.0368626848191801E-4</v>
       </c>
       <c r="L84">
+        <f t="shared" si="16"/>
+        <v>0.41337473892548404</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N84" t="str">
         <f t="shared" si="20"/>
-        <v>0.41337473892548404</v>
-      </c>
-      <c r="M84">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N84" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0</v>
       </c>
     </row>
@@ -4780,45 +4668,45 @@
         <v>-2.59786296436437E-2</v>
       </c>
       <c r="B85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-26.602116755091149</v>
       </c>
       <c r="C85">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-27</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27</v>
       </c>
       <c r="F85">
         <v>2.5965875886918899E-2</v>
       </c>
       <c r="G85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>26.589056908204952</v>
       </c>
       <c r="H85">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+      <c r="I85" t="str">
         <f t="shared" si="19"/>
-        <v>27</v>
-      </c>
-      <c r="I85" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27</v>
       </c>
       <c r="K85">
         <v>-3.3660322222760003E-4</v>
       </c>
       <c r="L85">
+        <f t="shared" si="16"/>
+        <v>-0.34468169956106243</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N85" t="str">
         <f t="shared" si="20"/>
-        <v>-0.34468169956106243</v>
-      </c>
-      <c r="M85">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N85" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0</v>
       </c>
     </row>
@@ -4827,45 +4715,45 @@
         <v>-2.0602604025493399E-2</v>
       </c>
       <c r="B86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-21.097066522105241</v>
       </c>
       <c r="C86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-21</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21</v>
       </c>
       <c r="F86">
         <v>1.5988402242422602E-2</v>
       </c>
       <c r="G86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>16.372123896240744</v>
       </c>
       <c r="H86">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="I86" t="str">
         <f t="shared" si="19"/>
-        <v>16</v>
-      </c>
-      <c r="I86" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16</v>
       </c>
       <c r="K86">
         <v>-1.1297040661204299E-3</v>
       </c>
       <c r="L86">
+        <f t="shared" si="16"/>
+        <v>-1.1568169637073202</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="N86" t="str">
         <f t="shared" si="20"/>
-        <v>-1.1568169637073202</v>
-      </c>
-      <c r="M86">
-        <f t="shared" si="21"/>
-        <v>-1</v>
-      </c>
-      <c r="N86" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1</v>
       </c>
     </row>
@@ -4874,45 +4762,45 @@
         <v>2.0948887734010101E-4</v>
       </c>
       <c r="B87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0.21451661039626344</v>
       </c>
       <c r="C87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0</v>
       </c>
       <c r="F87">
         <v>6.9002332173836401E-3</v>
       </c>
       <c r="G87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>7.0658388146008475</v>
       </c>
       <c r="H87">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="I87" t="str">
         <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="I87" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7</v>
       </c>
       <c r="K87" s="1">
         <v>-1.9180271655594499E-3</v>
       </c>
       <c r="L87">
+        <f t="shared" si="16"/>
+        <v>-1.9640598175328767</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="17"/>
+        <v>-2</v>
+      </c>
+      <c r="N87" t="str">
         <f t="shared" si="20"/>
-        <v>-1.9640598175328767</v>
-      </c>
-      <c r="M87">
-        <f t="shared" si="21"/>
-        <v>-2</v>
-      </c>
-      <c r="N87" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2</v>
       </c>
     </row>
@@ -4921,45 +4809,45 @@
         <v>1.7547151311754602E-2</v>
       </c>
       <c r="B88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>17.968282943236712</v>
       </c>
       <c r="C88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18</v>
       </c>
       <c r="F88">
         <v>-9.8185662818333404E-4</v>
       </c>
       <c r="G88">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-1.0054211872597341</v>
       </c>
       <c r="H88">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="I88" t="str">
         <f t="shared" si="19"/>
-        <v>-1</v>
-      </c>
-      <c r="I88" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1</v>
       </c>
       <c r="K88">
         <v>-2.6386063996935E-3</v>
       </c>
       <c r="L88">
+        <f t="shared" si="16"/>
+        <v>-2.701932953286144</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="17"/>
+        <v>-3</v>
+      </c>
+      <c r="N88" t="str">
         <f t="shared" si="20"/>
-        <v>-2.701932953286144</v>
-      </c>
-      <c r="M88">
-        <f t="shared" si="21"/>
-        <v>-3</v>
-      </c>
-      <c r="N88" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3</v>
       </c>
     </row>
@@ -4968,45 +4856,45 @@
         <v>1.8218706805891799E-2</v>
       </c>
       <c r="B89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>18.655955769233202</v>
       </c>
       <c r="C89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19</v>
       </c>
       <c r="F89">
         <v>-7.4225852625211097E-3</v>
       </c>
       <c r="G89">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-7.6007273088216163</v>
       </c>
       <c r="H89">
+        <f t="shared" si="15"/>
+        <v>-8</v>
+      </c>
+      <c r="I89" t="str">
         <f t="shared" si="19"/>
-        <v>-8</v>
-      </c>
-      <c r="I89" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8</v>
       </c>
       <c r="K89">
         <v>-3.2272956756481601E-3</v>
       </c>
       <c r="L89">
+        <f t="shared" si="16"/>
+        <v>-3.3047507718637159</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="17"/>
+        <v>-3</v>
+      </c>
+      <c r="N89" t="str">
         <f t="shared" si="20"/>
-        <v>-3.3047507718637159</v>
-      </c>
-      <c r="M89">
-        <f t="shared" si="21"/>
-        <v>-3</v>
-      </c>
-      <c r="N89" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3</v>
       </c>
     </row>
@@ -5015,45 +4903,45 @@
         <v>4.1514914181358603E-3</v>
       </c>
       <c r="B90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>4.251127212171121</v>
       </c>
       <c r="C90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4</v>
       </c>
       <c r="F90">
         <v>-1.2277900157896E-2</v>
       </c>
       <c r="G90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-12.572569761685504</v>
       </c>
       <c r="H90">
+        <f t="shared" si="15"/>
+        <v>-13</v>
+      </c>
+      <c r="I90" t="str">
         <f t="shared" si="19"/>
-        <v>-13</v>
-      </c>
-      <c r="I90" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13</v>
       </c>
       <c r="K90">
         <v>-3.6233530641963199E-3</v>
       </c>
       <c r="L90">
+        <f t="shared" si="16"/>
+        <v>-3.7103135377370315</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="17"/>
+        <v>-4</v>
+      </c>
+      <c r="N90" t="str">
         <f t="shared" si="20"/>
-        <v>-3.7103135377370315</v>
-      </c>
-      <c r="M90">
-        <f t="shared" si="21"/>
-        <v>-4</v>
-      </c>
-      <c r="N90" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4</v>
       </c>
     </row>
@@ -5062,45 +4950,45 @@
         <v>-1.1320136907988601E-2</v>
       </c>
       <c r="B91">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-11.591820193780327</v>
       </c>
       <c r="C91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-12</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12</v>
       </c>
       <c r="F91">
         <v>-1.54973755579117E-2</v>
       </c>
       <c r="G91">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-15.869312571301581</v>
       </c>
       <c r="H91">
+        <f t="shared" si="15"/>
+        <v>-16</v>
+      </c>
+      <c r="I91" t="str">
         <f t="shared" si="19"/>
-        <v>-16</v>
-      </c>
-      <c r="I91" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16</v>
       </c>
       <c r="K91">
         <v>-3.7740947189691199E-3</v>
       </c>
       <c r="L91">
+        <f t="shared" si="16"/>
+        <v>-3.8646729922243788</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="17"/>
+        <v>-4</v>
+      </c>
+      <c r="N91" t="str">
         <f t="shared" si="20"/>
-        <v>-3.8646729922243788</v>
-      </c>
-      <c r="M91">
-        <f t="shared" si="21"/>
-        <v>-4</v>
-      </c>
-      <c r="N91" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4</v>
       </c>
     </row>
@@ -5109,45 +4997,45 @@
         <v>-1.55832378252121E-2</v>
       </c>
       <c r="B92">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-15.95723553301719</v>
       </c>
       <c r="C92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-16</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16</v>
       </c>
       <c r="F92">
         <v>-1.71217338018602E-2</v>
       </c>
       <c r="G92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-17.532655413104845</v>
       </c>
       <c r="H92">
+        <f t="shared" si="15"/>
+        <v>-18</v>
+      </c>
+      <c r="I92" t="str">
         <f t="shared" si="19"/>
-        <v>-18</v>
-      </c>
-      <c r="I92" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18</v>
       </c>
       <c r="K92">
         <v>-3.6392547586449101E-3</v>
       </c>
       <c r="L92">
+        <f t="shared" si="16"/>
+        <v>-3.7265968728523879</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="17"/>
+        <v>-4</v>
+      </c>
+      <c r="N92" t="str">
         <f t="shared" si="20"/>
-        <v>-3.7265968728523879</v>
-      </c>
-      <c r="M92">
-        <f t="shared" si="21"/>
-        <v>-4</v>
-      </c>
-      <c r="N92" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4</v>
       </c>
     </row>
@@ -5156,45 +5044,45 @@
         <v>-6.6725365299933198E-3</v>
       </c>
       <c r="B93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-6.8326774067131595</v>
       </c>
       <c r="C93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-7</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7</v>
       </c>
       <c r="F93">
         <v>-1.7274578282228299E-2</v>
       </c>
       <c r="G93">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-17.689168161001778</v>
       </c>
       <c r="H93">
+        <f t="shared" si="15"/>
+        <v>-18</v>
+      </c>
+      <c r="I93" t="str">
         <f t="shared" si="19"/>
-        <v>-18</v>
-      </c>
-      <c r="I93" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18</v>
       </c>
       <c r="K93">
         <v>-3.1947452926514202E-3</v>
       </c>
       <c r="L93">
+        <f t="shared" si="16"/>
+        <v>-3.2714191796750542</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="17"/>
+        <v>-3</v>
+      </c>
+      <c r="N93" t="str">
         <f t="shared" si="20"/>
-        <v>-3.2714191796750542</v>
-      </c>
-      <c r="M93">
-        <f t="shared" si="21"/>
-        <v>-3</v>
-      </c>
-      <c r="N93" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3</v>
       </c>
     </row>
@@ -5203,45 +5091,45 @@
         <v>6.5420403970275201E-3</v>
       </c>
       <c r="B94">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>6.6990493665561806</v>
       </c>
       <c r="C94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7</v>
       </c>
       <c r="F94">
         <v>-1.6149436448152501E-2</v>
       </c>
       <c r="G94">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-16.537022922908161</v>
       </c>
       <c r="H94">
+        <f t="shared" si="15"/>
+        <v>-17</v>
+      </c>
+      <c r="I94" t="str">
         <f t="shared" si="19"/>
-        <v>-17</v>
-      </c>
-      <c r="I94" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17</v>
       </c>
       <c r="K94">
         <v>-2.4354866346171498E-3</v>
       </c>
       <c r="L94">
+        <f t="shared" si="16"/>
+        <v>-2.4939383138479614</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="17"/>
+        <v>-2</v>
+      </c>
+      <c r="N94" t="str">
         <f t="shared" si="20"/>
-        <v>-2.4939383138479614</v>
-      </c>
-      <c r="M94">
-        <f t="shared" si="21"/>
-        <v>-2</v>
-      </c>
-      <c r="N94" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2</v>
       </c>
     </row>
@@ -5250,45 +5138,45 @@
         <v>1.28304079036457E-2</v>
       </c>
       <c r="B95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>13.138337693333197</v>
       </c>
       <c r="C95">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13</v>
       </c>
       <c r="F95">
         <v>-1.3993135006185001E-2</v>
       </c>
       <c r="G95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-14.328970246333441</v>
       </c>
       <c r="H95">
+        <f t="shared" si="15"/>
+        <v>-14</v>
+      </c>
+      <c r="I95" t="str">
         <f t="shared" si="19"/>
-        <v>-14</v>
-      </c>
-      <c r="I95" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14</v>
       </c>
       <c r="K95">
         <v>-1.3770632191021301E-3</v>
       </c>
       <c r="L95">
+        <f t="shared" si="16"/>
+        <v>-1.4101127363605812</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="N95" t="str">
         <f t="shared" si="20"/>
-        <v>-1.4101127363605812</v>
-      </c>
-      <c r="M95">
-        <f t="shared" si="21"/>
-        <v>-1</v>
-      </c>
-      <c r="N95" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1</v>
       </c>
     </row>
@@ -5297,45 +5185,45 @@
         <v>7.9246238618450003E-3</v>
       </c>
       <c r="B96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>8.1148148345292803</v>
       </c>
       <c r="C96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8</v>
       </c>
       <c r="F96">
         <v>-1.10868784906707E-2</v>
       </c>
       <c r="G96">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-11.352963574446797</v>
       </c>
       <c r="H96">
+        <f t="shared" si="15"/>
+        <v>-11</v>
+      </c>
+      <c r="I96" t="str">
         <f t="shared" si="19"/>
-        <v>-11</v>
-      </c>
-      <c r="I96" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11</v>
       </c>
       <c r="K96" s="1">
         <v>-5.6025615728318497E-5</v>
       </c>
       <c r="L96">
+        <f t="shared" si="16"/>
+        <v>-5.7370230505798141E-2</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N96" t="str">
         <f t="shared" si="20"/>
-        <v>-5.7370230505798141E-2</v>
-      </c>
-      <c r="M96">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N96" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0</v>
       </c>
     </row>
@@ -5344,45 +5232,45 @@
         <v>-2.8705146006650201E-3</v>
       </c>
       <c r="B97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-2.9394069510809806</v>
       </c>
       <c r="C97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-3</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3</v>
       </c>
       <c r="F97">
         <v>-7.7266950707862297E-3</v>
       </c>
       <c r="G97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-7.9121357524850993</v>
       </c>
       <c r="H97">
+        <f t="shared" si="15"/>
+        <v>-8</v>
+      </c>
+      <c r="I97" t="str">
         <f t="shared" si="19"/>
-        <v>-8</v>
-      </c>
-      <c r="I97" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8</v>
       </c>
       <c r="K97">
         <v>1.4712441107666799E-3</v>
       </c>
       <c r="L97">
+        <f t="shared" si="16"/>
+        <v>1.5065539694250802</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="N97" t="str">
         <f t="shared" si="20"/>
-        <v>1.5065539694250802</v>
-      </c>
-      <c r="M97">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="N97" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2</v>
       </c>
     </row>
@@ -5391,45 +5279,45 @@
         <v>-1.00891703751348E-2</v>
       </c>
       <c r="B98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-10.331310464138035</v>
       </c>
       <c r="C98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-10</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10</v>
       </c>
       <c r="F98">
         <v>-4.2036357543005099E-3</v>
       </c>
       <c r="G98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-4.3045230124037221</v>
       </c>
       <c r="H98">
+        <f t="shared" si="15"/>
+        <v>-4</v>
+      </c>
+      <c r="I98" t="str">
         <f t="shared" si="19"/>
-        <v>-4</v>
-      </c>
-      <c r="I98" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4</v>
       </c>
       <c r="K98">
         <v>3.1310977919498202E-3</v>
       </c>
       <c r="L98">
+        <f t="shared" si="16"/>
+        <v>3.2062441389566159</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="N98" t="str">
         <f t="shared" si="20"/>
-        <v>3.2062441389566159</v>
-      </c>
-      <c r="M98">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="N98" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3</v>
       </c>
     </row>
@@ -5438,45 +5326,45 @@
         <v>-8.2551226408476407E-3</v>
       </c>
       <c r="B99">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-8.4532455842279841</v>
       </c>
       <c r="C99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-8</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8</v>
       </c>
       <c r="F99">
         <v>-7.8634168168336999E-4</v>
       </c>
       <c r="G99">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-0.80521388204377087</v>
       </c>
       <c r="H99">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="I99" t="str">
         <f t="shared" si="19"/>
-        <v>-1</v>
-      </c>
-      <c r="I99" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1</v>
       </c>
       <c r="K99">
         <v>4.8364840486169597E-3</v>
       </c>
       <c r="L99">
+        <f t="shared" si="16"/>
+        <v>4.9525596657837667</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="N99" t="str">
         <f t="shared" si="20"/>
-        <v>4.9525596657837667</v>
-      </c>
-      <c r="M99">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="N99" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5</v>
       </c>
     </row>
@@ -5485,45 +5373,45 @@
         <v>1.2224334270097799E-4</v>
       </c>
       <c r="B100">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0.12517718292580146</v>
       </c>
       <c r="C100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0</v>
       </c>
       <c r="F100">
         <v>2.2941679650818501E-3</v>
       </c>
       <c r="G100">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>2.3492279962438145</v>
       </c>
       <c r="H100">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="I100" t="str">
         <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="I100" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2</v>
       </c>
       <c r="K100">
         <v>6.4919019240613799E-3</v>
       </c>
       <c r="L100">
+        <f t="shared" si="16"/>
+        <v>6.6477075702388531</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="N100" t="str">
         <f t="shared" si="20"/>
-        <v>6.6477075702388531</v>
-      </c>
-      <c r="M100">
-        <f t="shared" si="21"/>
-        <v>7</v>
-      </c>
-      <c r="N100" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7</v>
       </c>
     </row>
@@ -5532,45 +5420,45 @@
         <v>7.48008157757446E-3</v>
       </c>
       <c r="B101">
+        <f t="shared" si="12"/>
+        <v>7.6596035354362471</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="18"/>
+        <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8</v>
+      </c>
+      <c r="F101">
+        <v>4.8557318230469304E-3</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="14"/>
+        <v>4.9722693868000567</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="19"/>
+        <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5</v>
+      </c>
+      <c r="K101">
+        <v>7.9991387074203005E-3</v>
+      </c>
+      <c r="L101">
         <f t="shared" si="16"/>
-        <v>7.6596035354362471</v>
-      </c>
-      <c r="C101">
+        <v>8.1911180363983878</v>
+      </c>
+      <c r="M101">
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
-      <c r="D101" t="str">
-        <f t="shared" si="22"/>
-        <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8</v>
-      </c>
-      <c r="F101">
-        <v>4.8557318230469304E-3</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="18"/>
-        <v>4.9722693868000567</v>
-      </c>
-      <c r="H101">
-        <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="I101" t="str">
-        <f t="shared" si="23"/>
-        <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5</v>
-      </c>
-      <c r="K101">
-        <v>7.9991387074203005E-3</v>
-      </c>
-      <c r="L101">
+      <c r="N101" t="str">
         <f t="shared" si="20"/>
-        <v>8.1911180363983878</v>
-      </c>
-      <c r="M101">
-        <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="N101" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8</v>
       </c>
     </row>
@@ -5579,45 +5467,45 @@
         <v>7.9179700489016291E-3</v>
       </c>
       <c r="B102">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>8.1080013300752682</v>
       </c>
       <c r="C102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8</v>
       </c>
       <c r="F102">
         <v>6.7722891809736197E-3</v>
       </c>
       <c r="G102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>6.9348241213169866</v>
       </c>
       <c r="H102">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="I102" t="str">
         <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="I102" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7</v>
       </c>
       <c r="K102">
         <v>9.2634197343541905E-3</v>
       </c>
       <c r="L102">
+        <f t="shared" si="16"/>
+        <v>9.485741807978691</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="N102" t="str">
         <f t="shared" si="20"/>
-        <v>9.485741807978691</v>
-      </c>
-      <c r="M102">
-        <f t="shared" si="21"/>
-        <v>9</v>
-      </c>
-      <c r="N102" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9</v>
       </c>
     </row>
@@ -5626,45 +5514,45 @@
         <v>1.82843004762087E-3</v>
       </c>
       <c r="B103">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>1.8723123687637708</v>
       </c>
       <c r="C103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2</v>
       </c>
       <c r="F103">
         <v>7.9770032222973297E-3</v>
       </c>
       <c r="G103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>8.1684512996324656</v>
       </c>
       <c r="H103">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="I103" t="str">
         <f t="shared" si="19"/>
-        <v>8</v>
-      </c>
-      <c r="I103" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8</v>
       </c>
       <c r="K103">
         <v>1.01995560909744E-2</v>
       </c>
       <c r="L103">
+        <f t="shared" si="16"/>
+        <v>10.444345437157786</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="N103" t="str">
         <f t="shared" si="20"/>
-        <v>10.444345437157786</v>
-      </c>
-      <c r="M103">
-        <f t="shared" si="21"/>
-        <v>10</v>
-      </c>
-      <c r="N103" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10</v>
       </c>
     </row>
@@ -5673,45 +5561,45 @@
         <v>-5.1048168570316504E-3</v>
       </c>
       <c r="B104">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-5.22733246160041</v>
       </c>
       <c r="C104">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-5</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5</v>
       </c>
       <c r="F104">
         <v>8.4602941479259997E-3</v>
       </c>
       <c r="G104">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>8.6633412074762237</v>
       </c>
       <c r="H104">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="I104" t="str">
         <f t="shared" si="19"/>
-        <v>9</v>
-      </c>
-      <c r="I104" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9</v>
       </c>
       <c r="K104">
         <v>1.07376727373087E-2</v>
       </c>
       <c r="L104">
+        <f t="shared" si="16"/>
+        <v>10.995376883004109</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="N104" t="str">
         <f t="shared" si="20"/>
-        <v>10.995376883004109</v>
-      </c>
-      <c r="M104">
-        <f t="shared" si="21"/>
-        <v>11</v>
-      </c>
-      <c r="N104" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11</v>
       </c>
     </row>
@@ -5720,45 +5608,45 @@
         <v>-7.1184750335236196E-3</v>
       </c>
       <c r="B105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-7.2893184343281865</v>
       </c>
       <c r="C105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-7</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7</v>
       </c>
       <c r="F105">
         <v>8.2658083170385494E-3</v>
       </c>
       <c r="G105">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>8.4641877166474746</v>
       </c>
       <c r="H105">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="I105" t="str">
         <f t="shared" si="19"/>
-        <v>8</v>
-      </c>
-      <c r="I105" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8</v>
       </c>
       <c r="K105">
         <v>1.08281060327147E-2</v>
       </c>
       <c r="L105">
+        <f t="shared" si="16"/>
+        <v>11.087980577499852</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="N105" t="str">
         <f t="shared" si="20"/>
-        <v>11.087980577499852</v>
-      </c>
-      <c r="M105">
-        <f t="shared" si="21"/>
-        <v>11</v>
-      </c>
-      <c r="N105" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11</v>
       </c>
     </row>
@@ -5767,45 +5655,45 @@
         <v>-3.0897867744295099E-3</v>
       </c>
       <c r="B106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-3.1639416570158181</v>
       </c>
       <c r="C106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-3</v>
       </c>
       <c r="D106" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3</v>
       </c>
       <c r="F106">
         <v>7.4808461674140299E-3</v>
       </c>
       <c r="G106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>7.6603864754319666</v>
       </c>
       <c r="H106">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="I106" t="str">
         <f t="shared" si="19"/>
-        <v>8</v>
-      </c>
-      <c r="I106" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8</v>
       </c>
       <c r="K106">
         <v>1.04451212202434E-2</v>
       </c>
       <c r="L106">
+        <f t="shared" si="16"/>
+        <v>10.695804129529241</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="N106" t="str">
         <f t="shared" si="20"/>
-        <v>10.695804129529241</v>
-      </c>
-      <c r="M106">
-        <f t="shared" si="21"/>
-        <v>11</v>
-      </c>
-      <c r="N106" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11</v>
       </c>
     </row>
@@ -5814,45 +5702,45 @@
         <v>3.0408550172863302E-3</v>
       </c>
       <c r="B107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>3.1138355377012021</v>
       </c>
       <c r="C107">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3</v>
       </c>
       <c r="F107">
         <v>6.2264261555799198E-3</v>
       </c>
       <c r="G107">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>6.3758603833138379</v>
       </c>
       <c r="H107">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="I107" t="str">
         <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="I107" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6</v>
       </c>
       <c r="K107">
         <v>9.5891700258089393E-3</v>
       </c>
       <c r="L107">
+        <f t="shared" si="16"/>
+        <v>9.8193101064283539</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="N107" t="str">
         <f t="shared" si="20"/>
-        <v>9.8193101064283539</v>
-      </c>
-      <c r="M107">
-        <f t="shared" si="21"/>
-        <v>10</v>
-      </c>
-      <c r="N107" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10</v>
       </c>
     </row>
@@ -5861,45 +5749,45 @@
         <v>6.0314999876801296E-3</v>
       </c>
       <c r="B108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>6.1762559873844527</v>
       </c>
       <c r="C108">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6</v>
       </c>
       <c r="F108">
         <v>4.6450999246200504E-3</v>
       </c>
       <c r="G108">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>4.7565823228109316</v>
       </c>
       <c r="H108">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="I108" t="str">
         <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="I108" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5</v>
       </c>
       <c r="K108">
         <v>8.2875044450328294E-3</v>
       </c>
       <c r="L108">
+        <f t="shared" si="16"/>
+        <v>8.4864045517136173</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="N108" t="str">
         <f t="shared" si="20"/>
-        <v>8.4864045517136173</v>
-      </c>
-      <c r="M108">
-        <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="N108" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8</v>
       </c>
     </row>
@@ -5908,45 +5796,45 @@
         <v>3.76861846619318E-3</v>
       </c>
       <c r="B109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>3.8590653093818164</v>
       </c>
       <c r="C109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D109" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4</v>
       </c>
       <c r="F109">
         <v>2.8884445548751402E-3</v>
       </c>
       <c r="G109">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>2.9577672241921436</v>
       </c>
       <c r="H109">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="I109" t="str">
         <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="I109" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3</v>
       </c>
       <c r="K109">
         <v>6.5930766798161598E-3</v>
       </c>
       <c r="L109">
+        <f t="shared" si="16"/>
+        <v>6.7513105201317476</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="N109" t="str">
         <f t="shared" si="20"/>
-        <v>6.7513105201317476</v>
-      </c>
-      <c r="M109">
-        <f t="shared" si="21"/>
-        <v>7</v>
-      </c>
-      <c r="N109" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7</v>
       </c>
     </row>
@@ -5955,45 +5843,45 @@
         <v>-1.33621728115617E-3</v>
       </c>
       <c r="B110">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-1.368286495903918</v>
       </c>
       <c r="C110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1</v>
       </c>
       <c r="F110">
         <v>1.1049987059132699E-3</v>
       </c>
       <c r="G110">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1.1315186748551884</v>
       </c>
       <c r="H110">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="str">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="I110" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1</v>
       </c>
       <c r="K110">
         <v>4.5817770033893604E-3</v>
       </c>
       <c r="L110">
+        <f t="shared" si="16"/>
+        <v>4.691739651470705</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="N110" t="str">
         <f t="shared" si="20"/>
-        <v>4.691739651470705</v>
-      </c>
-      <c r="M110">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="N110" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5</v>
       </c>
     </row>
@@ -6002,45 +5890,45 @@
         <v>-4.8036118160601103E-3</v>
       </c>
       <c r="B111">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-4.9188984996455529</v>
       </c>
       <c r="C111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-5</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5</v>
       </c>
       <c r="F111">
         <v>-5.7029976905142196E-4</v>
       </c>
       <c r="G111">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-0.58398696350865609</v>
       </c>
       <c r="H111">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="I111" t="str">
         <f t="shared" si="19"/>
-        <v>-1</v>
-      </c>
-      <c r="I111" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1</v>
       </c>
       <c r="K111">
         <v>2.34816971255141E-3</v>
       </c>
       <c r="L111">
+        <f t="shared" si="16"/>
+        <v>2.4045257856526439</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="N111" t="str">
         <f t="shared" si="20"/>
-        <v>2.4045257856526439</v>
-      </c>
-      <c r="M111">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="N111" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2</v>
       </c>
     </row>
@@ -6049,45 +5937,45 @@
         <v>-3.9715179742928E-3</v>
       </c>
       <c r="B112">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-4.0668344056758272</v>
       </c>
       <c r="C112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-4</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4</v>
       </c>
       <c r="F112">
         <v>-2.0245191568828199E-3</v>
       </c>
       <c r="G112">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-2.0731076166480076</v>
       </c>
       <c r="H112">
+        <f t="shared" si="15"/>
+        <v>-2</v>
+      </c>
+      <c r="I112" t="str">
         <f t="shared" si="19"/>
-        <v>-2</v>
-      </c>
-      <c r="I112" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2</v>
       </c>
       <c r="K112">
         <v>0</v>
       </c>
       <c r="L112">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N112" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M112">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N112" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0</v>
       </c>
     </row>
@@ -6096,45 +5984,45 @@
         <v>1.51501825474768E-5</v>
       </c>
       <c r="B113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>1.5513786928616243E-2</v>
       </c>
       <c r="C113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0</v>
       </c>
       <c r="F113">
         <v>-3.1731499620790702E-3</v>
       </c>
       <c r="G113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-3.2493055611689678</v>
       </c>
       <c r="H113">
+        <f t="shared" si="15"/>
+        <v>-3</v>
+      </c>
+      <c r="I113" t="str">
         <f t="shared" si="19"/>
-        <v>-3</v>
-      </c>
-      <c r="I113" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3</v>
       </c>
       <c r="K113">
         <v>-2.34816971255141E-3</v>
       </c>
       <c r="L113">
+        <f t="shared" si="16"/>
+        <v>-2.4045257856526439</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="17"/>
+        <v>-2</v>
+      </c>
+      <c r="N113" t="str">
         <f t="shared" si="20"/>
-        <v>-2.4045257856526439</v>
-      </c>
-      <c r="M113">
-        <f t="shared" si="21"/>
-        <v>-2</v>
-      </c>
-      <c r="N113" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2</v>
       </c>
     </row>
@@ -6143,45 +6031,45 @@
         <v>3.5571979523515E-3</v>
       </c>
       <c r="B114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>3.642570703207936</v>
       </c>
       <c r="C114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4</v>
       </c>
       <c r="F114">
         <v>-3.9632798142873104E-3</v>
       </c>
       <c r="G114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-4.0583985298302059</v>
       </c>
       <c r="H114">
+        <f t="shared" si="15"/>
+        <v>-4</v>
+      </c>
+      <c r="I114" t="str">
         <f t="shared" si="19"/>
-        <v>-4</v>
-      </c>
-      <c r="I114" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4</v>
       </c>
       <c r="K114">
         <v>-4.5817770033893604E-3</v>
       </c>
       <c r="L114">
+        <f t="shared" si="16"/>
+        <v>-4.691739651470705</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="17"/>
+        <v>-5</v>
+      </c>
+      <c r="N114" t="str">
         <f t="shared" si="20"/>
-        <v>-4.691739651470705</v>
-      </c>
-      <c r="M114">
-        <f t="shared" si="21"/>
-        <v>-5</v>
-      </c>
-      <c r="N114" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5</v>
       </c>
     </row>
@@ -6190,45 +6078,45 @@
         <v>3.8090051338016701E-3</v>
       </c>
       <c r="B115">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>3.9004212570129102</v>
       </c>
       <c r="C115">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4</v>
       </c>
       <c r="F115">
         <v>-4.3745277784091102E-3</v>
       </c>
       <c r="G115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-4.4795164450909288</v>
       </c>
       <c r="H115">
+        <f t="shared" si="15"/>
+        <v>-4</v>
+      </c>
+      <c r="I115" t="str">
         <f t="shared" si="19"/>
-        <v>-4</v>
-      </c>
-      <c r="I115" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4</v>
       </c>
       <c r="K115">
         <v>-6.5930766798161598E-3</v>
       </c>
       <c r="L115">
+        <f t="shared" si="16"/>
+        <v>-6.7513105201317476</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="17"/>
+        <v>-7</v>
+      </c>
+      <c r="N115" t="str">
         <f t="shared" si="20"/>
-        <v>-6.7513105201317476</v>
-      </c>
-      <c r="M115">
-        <f t="shared" si="21"/>
-        <v>-7</v>
-      </c>
-      <c r="N115" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7</v>
       </c>
     </row>
@@ -6237,45 +6125,45 @@
         <v>9.2550763835286005E-4</v>
       </c>
       <c r="B116">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0.94771982167332869</v>
       </c>
       <c r="C116">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1</v>
       </c>
       <c r="F116">
         <v>-4.4170620352491198E-3</v>
       </c>
       <c r="G116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-4.5230715240950987</v>
       </c>
       <c r="H116">
+        <f t="shared" si="15"/>
+        <v>-5</v>
+      </c>
+      <c r="I116" t="str">
         <f t="shared" si="19"/>
-        <v>-5</v>
-      </c>
-      <c r="I116" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5</v>
       </c>
       <c r="K116">
         <v>-8.2875044450328294E-3</v>
       </c>
       <c r="L116">
+        <f t="shared" si="16"/>
+        <v>-8.4864045517136173</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="17"/>
+        <v>-8</v>
+      </c>
+      <c r="N116" t="str">
         <f t="shared" si="20"/>
-        <v>-8.4864045517136173</v>
-      </c>
-      <c r="M116">
-        <f t="shared" si="21"/>
-        <v>-8</v>
-      </c>
-      <c r="N116" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8</v>
       </c>
     </row>
@@ -6284,45 +6172,45 @@
         <v>-2.3933478233715902E-3</v>
       </c>
       <c r="B117">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-2.4507881711325084</v>
       </c>
       <c r="C117">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2</v>
       </c>
       <c r="F117">
         <v>-4.1277137327169998E-3</v>
       </c>
       <c r="G117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-4.2267788623022078</v>
       </c>
       <c r="H117">
+        <f t="shared" si="15"/>
+        <v>-4</v>
+      </c>
+      <c r="I117" t="str">
         <f t="shared" si="19"/>
-        <v>-4</v>
-      </c>
-      <c r="I117" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4</v>
       </c>
       <c r="K117">
         <v>-9.5891700258089393E-3</v>
       </c>
       <c r="L117">
+        <f t="shared" si="16"/>
+        <v>-9.8193101064283539</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="17"/>
+        <v>-10</v>
+      </c>
+      <c r="N117" t="str">
         <f t="shared" si="20"/>
-        <v>-9.8193101064283539</v>
-      </c>
-      <c r="M117">
-        <f t="shared" si="21"/>
-        <v>-10</v>
-      </c>
-      <c r="N117" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10</v>
       </c>
     </row>
@@ -6331,45 +6219,45 @@
         <v>-3.3920618149878802E-3</v>
       </c>
       <c r="B118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-3.4734712985475893</v>
       </c>
       <c r="C118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-3</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3</v>
       </c>
       <c r="F118">
         <v>-3.5646014984962501E-3</v>
       </c>
       <c r="G118">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-3.6501519344601601</v>
       </c>
       <c r="H118">
+        <f t="shared" si="15"/>
+        <v>-4</v>
+      </c>
+      <c r="I118" t="str">
         <f t="shared" si="19"/>
-        <v>-4</v>
-      </c>
-      <c r="I118" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4</v>
       </c>
       <c r="K118">
         <v>-1.04451212202434E-2</v>
       </c>
       <c r="L118">
+        <f t="shared" si="16"/>
+        <v>-10.695804129529241</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="17"/>
+        <v>-11</v>
+      </c>
+      <c r="N118" t="str">
         <f t="shared" si="20"/>
-        <v>-10.695804129529241</v>
-      </c>
-      <c r="M118">
-        <f t="shared" si="21"/>
-        <v>-11</v>
-      </c>
-      <c r="N118" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11</v>
       </c>
     </row>
@@ -6378,45 +6266,45 @@
         <v>-1.5184167477814601E-3</v>
       </c>
       <c r="B119">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-1.5548587497282151</v>
       </c>
       <c r="C119">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2</v>
       </c>
       <c r="F119">
         <v>-2.7995599620471399E-3</v>
       </c>
       <c r="G119">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-2.8667494011362713</v>
       </c>
       <c r="H119">
+        <f t="shared" si="15"/>
+        <v>-3</v>
+      </c>
+      <c r="I119" t="str">
         <f t="shared" si="19"/>
-        <v>-3</v>
-      </c>
-      <c r="I119" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3</v>
       </c>
       <c r="K119">
         <v>-1.08281060327147E-2</v>
       </c>
       <c r="L119">
+        <f t="shared" si="16"/>
+        <v>-11.087980577499852</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="17"/>
+        <v>-11</v>
+      </c>
+      <c r="N119" t="str">
         <f t="shared" si="20"/>
-        <v>-11.087980577499852</v>
-      </c>
-      <c r="M119">
-        <f t="shared" si="21"/>
-        <v>-11</v>
-      </c>
-      <c r="N119" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11</v>
       </c>
     </row>
@@ -6425,45 +6313,45 @@
         <v>1.3754745821687999E-3</v>
       </c>
       <c r="B120">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>1.4084859721408511</v>
       </c>
       <c r="C120">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1</v>
       </c>
       <c r="F120">
         <v>-1.91317653031027E-3</v>
       </c>
       <c r="G120">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-1.9590927670377165</v>
       </c>
       <c r="H120">
+        <f t="shared" si="15"/>
+        <v>-2</v>
+      </c>
+      <c r="I120" t="str">
         <f t="shared" si="19"/>
-        <v>-2</v>
-      </c>
-      <c r="I120" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2</v>
       </c>
       <c r="K120">
         <v>-1.07376727373087E-2</v>
       </c>
       <c r="L120">
+        <f t="shared" si="16"/>
+        <v>-10.995376883004109</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="17"/>
+        <v>-11</v>
+      </c>
+      <c r="N120" t="str">
         <f t="shared" si="20"/>
-        <v>-10.995376883004109</v>
-      </c>
-      <c r="M120">
-        <f t="shared" si="21"/>
-        <v>-11</v>
-      </c>
-      <c r="N120" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11</v>
       </c>
     </row>
@@ -6472,45 +6360,45 @@
         <v>2.8179697324882901E-3</v>
       </c>
       <c r="B121">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>2.8856010060680091</v>
       </c>
       <c r="C121">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3</v>
       </c>
       <c r="F121">
         <v>-9.8517196028931396E-4</v>
       </c>
       <c r="G121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-1.0088160873362575</v>
       </c>
       <c r="H121">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="I121" t="str">
         <f t="shared" si="19"/>
-        <v>-1</v>
-      </c>
-      <c r="I121" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1</v>
       </c>
       <c r="K121">
         <v>-1.01995560909744E-2</v>
       </c>
       <c r="L121">
+        <f t="shared" si="16"/>
+        <v>-10.444345437157786</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="17"/>
+        <v>-10</v>
+      </c>
+      <c r="N121" t="str">
         <f t="shared" si="20"/>
-        <v>-10.444345437157786</v>
-      </c>
-      <c r="M121">
-        <f t="shared" si="21"/>
-        <v>-10</v>
-      </c>
-      <c r="N121" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10</v>
       </c>
     </row>
@@ -6519,45 +6407,45 @@
         <v>1.8053392300166401E-3</v>
       </c>
       <c r="B122">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>1.8486673715370394</v>
       </c>
       <c r="C122">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2</v>
       </c>
       <c r="F122" s="1">
         <v>-9.0114806315754899E-5</v>
       </c>
       <c r="G122">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-9.2277561667333016E-2</v>
       </c>
       <c r="H122">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I122" t="str">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I122" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0</v>
       </c>
       <c r="K122">
         <v>-9.2634197343541905E-3</v>
       </c>
       <c r="L122">
+        <f t="shared" si="16"/>
+        <v>-9.485741807978691</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="17"/>
+        <v>-9</v>
+      </c>
+      <c r="N122" t="str">
         <f t="shared" si="20"/>
-        <v>-9.485741807978691</v>
-      </c>
-      <c r="M122">
-        <f t="shared" si="21"/>
-        <v>-9</v>
-      </c>
-      <c r="N122" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9</v>
       </c>
     </row>
@@ -6566,45 +6454,45 @@
         <v>-5.5113178922965803E-4</v>
       </c>
       <c r="B123">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-0.56435895217116983</v>
       </c>
       <c r="C123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1</v>
       </c>
       <c r="F123">
         <v>7.0827556858191795E-4</v>
       </c>
       <c r="G123">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0.72527418222788398</v>
       </c>
       <c r="H123">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="str">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="I123" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1</v>
       </c>
       <c r="K123">
         <v>-7.9991387074203005E-3</v>
       </c>
       <c r="L123">
+        <f t="shared" si="16"/>
+        <v>-8.1911180363983878</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="17"/>
+        <v>-8</v>
+      </c>
+      <c r="N123" t="str">
         <f t="shared" si="20"/>
-        <v>-8.1911180363983878</v>
-      </c>
-      <c r="M123">
-        <f t="shared" si="21"/>
-        <v>-8</v>
-      </c>
-      <c r="N123" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8</v>
       </c>
     </row>
@@ -6613,45 +6501,45 @@
         <v>-2.1792052640551901E-3</v>
       </c>
       <c r="B124">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-2.2315061903925146</v>
       </c>
       <c r="C124">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2</v>
       </c>
       <c r="F124">
         <v>1.3608935262920401E-3</v>
       </c>
       <c r="G124">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1.393554970923049</v>
       </c>
       <c r="H124">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="str">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="I124" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1</v>
       </c>
       <c r="K124">
         <v>-6.4919019240613799E-3</v>
       </c>
       <c r="L124">
+        <f t="shared" si="16"/>
+        <v>-6.6477075702388531</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="17"/>
+        <v>-7</v>
+      </c>
+      <c r="N124" t="str">
         <f t="shared" si="20"/>
-        <v>-6.6477075702388531</v>
-      </c>
-      <c r="M124">
-        <f t="shared" si="21"/>
-        <v>-7</v>
-      </c>
-      <c r="N124" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7</v>
       </c>
     </row>
@@ -6660,45 +6548,45 @@
         <v>-1.8475015937174401E-3</v>
       </c>
       <c r="B125">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-1.8918416319666587</v>
       </c>
       <c r="C125">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2</v>
       </c>
       <c r="F125">
         <v>1.83557932277297E-3</v>
       </c>
       <c r="G125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1.8796332265195212</v>
       </c>
       <c r="H125">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="I125" t="str">
         <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="I125" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2</v>
       </c>
       <c r="K125">
         <v>-4.8364840486169597E-3</v>
       </c>
       <c r="L125">
+        <f t="shared" si="16"/>
+        <v>-4.9525596657837667</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="17"/>
+        <v>-5</v>
+      </c>
+      <c r="N125" t="str">
         <f t="shared" si="20"/>
-        <v>-4.9525596657837667</v>
-      </c>
-      <c r="M125">
-        <f t="shared" si="21"/>
-        <v>-5</v>
-      </c>
-      <c r="N125" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5</v>
       </c>
     </row>
@@ -6707,45 +6595,45 @@
         <v>-6.4556312606768403E-5</v>
       </c>
       <c r="B126">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-6.6105664109330844E-2</v>
       </c>
       <c r="C126">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0</v>
       </c>
       <c r="F126">
         <v>2.1175559658164599E-3</v>
       </c>
       <c r="G126">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>2.168377308996055</v>
       </c>
       <c r="H126">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="I126" t="str">
         <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="I126" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2</v>
       </c>
       <c r="K126">
         <v>-3.1310977919498202E-3</v>
       </c>
       <c r="L126">
+        <f t="shared" si="16"/>
+        <v>-3.2062441389566159</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="17"/>
+        <v>-3</v>
+      </c>
+      <c r="N126" t="str">
         <f t="shared" si="20"/>
-        <v>-3.2062441389566159</v>
-      </c>
-      <c r="M126">
-        <f t="shared" si="21"/>
-        <v>-3</v>
-      </c>
-      <c r="N126" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3</v>
       </c>
     </row>
@@ -6754,45 +6642,45 @@
         <v>1.5477307641604101E-3</v>
       </c>
       <c r="B127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>1.5848763025002599</v>
       </c>
       <c r="C127">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2</v>
       </c>
       <c r="F127">
         <v>2.2084821017099802E-3</v>
       </c>
       <c r="G127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>2.2614856721510197</v>
       </c>
       <c r="H127">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="I127" t="str">
         <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="I127" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2</v>
       </c>
       <c r="K127">
         <v>-1.4712441107666799E-3</v>
       </c>
       <c r="L127">
+        <f t="shared" si="16"/>
+        <v>-1.5065539694250802</v>
+      </c>
+      <c r="M127">
+        <f t="shared" si="17"/>
+        <v>-2</v>
+      </c>
+      <c r="N127" t="str">
         <f t="shared" si="20"/>
-        <v>-1.5065539694250802</v>
-      </c>
-      <c r="M127">
-        <f t="shared" si="21"/>
-        <v>-2</v>
-      </c>
-      <c r="N127" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2</v>
       </c>
     </row>
@@ -6801,45 +6689,45 @@
         <v>1.7089070707318201E-3</v>
       </c>
       <c r="B128">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>1.7499208404293838</v>
       </c>
       <c r="C128">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2</v>
       </c>
       <c r="F128">
         <v>2.1246047062756998E-3</v>
       </c>
       <c r="G128">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>2.1755952192263166</v>
       </c>
       <c r="H128">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="I128" t="str">
         <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="I128" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2</v>
       </c>
       <c r="K128" s="1">
         <v>5.6025615728318497E-5</v>
       </c>
       <c r="L128">
+        <f t="shared" si="16"/>
+        <v>5.7370230505798141E-2</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N128" t="str">
         <f t="shared" si="20"/>
-        <v>5.7370230505798141E-2</v>
-      </c>
-      <c r="M128">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N128" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0</v>
       </c>
     </row>
@@ -6848,45 +6736,45 @@
         <v>4.7398615009049897E-4</v>
       </c>
       <c r="B129">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0.48536181769267095</v>
       </c>
       <c r="C129">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0</v>
       </c>
       <c r="F129">
         <v>1.8936017100226799E-3</v>
       </c>
       <c r="G129">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1.9390481510632243</v>
       </c>
       <c r="H129">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="I129" t="str">
         <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="I129" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2</v>
       </c>
       <c r="K129">
         <v>1.3770632191021301E-3</v>
       </c>
       <c r="L129">
+        <f t="shared" si="16"/>
+        <v>1.4101127363605812</v>
+      </c>
+      <c r="M129">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N129" t="str">
         <f t="shared" si="20"/>
-        <v>1.4101127363605812</v>
-      </c>
-      <c r="M129">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="N129" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1</v>
       </c>
     </row>
@@ -6895,45 +6783,45 @@
         <v>-9.8121530331626589E-4</v>
       </c>
       <c r="B130">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-1.0047644705958563</v>
       </c>
       <c r="C130">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1</v>
       </c>
       <c r="F130">
         <v>1.5512126999921499E-3</v>
       </c>
       <c r="G130">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1.5884418047919615</v>
       </c>
       <c r="H130">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="I130" t="str">
         <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="I130" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2</v>
       </c>
       <c r="K130">
         <v>2.4354866346171498E-3</v>
       </c>
       <c r="L130">
+        <f t="shared" si="16"/>
+        <v>2.4939383138479614</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="N130" t="str">
         <f t="shared" si="20"/>
-        <v>2.4939383138479614</v>
-      </c>
-      <c r="M130">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="N130" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2</v>
       </c>
     </row>
@@ -6942,45 +6830,45 @@
         <v>-1.4558106185388101E-3</v>
       </c>
       <c r="B131">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-1.4907500733837415</v>
       </c>
       <c r="C131">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1</v>
       </c>
       <c r="F131">
         <v>1.13722923041083E-3</v>
       </c>
       <c r="G131">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1.1645227319406899</v>
       </c>
       <c r="H131">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="str">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="I131" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1</v>
       </c>
       <c r="K131">
         <v>3.1947452926514202E-3</v>
       </c>
       <c r="L131">
+        <f t="shared" si="16"/>
+        <v>3.2714191796750542</v>
+      </c>
+      <c r="M131">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="N131" t="str">
         <f t="shared" si="20"/>
-        <v>3.2714191796750542</v>
-      </c>
-      <c r="M131">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="N131" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3</v>
       </c>
     </row>
@@ -6989,45 +6877,45 @@
         <v>-6.9740989959984803E-4</v>
       </c>
       <c r="B132">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-0.71414773719024438</v>
       </c>
       <c r="C132">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1</v>
       </c>
       <c r="F132">
         <v>6.9192863182007496E-4</v>
       </c>
       <c r="G132">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0.70853491898375676</v>
       </c>
       <c r="H132">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="str">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="I132" t="str">
-        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1</v>
       </c>
       <c r="K132">
         <v>3.6392547586449101E-3</v>
       </c>
       <c r="L132">
+        <f t="shared" si="16"/>
+        <v>3.7265968728523879</v>
+      </c>
+      <c r="M132">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="N132" t="str">
         <f t="shared" si="20"/>
-        <v>3.7265968728523879</v>
-      </c>
-      <c r="M132">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="N132" t="str">
-        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4</v>
       </c>
     </row>
@@ -7036,45 +6924,45 @@
         <v>5.18868897343777E-4</v>
       </c>
       <c r="B133">
-        <f t="shared" ref="B133:B144" si="25">A133*1024</f>
+        <f t="shared" ref="B133:B144" si="21">A133*1024</f>
         <v>0.53132175088002764</v>
       </c>
       <c r="C133">
-        <f t="shared" ref="C133:C144" si="26">ROUND(B133,0)</f>
+        <f t="shared" ref="C133:C144" si="22">ROUND(B133,0)</f>
         <v>1</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1</v>
       </c>
       <c r="F133">
         <v>2.5297956413623601E-4</v>
       </c>
       <c r="G133">
-        <f t="shared" ref="G133:G149" si="27">F133*1024</f>
+        <f t="shared" ref="G133:G149" si="23">F133*1024</f>
         <v>0.25905107367550567</v>
       </c>
       <c r="H133">
-        <f t="shared" ref="H133:H149" si="28">ROUND(G133,0)</f>
+        <f t="shared" ref="H133:H149" si="24">ROUND(G133,0)</f>
         <v>0</v>
       </c>
       <c r="I133" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0</v>
       </c>
       <c r="K133">
         <v>3.7740947189691199E-3</v>
       </c>
       <c r="L133">
-        <f t="shared" ref="L133:L196" si="29">K133*1024</f>
+        <f t="shared" ref="L133:L196" si="25">K133*1024</f>
         <v>3.8646729922243788</v>
       </c>
       <c r="M133">
-        <f t="shared" ref="M133:M196" si="30">ROUND(L133,0)</f>
+        <f t="shared" ref="M133:M196" si="26">ROUND(L133,0)</f>
         <v>4</v>
       </c>
       <c r="N133" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4</v>
       </c>
     </row>
@@ -7083,45 +6971,45 @@
         <v>1.1523214039664399E-3</v>
       </c>
       <c r="B134">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>1.1799771176616345</v>
       </c>
       <c r="C134">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" ref="D134:D144" si="31">CONCATENATE(D133,", ",C134)</f>
+        <f t="shared" ref="D134:D144" si="27">CONCATENATE(D133,", ",C134)</f>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1, 1</v>
       </c>
       <c r="F134">
         <v>-1.4928157695282199E-4</v>
       </c>
       <c r="G134">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>-0.15286433479968972</v>
       </c>
       <c r="H134">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I134" t="str">
-        <f t="shared" ref="I134:I149" si="32">CONCATENATE(I133,", ",H134)</f>
+        <f t="shared" ref="I134:I149" si="28">CONCATENATE(I133,", ",H134)</f>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0</v>
       </c>
       <c r="K134">
         <v>3.6233530641963199E-3</v>
       </c>
       <c r="L134">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>3.7103135377370315</v>
       </c>
       <c r="M134">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="N134" t="str">
-        <f t="shared" ref="N134:N197" si="33">CONCATENATE(N133,", ",M134)</f>
+        <f t="shared" ref="N134:N197" si="29">CONCATENATE(N133,", ",M134)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4</v>
       </c>
     </row>
@@ -7130,45 +7018,45 @@
         <v>7.69680616780028E-4</v>
       </c>
       <c r="B135">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0.78815295158274867</v>
       </c>
       <c r="C135">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1, 1, 1</v>
       </c>
       <c r="F135">
         <v>-4.8742292563532799E-4</v>
       </c>
       <c r="G135">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>-0.49912107585057586</v>
       </c>
       <c r="H135">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I135" t="str">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I135" t="str">
-        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0</v>
       </c>
       <c r="K135">
         <v>3.2272956756481601E-3</v>
       </c>
       <c r="L135">
+        <f t="shared" si="25"/>
+        <v>3.3047507718637159</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="N135" t="str">
         <f t="shared" si="29"/>
-        <v>3.3047507718637159</v>
-      </c>
-      <c r="M135">
-        <f t="shared" si="30"/>
-        <v>3</v>
-      </c>
-      <c r="N135" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3</v>
       </c>
     </row>
@@ -7177,45 +7065,45 @@
         <v>-1.86577621584006E-4</v>
       </c>
       <c r="B136">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>-0.19105548450202214</v>
       </c>
       <c r="C136">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1, 1, 1, 0</v>
       </c>
       <c r="F136">
         <v>-7.4768285152619098E-4</v>
       </c>
       <c r="G136">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>-0.76562723996281956</v>
       </c>
       <c r="H136">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="I136" t="str">
         <f t="shared" si="28"/>
-        <v>-1</v>
-      </c>
-      <c r="I136" t="str">
-        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1</v>
       </c>
       <c r="K136">
         <v>2.6386063996935E-3</v>
       </c>
       <c r="L136">
+        <f t="shared" si="25"/>
+        <v>2.701932953286144</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="N136" t="str">
         <f t="shared" si="29"/>
-        <v>2.701932953286144</v>
-      </c>
-      <c r="M136">
-        <f t="shared" si="30"/>
-        <v>3</v>
-      </c>
-      <c r="N136" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3</v>
       </c>
     </row>
@@ -7224,45 +7112,45 @@
         <v>-8.6503031819317496E-4</v>
       </c>
       <c r="B137">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>-0.88579104582981116</v>
       </c>
       <c r="C137">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1, 1, 1, 0, -1</v>
       </c>
       <c r="F137">
         <v>-9.21743737457086E-4</v>
       </c>
       <c r="G137">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>-0.94386558715605606</v>
       </c>
       <c r="H137">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="I137" t="str">
         <f t="shared" si="28"/>
-        <v>-1</v>
-      </c>
-      <c r="I137" t="str">
-        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1</v>
       </c>
       <c r="K137">
         <v>1.9180271655594499E-3</v>
       </c>
       <c r="L137">
+        <f t="shared" si="25"/>
+        <v>1.9640598175328767</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="N137" t="str">
         <f t="shared" si="29"/>
-        <v>1.9640598175328767</v>
-      </c>
-      <c r="M137">
-        <f t="shared" si="30"/>
-        <v>2</v>
-      </c>
-      <c r="N137" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2</v>
       </c>
     </row>
@@ -7271,45 +7159,45 @@
         <v>-7.2831083521994401E-4</v>
       </c>
       <c r="B138">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>-0.74579029526522267</v>
       </c>
       <c r="C138">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1, 1, 1, 0, -1, -1</v>
       </c>
       <c r="F138">
         <v>-1.0096295972699099E-3</v>
       </c>
       <c r="G138">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>-1.0338607076043878</v>
       </c>
       <c r="H138">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="I138" t="str">
         <f t="shared" si="28"/>
-        <v>-1</v>
-      </c>
-      <c r="I138" t="str">
-        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1</v>
       </c>
       <c r="K138">
         <v>1.1297040661204299E-3</v>
       </c>
       <c r="L138">
+        <f t="shared" si="25"/>
+        <v>1.1568169637073202</v>
+      </c>
+      <c r="M138">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="N138" t="str">
         <f t="shared" si="29"/>
-        <v>1.1568169637073202</v>
-      </c>
-      <c r="M138">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="N138" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1</v>
       </c>
     </row>
@@ -7318,45 +7206,45 @@
         <v>7.5513605923293304E-5</v>
       </c>
       <c r="B139">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>7.7325932465452343E-2</v>
       </c>
       <c r="C139">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1, 1, 1, 0, -1, -1, 0</v>
       </c>
       <c r="F139">
         <v>-1.01832069148661E-3</v>
       </c>
       <c r="G139">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>-1.0427603880822887</v>
       </c>
       <c r="H139">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="I139" t="str">
         <f t="shared" si="28"/>
-        <v>-1</v>
-      </c>
-      <c r="I139" t="str">
-        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1, -1</v>
       </c>
       <c r="K139">
         <v>3.3660322222760003E-4</v>
       </c>
       <c r="L139">
+        <f t="shared" si="25"/>
+        <v>0.34468169956106243</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N139" t="str">
         <f t="shared" si="29"/>
-        <v>0.34468169956106243</v>
-      </c>
-      <c r="M139">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N139" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0</v>
       </c>
     </row>
@@ -7365,45 +7253,45 @@
         <v>9.2741698195050097E-4</v>
       </c>
       <c r="B140">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0.949674989517313</v>
       </c>
       <c r="C140">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1, 1, 1, 0, -1, -1, 0, 1</v>
       </c>
       <c r="F140">
         <v>-9.6056728729668997E-4</v>
       </c>
       <c r="G140">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>-0.98362090219181053</v>
       </c>
       <c r="H140">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="I140" t="str">
         <f t="shared" si="28"/>
-        <v>-1</v>
-      </c>
-      <c r="I140" t="str">
-        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1, -1, -1</v>
       </c>
       <c r="K140">
         <v>-4.0368626848191801E-4</v>
       </c>
       <c r="L140">
+        <f t="shared" si="25"/>
+        <v>-0.41337473892548404</v>
+      </c>
+      <c r="M140">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N140" t="str">
         <f t="shared" si="29"/>
-        <v>-0.41337473892548404</v>
-      </c>
-      <c r="M140">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N140" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0</v>
       </c>
     </row>
@@ -7412,45 +7300,45 @@
         <v>1.2738522399934899E-3</v>
       </c>
       <c r="B141">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>1.3044246937533337</v>
       </c>
       <c r="C141">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1, 1, 1, 0, -1, -1, 0, 1, 1</v>
       </c>
       <c r="F141">
         <v>-8.5247758443499403E-4</v>
       </c>
       <c r="G141">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>-0.87293704646143389</v>
       </c>
       <c r="H141">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="I141" t="str">
         <f t="shared" si="28"/>
-        <v>-1</v>
-      </c>
-      <c r="I141" t="str">
-        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1, -1, -1, -1</v>
       </c>
       <c r="K141">
         <v>-1.0424804818891199E-3</v>
       </c>
       <c r="L141">
+        <f t="shared" si="25"/>
+        <v>-1.0675000134544588</v>
+      </c>
+      <c r="M141">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="N141" t="str">
         <f t="shared" si="29"/>
-        <v>-1.0675000134544588</v>
-      </c>
-      <c r="M141">
-        <f t="shared" si="30"/>
-        <v>-1</v>
-      </c>
-      <c r="N141" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1</v>
       </c>
     </row>
@@ -7459,45 +7347,45 @@
         <v>1.0227134931042299E-3</v>
       </c>
       <c r="B142">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>1.0472586169387315</v>
       </c>
       <c r="C142">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="D142" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1</v>
       </c>
       <c r="F142">
         <v>-7.1172945870717405E-4</v>
       </c>
       <c r="G142">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>-0.72881096571614623</v>
       </c>
       <c r="H142">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="I142" t="str">
         <f t="shared" si="28"/>
-        <v>-1</v>
-      </c>
-      <c r="I142" t="str">
-        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1</v>
       </c>
       <c r="K142">
         <v>-1.54269454967713E-3</v>
       </c>
       <c r="L142">
+        <f t="shared" si="25"/>
+        <v>-1.5797192188693812</v>
+      </c>
+      <c r="M142">
+        <f t="shared" si="26"/>
+        <v>-2</v>
+      </c>
+      <c r="N142" t="str">
         <f t="shared" si="29"/>
-        <v>-1.5797192188693812</v>
-      </c>
-      <c r="M142">
-        <f t="shared" si="30"/>
-        <v>-2</v>
-      </c>
-      <c r="N142" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2</v>
       </c>
     </row>
@@ -7506,45 +7394,45 @@
         <v>5.3938834251829998E-4</v>
       </c>
       <c r="B143">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0.55233366273873918</v>
       </c>
       <c r="C143">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, 1</v>
       </c>
       <c r="F143">
         <v>-5.5570706594963899E-4</v>
       </c>
       <c r="G143">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>-0.56904403553243033</v>
       </c>
       <c r="H143">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="I143" t="str">
         <f t="shared" si="28"/>
-        <v>-1</v>
-      </c>
-      <c r="I143" t="str">
-        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1</v>
       </c>
       <c r="K143">
         <v>-1.8804912501151701E-3</v>
       </c>
       <c r="L143">
+        <f t="shared" si="25"/>
+        <v>-1.9256230401179342</v>
+      </c>
+      <c r="M143">
+        <f t="shared" si="26"/>
+        <v>-2</v>
+      </c>
+      <c r="N143" t="str">
         <f t="shared" si="29"/>
-        <v>-1.9256230401179342</v>
-      </c>
-      <c r="M143">
-        <f t="shared" si="30"/>
-        <v>-2</v>
-      </c>
-      <c r="N143" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2</v>
       </c>
     </row>
@@ -7553,45 +7441,45 @@
         <v>-3.2830352230933099E-4</v>
       </c>
       <c r="B144">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>-0.33618280684475493</v>
       </c>
       <c r="C144">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, 1, 0</v>
       </c>
       <c r="F144">
         <v>-4.0023457811622998E-4</v>
       </c>
       <c r="G144">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>-0.4098402079910195</v>
       </c>
       <c r="H144">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I144" t="str">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I144" t="str">
-        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0</v>
       </c>
       <c r="K144">
         <v>-2.0459196595336202E-3</v>
       </c>
       <c r="L144">
+        <f t="shared" si="25"/>
+        <v>-2.0950217313624271</v>
+      </c>
+      <c r="M144">
+        <f t="shared" si="26"/>
+        <v>-2</v>
+      </c>
+      <c r="N144" t="str">
         <f t="shared" si="29"/>
-        <v>-2.0950217313624271</v>
-      </c>
-      <c r="M144">
-        <f t="shared" si="30"/>
-        <v>-2</v>
-      </c>
-      <c r="N144" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2</v>
       </c>
     </row>
@@ -7600,30 +7488,30 @@
         <v>-2.5851323526222299E-4</v>
       </c>
       <c r="G145">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>-0.26471755290851634</v>
       </c>
       <c r="H145">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I145" t="str">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I145" t="str">
-        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0</v>
       </c>
       <c r="K145">
         <v>-2.0424978890667901E-3</v>
       </c>
       <c r="L145">
+        <f t="shared" si="25"/>
+        <v>-2.0915178384043931</v>
+      </c>
+      <c r="M145">
+        <f t="shared" si="26"/>
+        <v>-2</v>
+      </c>
+      <c r="N145" t="str">
         <f t="shared" si="29"/>
-        <v>-2.0915178384043931</v>
-      </c>
-      <c r="M145">
-        <f t="shared" si="30"/>
-        <v>-2</v>
-      </c>
-      <c r="N145" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2</v>
       </c>
     </row>
@@ -7632,30 +7520,30 @@
         <v>-1.4071804710439099E-4</v>
       </c>
       <c r="G146">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>-0.14409528023489637</v>
       </c>
       <c r="H146">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I146" t="str">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I146" t="str">
-        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0</v>
       </c>
       <c r="K146">
         <v>-1.8858596843242799E-3</v>
       </c>
       <c r="L146">
+        <f t="shared" si="25"/>
+        <v>-1.9311203167480626</v>
+      </c>
+      <c r="M146">
+        <f t="shared" si="26"/>
+        <v>-2</v>
+      </c>
+      <c r="N146" t="str">
         <f t="shared" si="29"/>
-        <v>-1.9311203167480626</v>
-      </c>
-      <c r="M146">
-        <f t="shared" si="30"/>
-        <v>-2</v>
-      </c>
-      <c r="N146" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2</v>
       </c>
     </row>
@@ -7664,30 +7552,30 @@
         <v>-5.3565292040318997E-5</v>
       </c>
       <c r="G147">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>-5.4850859049286653E-2</v>
       </c>
       <c r="H147">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I147" t="str">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I147" t="str">
-        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0</v>
       </c>
       <c r="K147">
         <v>-1.6014086483712E-3</v>
       </c>
       <c r="L147">
+        <f t="shared" si="25"/>
+        <v>-1.6398424559321088</v>
+      </c>
+      <c r="M147">
+        <f t="shared" si="26"/>
+        <v>-2</v>
+      </c>
+      <c r="N147" t="str">
         <f t="shared" si="29"/>
-        <v>-1.6398424559321088</v>
-      </c>
-      <c r="M147">
-        <f t="shared" si="30"/>
-        <v>-2</v>
-      </c>
-      <c r="N147" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2</v>
       </c>
     </row>
@@ -7696,30 +7584,30 @@
         <v>-7.7524831296898804E-7</v>
       </c>
       <c r="G148">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>-7.9385427248024375E-4</v>
       </c>
       <c r="H148">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I148" t="str">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I148" t="str">
-        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0</v>
       </c>
       <c r="K148">
         <v>-1.2220423801477E-3</v>
       </c>
       <c r="L148">
+        <f t="shared" si="25"/>
+        <v>-1.2513713972712448</v>
+      </c>
+      <c r="M148">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="N148" t="str">
         <f t="shared" si="29"/>
-        <v>-1.2513713972712448</v>
-      </c>
-      <c r="M148">
-        <f t="shared" si="30"/>
-        <v>-1</v>
-      </c>
-      <c r="N148" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1</v>
       </c>
     </row>
@@ -7728,30 +7616,30 @@
         <v>4.90122274272995E-4</v>
       </c>
       <c r="G149">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0.50188520885554688</v>
       </c>
       <c r="H149">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="str">
         <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="I149" t="str">
-        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 1</v>
       </c>
       <c r="K149">
         <v>-7.8470838166812295E-4</v>
       </c>
       <c r="L149">
+        <f t="shared" si="25"/>
+        <v>-0.8035413828281579</v>
+      </c>
+      <c r="M149">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="N149" t="str">
         <f t="shared" si="29"/>
-        <v>-0.8035413828281579</v>
-      </c>
-      <c r="M149">
-        <f t="shared" si="30"/>
-        <v>-1</v>
-      </c>
-      <c r="N149" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1</v>
       </c>
     </row>
@@ -7760,15 +7648,15 @@
         <v>-3.27536944162918E-4</v>
       </c>
       <c r="L150">
+        <f t="shared" si="25"/>
+        <v>-0.33539783082282804</v>
+      </c>
+      <c r="M150">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N150" t="str">
         <f t="shared" si="29"/>
-        <v>-0.33539783082282804</v>
-      </c>
-      <c r="M150">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N150" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0</v>
       </c>
     </row>
@@ -7777,15 +7665,15 @@
         <v>1.13179140360855E-4</v>
       </c>
       <c r="L151">
+        <f t="shared" si="25"/>
+        <v>0.11589543972951552</v>
+      </c>
+      <c r="M151">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N151" t="str">
         <f t="shared" si="29"/>
-        <v>0.11589543972951552</v>
-      </c>
-      <c r="M151">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N151" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0</v>
       </c>
     </row>
@@ -7794,15 +7682,15 @@
         <v>5.05524916229736E-4</v>
       </c>
       <c r="L152">
+        <f t="shared" si="25"/>
+        <v>0.51765751421924966</v>
+      </c>
+      <c r="M152">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="N152" t="str">
         <f t="shared" si="29"/>
-        <v>0.51765751421924966</v>
-      </c>
-      <c r="M152">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="N152" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1</v>
       </c>
     </row>
@@ -7811,15 +7699,15 @@
         <v>8.2406283336857204E-4</v>
       </c>
       <c r="L153">
+        <f t="shared" si="25"/>
+        <v>0.84384034136941777</v>
+      </c>
+      <c r="M153">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="N153" t="str">
         <f t="shared" si="29"/>
-        <v>0.84384034136941777</v>
-      </c>
-      <c r="M153">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="N153" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1</v>
       </c>
     </row>
@@ -7828,15 +7716,15 @@
         <v>1.0511192539460401E-3</v>
       </c>
       <c r="L154">
+        <f t="shared" si="25"/>
+        <v>1.076346116040745</v>
+      </c>
+      <c r="M154">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="N154" t="str">
         <f t="shared" si="29"/>
-        <v>1.076346116040745</v>
-      </c>
-      <c r="M154">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="N154" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1</v>
       </c>
     </row>
@@ -7845,15 +7733,15 @@
         <v>1.17756792418474E-3</v>
       </c>
       <c r="L155">
+        <f t="shared" si="25"/>
+        <v>1.2058295543651738</v>
+      </c>
+      <c r="M155">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="N155" t="str">
         <f t="shared" si="29"/>
-        <v>1.2058295543651738</v>
-      </c>
-      <c r="M155">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="N155" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1</v>
       </c>
     </row>
@@ -7862,15 +7750,15 @@
         <v>1.20275592166441E-3</v>
       </c>
       <c r="L156">
+        <f t="shared" si="25"/>
+        <v>1.2316220637843558</v>
+      </c>
+      <c r="M156">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="N156" t="str">
         <f t="shared" si="29"/>
-        <v>1.2316220637843558</v>
-      </c>
-      <c r="M156">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="N156" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1</v>
       </c>
     </row>
@@ -7879,15 +7767,15 @@
         <v>1.1338320029934601E-3</v>
       </c>
       <c r="L157">
+        <f t="shared" si="25"/>
+        <v>1.1610439710653031</v>
+      </c>
+      <c r="M157">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="N157" t="str">
         <f t="shared" si="29"/>
-        <v>1.1610439710653031</v>
-      </c>
-      <c r="M157">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="N157" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1</v>
       </c>
     </row>
@@ -7896,15 +7784,15 @@
         <v>9.8453469642337905E-4</v>
       </c>
       <c r="L158">
+        <f t="shared" si="25"/>
+        <v>1.0081635291375401</v>
+      </c>
+      <c r="M158">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="N158" t="str">
         <f t="shared" si="29"/>
-        <v>1.0081635291375401</v>
-      </c>
-      <c r="M158">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="N158" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1</v>
       </c>
     </row>
@@ -7913,15 +7801,15 @@
         <v>7.7358210345616104E-4</v>
       </c>
       <c r="L159">
+        <f t="shared" si="25"/>
+        <v>0.79214807393910891</v>
+      </c>
+      <c r="M159">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="N159" t="str">
         <f t="shared" si="29"/>
-        <v>0.79214807393910891</v>
-      </c>
-      <c r="M159">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="N159" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1</v>
       </c>
     </row>
@@ -7930,15 +7818,15 @@
         <v>5.2277736809367196E-4</v>
       </c>
       <c r="L160">
+        <f t="shared" si="25"/>
+        <v>0.53532402492792008</v>
+      </c>
+      <c r="M160">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="N160" t="str">
         <f t="shared" si="29"/>
-        <v>0.53532402492792008</v>
-      </c>
-      <c r="M160">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="N160" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1</v>
       </c>
     </row>
@@ -7947,15 +7835,15 @@
         <v>2.5506024197327902E-4</v>
       </c>
       <c r="L161">
+        <f t="shared" si="25"/>
+        <v>0.26118168778063772</v>
+      </c>
+      <c r="M161">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N161" t="str">
         <f t="shared" si="29"/>
-        <v>0.26118168778063772</v>
-      </c>
-      <c r="M161">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N161" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0</v>
       </c>
     </row>
@@ -7964,15 +7852,15 @@
         <v>-7.3815555673333397E-6</v>
       </c>
       <c r="L162">
+        <f t="shared" si="25"/>
+        <v>-7.5587129009493399E-3</v>
+      </c>
+      <c r="M162">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N162" t="str">
         <f t="shared" si="29"/>
-        <v>-7.5587129009493399E-3</v>
-      </c>
-      <c r="M162">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N162" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0</v>
       </c>
     </row>
@@ -7981,15 +7869,15 @@
         <v>-2.4477413246277102E-4</v>
       </c>
       <c r="L163">
+        <f t="shared" si="25"/>
+        <v>-0.25064871164187752</v>
+      </c>
+      <c r="M163">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N163" t="str">
         <f t="shared" si="29"/>
-        <v>-0.25064871164187752</v>
-      </c>
-      <c r="M163">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N163" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0</v>
       </c>
     </row>
@@ -7998,15 +7886,15 @@
         <v>-4.4108680891981398E-4</v>
       </c>
       <c r="L164">
+        <f t="shared" si="25"/>
+        <v>-0.45167289233388952</v>
+      </c>
+      <c r="M164">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N164" t="str">
         <f t="shared" si="29"/>
-        <v>-0.45167289233388952</v>
-      </c>
-      <c r="M164">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N164" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8015,15 +7903,15 @@
         <v>-5.8494986588518102E-4</v>
       </c>
       <c r="L165">
+        <f t="shared" si="25"/>
+        <v>-0.59898866266642536</v>
+      </c>
+      <c r="M165">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="N165" t="str">
         <f t="shared" si="29"/>
-        <v>-0.59898866266642536</v>
-      </c>
-      <c r="M165">
-        <f t="shared" si="30"/>
-        <v>-1</v>
-      </c>
-      <c r="N165" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1</v>
       </c>
     </row>
@@ -8032,15 +7920,15 @@
         <v>-6.7013731463984403E-4</v>
       </c>
       <c r="L166">
+        <f t="shared" si="25"/>
+        <v>-0.68622061019120029</v>
+      </c>
+      <c r="M166">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="N166" t="str">
         <f t="shared" si="29"/>
-        <v>-0.68622061019120029</v>
-      </c>
-      <c r="M166">
-        <f t="shared" si="30"/>
-        <v>-1</v>
-      </c>
-      <c r="N166" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1</v>
       </c>
     </row>
@@ -8049,15 +7937,15 @@
         <v>-6.95588316788745E-4</v>
       </c>
       <c r="L167">
+        <f t="shared" si="25"/>
+        <v>-0.71228243639167488</v>
+      </c>
+      <c r="M167">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="N167" t="str">
         <f t="shared" si="29"/>
-        <v>-0.71228243639167488</v>
-      </c>
-      <c r="M167">
-        <f t="shared" si="30"/>
-        <v>-1</v>
-      </c>
-      <c r="N167" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1</v>
       </c>
     </row>
@@ -8066,15 +7954,15 @@
         <v>-6.6502054776954901E-4</v>
       </c>
       <c r="L168">
+        <f t="shared" si="25"/>
+        <v>-0.68098104091601819</v>
+      </c>
+      <c r="M168">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="N168" t="str">
         <f t="shared" si="29"/>
-        <v>-0.68098104091601819</v>
-      </c>
-      <c r="M168">
-        <f t="shared" si="30"/>
-        <v>-1</v>
-      </c>
-      <c r="N168" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1</v>
       </c>
     </row>
@@ -8083,15 +7971,15 @@
         <v>-5.8619670707469598E-4</v>
       </c>
       <c r="L169">
+        <f t="shared" si="25"/>
+        <v>-0.60026542804448868</v>
+      </c>
+      <c r="M169">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="N169" t="str">
         <f t="shared" si="29"/>
-        <v>-0.60026542804448868</v>
-      </c>
-      <c r="M169">
-        <f t="shared" si="30"/>
-        <v>-1</v>
-      </c>
-      <c r="N169" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1</v>
       </c>
     </row>
@@ -8100,15 +7988,15 @@
         <v>-4.6993464892905202E-4</v>
       </c>
       <c r="L170">
+        <f t="shared" si="25"/>
+        <v>-0.48121308050334927</v>
+      </c>
+      <c r="M170">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N170" t="str">
         <f t="shared" si="29"/>
-        <v>-0.48121308050334927</v>
-      </c>
-      <c r="M170">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N170" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0</v>
       </c>
     </row>
@@ -8117,15 +8005,15 @@
         <v>-3.28960859003726E-4</v>
       </c>
       <c r="L171">
+        <f t="shared" si="25"/>
+        <v>-0.33685591961981542</v>
+      </c>
+      <c r="M171">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N171" t="str">
         <f t="shared" si="29"/>
-        <v>-0.33685591961981542</v>
-      </c>
-      <c r="M171">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N171" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0</v>
       </c>
     </row>
@@ -8134,15 +8022,15 @@
         <v>-1.76721359262782E-4</v>
       </c>
       <c r="L172">
+        <f t="shared" si="25"/>
+        <v>-0.18096267188508877</v>
+      </c>
+      <c r="M172">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N172" t="str">
         <f t="shared" si="29"/>
-        <v>-0.18096267188508877</v>
-      </c>
-      <c r="M172">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N172" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0</v>
       </c>
     </row>
@@ -8151,15 +8039,15 @@
         <v>-2.6239119947102802E-5</v>
       </c>
       <c r="L173">
+        <f t="shared" si="25"/>
+        <v>-2.6868858825833269E-2</v>
+      </c>
+      <c r="M173">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N173" t="str">
         <f t="shared" si="29"/>
-        <v>-2.6868858825833269E-2</v>
-      </c>
-      <c r="M173">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N173" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8168,15 +8056,15 @@
         <v>1.10885483184633E-4</v>
       </c>
       <c r="L174">
+        <f t="shared" si="25"/>
+        <v>0.1135467347810642</v>
+      </c>
+      <c r="M174">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N174" t="str">
         <f t="shared" si="29"/>
-        <v>0.1135467347810642</v>
-      </c>
-      <c r="M174">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N174" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8185,15 +8073,15 @@
         <v>2.2526465820916301E-4</v>
       </c>
       <c r="L175">
+        <f t="shared" si="25"/>
+        <v>0.23067101000618292</v>
+      </c>
+      <c r="M175">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N175" t="str">
         <f t="shared" si="29"/>
-        <v>0.23067101000618292</v>
-      </c>
-      <c r="M175">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N175" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8202,15 +8090,15 @@
         <v>3.1025980911609602E-4</v>
       </c>
       <c r="L176">
+        <f t="shared" si="25"/>
+        <v>0.31770604453488233</v>
+      </c>
+      <c r="M176">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N176" t="str">
         <f t="shared" si="29"/>
-        <v>0.31770604453488233</v>
-      </c>
-      <c r="M176">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N176" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8219,15 +8107,15 @@
         <v>3.6224522041747998E-4</v>
       </c>
       <c r="L177">
+        <f t="shared" si="25"/>
+        <v>0.37093910570749949</v>
+      </c>
+      <c r="M177">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N177" t="str">
         <f t="shared" si="29"/>
-        <v>0.37093910570749949</v>
-      </c>
-      <c r="M177">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N177" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8236,15 +8124,15 @@
         <v>3.8059742517690702E-4</v>
       </c>
       <c r="L178">
+        <f t="shared" si="25"/>
+        <v>0.38973176338115278</v>
+      </c>
+      <c r="M178">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N178" t="str">
         <f t="shared" si="29"/>
-        <v>0.38973176338115278</v>
-      </c>
-      <c r="M178">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N178" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8253,15 +8141,15 @@
         <v>3.6744282182530702E-4</v>
       </c>
       <c r="L179">
+        <f t="shared" si="25"/>
+        <v>0.37626144954911439</v>
+      </c>
+      <c r="M179">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N179" t="str">
         <f t="shared" si="29"/>
-        <v>0.37626144954911439</v>
-      </c>
-      <c r="M179">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N179" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8270,15 +8158,15 @@
         <v>3.2720401295834701E-4</v>
       </c>
       <c r="L180">
+        <f t="shared" si="25"/>
+        <v>0.33505690926934734</v>
+      </c>
+      <c r="M180">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N180" t="str">
         <f t="shared" si="29"/>
-        <v>0.33505690926934734</v>
-      </c>
-      <c r="M180">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N180" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8287,15 +8175,15 @@
         <v>2.6600255413101299E-4</v>
       </c>
       <c r="L181">
+        <f t="shared" si="25"/>
+        <v>0.2723866154301573</v>
+      </c>
+      <c r="M181">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N181" t="str">
         <f t="shared" si="29"/>
-        <v>0.2723866154301573</v>
-      </c>
-      <c r="M181">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N181" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8304,15 +8192,15 @@
         <v>1.90984049620394E-4</v>
       </c>
       <c r="L182">
+        <f t="shared" si="25"/>
+        <v>0.19556766681128346</v>
+      </c>
+      <c r="M182">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N182" t="str">
         <f t="shared" si="29"/>
-        <v>0.19556766681128346</v>
-      </c>
-      <c r="M182">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N182" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8321,15 +8209,15 @@
         <v>1.0962883858125699E-4</v>
       </c>
       <c r="L183">
+        <f t="shared" si="25"/>
+        <v>0.11225993070720716</v>
+      </c>
+      <c r="M183">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N183" t="str">
         <f t="shared" si="29"/>
-        <v>0.11225993070720716</v>
-      </c>
-      <c r="M183">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N183" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8338,15 +8226,15 @@
         <v>2.9104350520069101E-5</v>
       </c>
       <c r="L184">
+        <f t="shared" si="25"/>
+        <v>2.9802854932550759E-2</v>
+      </c>
+      <c r="M184">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N184" t="str">
         <f t="shared" si="29"/>
-        <v>2.9802854932550759E-2</v>
-      </c>
-      <c r="M184">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N184" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8355,15 +8243,15 @@
         <v>-4.4287384102540103E-5</v>
       </c>
       <c r="L185">
+        <f t="shared" si="25"/>
+        <v>-4.5350281321001065E-2</v>
+      </c>
+      <c r="M185">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N185" t="str">
         <f t="shared" si="29"/>
-        <v>-4.5350281321001065E-2</v>
-      </c>
-      <c r="M185">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N185" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8372,15 +8260,15 @@
         <v>-1.0553215525011E-4</v>
       </c>
       <c r="L186">
+        <f t="shared" si="25"/>
+        <v>-0.10806492697611264</v>
+      </c>
+      <c r="M186">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N186" t="str">
         <f t="shared" si="29"/>
-        <v>-0.10806492697611264</v>
-      </c>
-      <c r="M186">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N186" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8389,15 +8277,15 @@
         <v>-1.51174928743395E-4</v>
       </c>
       <c r="L187">
+        <f t="shared" si="25"/>
+        <v>-0.15480312703323648</v>
+      </c>
+      <c r="M187">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N187" t="str">
         <f t="shared" si="29"/>
-        <v>-0.15480312703323648</v>
-      </c>
-      <c r="M187">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N187" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8406,15 +8294,15 @@
         <v>-1.7942950254150501E-4</v>
       </c>
       <c r="L188">
+        <f t="shared" si="25"/>
+        <v>-0.18373581060250113</v>
+      </c>
+      <c r="M188">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N188" t="str">
         <f t="shared" si="29"/>
-        <v>-0.18373581060250113</v>
-      </c>
-      <c r="M188">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N188" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8423,15 +8311,15 @@
         <v>-1.9013602556871E-4</v>
       </c>
       <c r="L189">
+        <f t="shared" si="25"/>
+        <v>-0.19469929018235904</v>
+      </c>
+      <c r="M189">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N189" t="str">
         <f t="shared" si="29"/>
-        <v>-0.19469929018235904</v>
-      </c>
-      <c r="M189">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N189" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8440,15 +8328,15 @@
         <v>-1.84587386037665E-4</v>
       </c>
       <c r="L190">
+        <f t="shared" si="25"/>
+        <v>-0.18901748330256896</v>
+      </c>
+      <c r="M190">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N190" t="str">
         <f t="shared" si="29"/>
-        <v>-0.18901748330256896</v>
-      </c>
-      <c r="M190">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N190" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8457,15 +8345,15 @@
         <v>-1.65251485651119E-4</v>
       </c>
       <c r="L191">
+        <f t="shared" si="25"/>
+        <v>-0.16921752130674586</v>
+      </c>
+      <c r="M191">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N191" t="str">
         <f t="shared" si="29"/>
-        <v>-0.16921752130674586</v>
-      </c>
-      <c r="M191">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N191" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8474,15 +8362,15 @@
         <v>-1.3542508109423601E-4</v>
       </c>
       <c r="L192">
+        <f t="shared" si="25"/>
+        <v>-0.13867528304049767</v>
+      </c>
+      <c r="M192">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N192" t="str">
         <f t="shared" si="29"/>
-        <v>-0.13867528304049767</v>
-      </c>
-      <c r="M192">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N192" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8491,15 +8379,15 @@
         <v>-9.8859605588908105E-5</v>
       </c>
       <c r="L193">
+        <f t="shared" si="25"/>
+        <v>-0.1012322361230419</v>
+      </c>
+      <c r="M193">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N193" t="str">
         <f t="shared" si="29"/>
-        <v>-0.1012322361230419</v>
-      </c>
-      <c r="M193">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N193" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8508,15 +8396,15 @@
         <v>-5.9389308003384499E-5</v>
       </c>
       <c r="L194">
+        <f t="shared" si="25"/>
+        <v>-6.0814651395465727E-2</v>
+      </c>
+      <c r="M194">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N194" t="str">
         <f t="shared" si="29"/>
-        <v>-6.0814651395465727E-2</v>
-      </c>
-      <c r="M194">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N194" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8525,15 +8413,15 @@
         <v>-2.0597566582747302E-5</v>
       </c>
       <c r="L195">
+        <f t="shared" si="25"/>
+        <v>-2.1091908180733237E-2</v>
+      </c>
+      <c r="M195">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N195" t="str">
         <f t="shared" si="29"/>
-        <v>-2.1091908180733237E-2</v>
-      </c>
-      <c r="M195">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N195" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8542,15 +8430,15 @@
         <v>1.44545189695725E-5</v>
       </c>
       <c r="L196">
+        <f t="shared" si="25"/>
+        <v>1.480142742484224E-2</v>
+      </c>
+      <c r="M196">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N196" t="str">
         <f t="shared" si="29"/>
-        <v>1.480142742484224E-2</v>
-      </c>
-      <c r="M196">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N196" t="str">
-        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8559,15 +8447,15 @@
         <v>4.3422427083773503E-5</v>
       </c>
       <c r="L197">
-        <f t="shared" ref="L197:L220" si="34">K197*1024</f>
+        <f t="shared" ref="L197:L220" si="30">K197*1024</f>
         <v>4.4464565333784067E-2</v>
       </c>
       <c r="M197">
-        <f t="shared" ref="M197:M220" si="35">ROUND(L197,0)</f>
+        <f t="shared" ref="M197:M220" si="31">ROUND(L197,0)</f>
         <v>0</v>
       </c>
       <c r="N197" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8576,15 +8464,15 @@
         <v>6.4788520850025399E-5</v>
       </c>
       <c r="L198">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>6.6343445350426009E-2</v>
       </c>
       <c r="M198">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N198" t="str">
-        <f t="shared" ref="N198:N220" si="36">CONCATENATE(N197,", ",M198)</f>
+        <f t="shared" ref="N198:N220" si="32">CONCATENATE(N197,", ",M198)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8593,15 +8481,15 @@
         <v>7.7881819886036797E-5</v>
       </c>
       <c r="L199">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>7.9750983563301681E-2</v>
       </c>
       <c r="M199">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N199" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8610,15 +8498,15 @@
         <v>8.2824803478863106E-5</v>
       </c>
       <c r="L200">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>8.481259876235582E-2</v>
       </c>
       <c r="M200">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N200" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8627,15 +8515,15 @@
         <v>8.0414878491712798E-5</v>
       </c>
       <c r="L201">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>8.2344835575513906E-2</v>
       </c>
       <c r="M201">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N201" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8644,15 +8532,15 @@
         <v>7.1961959946604897E-5</v>
       </c>
       <c r="L202">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>7.3689046985323414E-2</v>
       </c>
       <c r="M202">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N202" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8661,15 +8549,15 @@
         <v>5.9102480672852098E-5</v>
       </c>
       <c r="L203">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>6.0520940209000548E-2</v>
       </c>
       <c r="M203">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N203" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8678,15 +8566,15 @@
         <v>4.3612618989894302E-5</v>
       </c>
       <c r="L204">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>4.4659321845651766E-2</v>
       </c>
       <c r="M204">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N204" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8695,15 +8583,15 @@
         <v>2.7224496959975001E-5</v>
       </c>
       <c r="L205">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>2.7877884887014402E-2</v>
       </c>
       <c r="M205">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N205" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8712,15 +8600,15 @@
         <v>1.1479893136351201E-5</v>
       </c>
       <c r="L206">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>1.1755410571623629E-2</v>
       </c>
       <c r="M206">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N206" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8729,15 +8617,15 @@
         <v>-2.3803464910664799E-6</v>
       </c>
       <c r="L207">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>-2.4374748068520754E-3</v>
       </c>
       <c r="M207">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N207" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8746,15 +8634,15 @@
         <v>-1.34829113682585E-5</v>
       </c>
       <c r="L208">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>-1.3806501241096704E-2</v>
       </c>
       <c r="M208">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N208" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8763,15 +8651,15 @@
         <v>-2.1348791359884099E-5</v>
       </c>
       <c r="L209">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>-2.1861162352521318E-2</v>
       </c>
       <c r="M209">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N209" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8780,15 +8668,15 @@
         <v>-2.5869804488769702E-5</v>
       </c>
       <c r="L210">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>-2.6490679796500174E-2</v>
       </c>
       <c r="M210">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N210" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8797,15 +8685,15 @@
         <v>-2.72737400958964E-5</v>
       </c>
       <c r="L211">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>-2.7928309858197914E-2</v>
       </c>
       <c r="M211">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N211" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8814,15 +8702,15 @@
         <v>-2.60416094612303E-5</v>
       </c>
       <c r="L212">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>-2.6666608088299827E-2</v>
       </c>
       <c r="M212">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N212" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8831,15 +8719,15 @@
         <v>-2.28192037765618E-5</v>
       </c>
       <c r="L213">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>-2.3366864667199283E-2</v>
       </c>
       <c r="M213">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N213" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8848,15 +8736,15 @@
         <v>-1.8329485474859E-5</v>
       </c>
       <c r="L214">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>-1.8769393126255616E-2</v>
       </c>
       <c r="M214">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N214" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8865,15 +8753,15 @@
         <v>-1.3311147573094E-5</v>
       </c>
       <c r="L215">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>-1.3630615114848256E-2</v>
       </c>
       <c r="M215">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N215" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8882,15 +8770,15 @@
         <v>-8.4058081039701792E-6</v>
       </c>
       <c r="L216">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>-8.6075474984654635E-3</v>
       </c>
       <c r="M216">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N216" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8899,15 +8787,15 @@
         <v>-4.1541581777440102E-6</v>
       </c>
       <c r="L217">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>-4.2538579740098665E-3</v>
       </c>
       <c r="M217">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N217" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8916,15 +8804,15 @@
         <v>-9.36766281628549E-7</v>
       </c>
       <c r="L218">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>-9.5924867238763418E-4</v>
       </c>
       <c r="M218">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N218" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8933,15 +8821,15 @@
         <v>1.0201040121734901E-6</v>
       </c>
       <c r="L219">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>1.0445865084656538E-3</v>
       </c>
       <c r="M219">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N219" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8950,15 +8838,15 @@
         <v>2.4479262355257999E-5</v>
       </c>
       <c r="L220">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>2.5066764651784191E-2</v>
       </c>
       <c r="M220">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N220" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>

--- a/code/matlab_testerino/Filter coef.xlsx
+++ b/code/matlab_testerino/Filter coef.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>LP FIR 1 KSPS (f3dB = 41)</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>fstop=165</t>
+  </si>
+  <si>
+    <t>sintonizer num</t>
+  </si>
+  <si>
+    <t>sintonizer dem</t>
   </si>
 </sst>
 </file>
@@ -188,23 +194,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -240,23 +229,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -411,8 +383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:MX344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A144" sqref="A4:A144"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,6 +402,12 @@
       <c r="P1" t="s">
         <v>6</v>
       </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
       <c r="AK1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="CR1" s="1"/>
@@ -486,8 +464,6 @@
       </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -557,7 +533,6 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -761,6 +736,28 @@
         <f>R4</f>
         <v>20</v>
       </c>
+      <c r="U4">
+        <v>0.59608618312088801</v>
+      </c>
+      <c r="V4">
+        <f>ROUND(U4*1024,0)</f>
+        <v>610</v>
+      </c>
+      <c r="W4">
+        <f>V4</f>
+        <v>610</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <f>ROUND(Y4*1024,0)</f>
+        <v>1024</v>
+      </c>
+      <c r="AA4">
+        <f>Z4</f>
+        <v>1024</v>
+      </c>
     </row>
     <row r="5" spans="1:362" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -823,6 +820,28 @@
         <f>CONCATENATE(S4,", ",R5)</f>
         <v>20, -40</v>
       </c>
+      <c r="U5" s="1">
+        <v>-2.3843394305202699</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5:V22" si="8">ROUND(U5*1024,0)</f>
+        <v>-2442</v>
+      </c>
+      <c r="W5" t="str">
+        <f>CONCATENATE(W4,", ",V5)</f>
+        <v>610, -2442</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>-3.1539403763392699</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ref="Z5:Z22" si="9">ROUND(Y5*1024,0)</f>
+        <v>-3230</v>
+      </c>
+      <c r="AA5" t="str">
+        <f>CONCATENATE(AA4,", ",Z5)</f>
+        <v>1024, -3230</v>
+      </c>
     </row>
     <row r="6" spans="1:362" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -837,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:D69" si="8">CONCATENATE(D5,", ",C6)</f>
+        <f t="shared" ref="D6:D69" si="10">CONCATENATE(D5,", ",C6)</f>
         <v>0, 1, 1</v>
       </c>
       <c r="F6" s="1">
@@ -867,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" ref="N6:N69" si="9">CONCATENATE(N5,", ",M6)</f>
+        <f t="shared" ref="N6:N69" si="11">CONCATENATE(N5,", ",M6)</f>
         <v>0, 0, 0</v>
       </c>
       <c r="P6">
@@ -882,8 +901,30 @@
         <v>56</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" ref="S6:S13" si="10">CONCATENATE(S5,", ",R6)</f>
+        <f t="shared" ref="S6:S13" si="12">CONCATENATE(S5,", ",R6)</f>
         <v>20, -40, 56</v>
+      </c>
+      <c r="U6" s="1">
+        <v>3.9430955683048299</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="8"/>
+        <v>4038</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" ref="W6:W22" si="13">CONCATENATE(W5,", ",V6)</f>
+        <v>610, -2442, 4038</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>3.9430955683048299</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="9"/>
+        <v>4038</v>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" ref="AA6:AA22" si="14">CONCATENATE(AA5,", ",Z6)</f>
+        <v>1024, -3230, 4038</v>
       </c>
     </row>
     <row r="7" spans="1:362" x14ac:dyDescent="0.25">
@@ -899,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1</v>
       </c>
       <c r="F7">
@@ -914,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" ref="I7:I69" si="11">CONCATENATE(I6,", ",H7)</f>
+        <f t="shared" ref="I7:I69" si="15">CONCATENATE(I6,", ",H7)</f>
         <v>1, 0, 0, 0</v>
       </c>
       <c r="K7" s="1">
@@ -929,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0</v>
       </c>
       <c r="P7">
@@ -944,8 +985,30 @@
         <v>-148</v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20, -40, 56, -148</v>
+      </c>
+      <c r="U7" s="1">
+        <v>-3.1539403763392699</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="8"/>
+        <v>-3230</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="13"/>
+        <v>610, -2442, 4038, -3230</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>-2.3843394305202699</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="9"/>
+        <v>-2442</v>
+      </c>
+      <c r="AA7" t="str">
+        <f t="shared" si="14"/>
+        <v>1024, -3230, 4038, -2442</v>
       </c>
     </row>
     <row r="8" spans="1:362" x14ac:dyDescent="0.25">
@@ -961,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1</v>
       </c>
       <c r="F8">
@@ -976,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0</v>
       </c>
       <c r="K8" s="1">
@@ -991,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0</v>
       </c>
       <c r="P8">
@@ -1006,8 +1069,30 @@
         <v>1306</v>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20, -40, 56, -148, 1306</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="8"/>
+        <v>1024</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="13"/>
+        <v>610, -2442, 4038, -3230, 1024</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0.59608618312088801</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="9"/>
+        <v>610</v>
+      </c>
+      <c r="AA8" t="str">
+        <f t="shared" si="14"/>
+        <v>1024, -3230, 4038, -2442, 610</v>
       </c>
     </row>
     <row r="9" spans="1:362" x14ac:dyDescent="0.25">
@@ -1023,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0</v>
       </c>
       <c r="F9">
@@ -1038,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0</v>
       </c>
       <c r="K9" s="1">
@@ -1053,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0</v>
       </c>
       <c r="P9">
@@ -1068,9 +1153,11 @@
         <v>-1306</v>
       </c>
       <c r="S9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20, -40, 56, -148, 1306, -1306</v>
       </c>
+      <c r="U9" s="1"/>
+      <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:362" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1085,7 +1172,7 @@
         <v>-1</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1</v>
       </c>
       <c r="F10">
@@ -1100,7 +1187,7 @@
         <v>-1</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1</v>
       </c>
       <c r="K10" s="1">
@@ -1115,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0</v>
       </c>
       <c r="P10">
@@ -1130,9 +1217,11 @@
         <v>148</v>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20, -40, 56, -148, 1306, -1306, 148</v>
       </c>
+      <c r="U10" s="1"/>
+      <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:362" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1147,7 +1236,7 @@
         <v>-1</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1</v>
       </c>
       <c r="F11">
@@ -1162,7 +1251,7 @@
         <v>-1</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1</v>
       </c>
       <c r="K11" s="1">
@@ -1177,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
       <c r="P11">
@@ -1192,9 +1281,11 @@
         <v>-56</v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20, -40, 56, -148, 1306, -1306, 148, -56</v>
       </c>
+      <c r="U11" s="1"/>
+      <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:362" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1209,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0</v>
       </c>
       <c r="F12">
@@ -1224,7 +1315,7 @@
         <v>-1</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1</v>
       </c>
       <c r="K12" s="1">
@@ -1239,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
       <c r="P12">
@@ -1254,9 +1345,11 @@
         <v>40</v>
       </c>
       <c r="S12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20, -40, 56, -148, 1306, -1306, 148, -56, 40</v>
       </c>
+      <c r="U12" s="1"/>
+      <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:362" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1271,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1</v>
       </c>
       <c r="F13">
@@ -1286,7 +1379,7 @@
         <v>-1</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1</v>
       </c>
       <c r="K13" s="1">
@@ -1301,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
       <c r="P13">
@@ -1316,9 +1409,11 @@
         <v>-20</v>
       </c>
       <c r="S13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20, -40, 56, -148, 1306, -1306, 148, -56, 40, -20</v>
       </c>
+      <c r="U13" s="1"/>
+      <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:362" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1333,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1</v>
       </c>
       <c r="F14">
@@ -1348,7 +1443,7 @@
         <v>-1</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1</v>
       </c>
       <c r="K14" s="1">
@@ -1363,9 +1458,11 @@
         <v>0</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
+      <c r="U14" s="1"/>
+      <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:362" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1380,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1</v>
       </c>
       <c r="F15">
@@ -1395,7 +1492,7 @@
         <v>-1</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1</v>
       </c>
       <c r="K15" s="1">
@@ -1410,9 +1507,11 @@
         <v>0</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
+      <c r="U15" s="1"/>
+      <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:362" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1427,7 +1526,7 @@
         <v>-1</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1</v>
       </c>
       <c r="F16">
@@ -1442,7 +1541,7 @@
         <v>-1</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1</v>
       </c>
       <c r="K16" s="1">
@@ -1457,9 +1556,11 @@
         <v>0</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
+      <c r="U16" s="1"/>
+      <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -1474,7 +1575,7 @@
         <v>-1</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1</v>
       </c>
       <c r="F17">
@@ -1489,7 +1590,7 @@
         <v>-1</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1</v>
       </c>
       <c r="K17" s="1">
@@ -1504,9 +1605,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
+      <c r="U17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="AL17" s="1"/>
       <c r="AY17" s="1"/>
@@ -1527,7 +1629,7 @@
         <v>-1</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1</v>
       </c>
       <c r="F18">
@@ -1542,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0</v>
       </c>
       <c r="K18" s="1">
@@ -1557,9 +1659,11 @@
         <v>0</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
+      <c r="U18" s="1"/>
+      <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1574,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0</v>
       </c>
       <c r="F19">
@@ -1589,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0</v>
       </c>
       <c r="K19" s="1">
@@ -1604,9 +1708,11 @@
         <v>0</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
+      <c r="U19" s="1"/>
+      <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1621,7 +1727,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2</v>
       </c>
       <c r="F20">
@@ -1636,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0</v>
       </c>
       <c r="K20" s="1">
@@ -1651,9 +1757,11 @@
         <v>0</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
+      <c r="U20" s="1"/>
+      <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1668,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2</v>
       </c>
       <c r="F21">
@@ -1683,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1</v>
       </c>
       <c r="K21" s="1">
@@ -1698,9 +1806,11 @@
         <v>0</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
+      <c r="U21" s="1"/>
+      <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1715,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0</v>
       </c>
       <c r="F22">
@@ -1730,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1</v>
       </c>
       <c r="K22" s="1">
@@ -1745,9 +1855,11 @@
         <v>0</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
+      <c r="U22" s="1"/>
+      <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -1762,7 +1874,7 @@
         <v>-2</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2</v>
       </c>
       <c r="F23">
@@ -1777,7 +1889,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2</v>
       </c>
       <c r="K23" s="1">
@@ -1792,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -1809,7 +1921,7 @@
         <v>-2</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2</v>
       </c>
       <c r="F24">
@@ -1824,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2</v>
       </c>
       <c r="K24" s="1">
@@ -1839,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -1856,7 +1968,7 @@
         <v>-1</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1</v>
       </c>
       <c r="F25">
@@ -1871,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2</v>
       </c>
       <c r="K25" s="1">
@@ -1886,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -1903,7 +2015,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2</v>
       </c>
       <c r="F26">
@@ -1918,7 +2030,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2</v>
       </c>
       <c r="K26" s="1">
@@ -1933,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -1950,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3</v>
       </c>
       <c r="F27">
@@ -1965,7 +2077,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2</v>
       </c>
       <c r="K27" s="1">
@@ -1980,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -1997,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1</v>
       </c>
       <c r="F28">
@@ -2012,7 +2124,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2</v>
       </c>
       <c r="K28" s="1">
@@ -2027,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2044,7 +2156,7 @@
         <v>-2</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2</v>
       </c>
       <c r="F29">
@@ -2059,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1</v>
       </c>
       <c r="K29" s="1">
@@ -2074,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2091,7 +2203,7 @@
         <v>-3</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3</v>
       </c>
       <c r="F30">
@@ -2106,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1</v>
       </c>
       <c r="K30" s="1">
@@ -2121,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2138,7 +2250,7 @@
         <v>-2</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2</v>
       </c>
       <c r="F31" s="1">
@@ -2153,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0</v>
       </c>
       <c r="K31" s="1">
@@ -2168,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2185,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1</v>
       </c>
       <c r="F32">
@@ -2200,7 +2312,7 @@
         <v>-1</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1</v>
       </c>
       <c r="K32">
@@ -2215,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2232,7 +2344,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4</v>
       </c>
       <c r="F33">
@@ -2247,7 +2359,7 @@
         <v>-2</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2</v>
       </c>
       <c r="K33">
@@ -2262,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2279,7 +2391,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4</v>
       </c>
       <c r="F34">
@@ -2294,7 +2406,7 @@
         <v>-3</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3</v>
       </c>
       <c r="K34">
@@ -2309,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2326,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0</v>
       </c>
       <c r="F35">
@@ -2341,7 +2453,7 @@
         <v>-4</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4</v>
       </c>
       <c r="K35">
@@ -2356,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2373,7 +2485,7 @@
         <v>-4</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4</v>
       </c>
       <c r="F36">
@@ -2388,7 +2500,7 @@
         <v>-4</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4</v>
       </c>
       <c r="K36">
@@ -2403,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2420,7 +2532,7 @@
         <v>-5</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5</v>
       </c>
       <c r="F37">
@@ -2435,7 +2547,7 @@
         <v>-5</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5</v>
       </c>
       <c r="K37">
@@ -2450,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2467,7 +2579,7 @@
         <v>-1</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1</v>
       </c>
       <c r="F38">
@@ -2482,7 +2594,7 @@
         <v>-4</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4</v>
       </c>
       <c r="K38">
@@ -2497,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2514,7 +2626,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4</v>
       </c>
       <c r="F39">
@@ -2529,7 +2641,7 @@
         <v>-4</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4</v>
       </c>
       <c r="K39" s="1">
@@ -2544,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2561,7 +2673,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6</v>
       </c>
       <c r="F40">
@@ -2576,7 +2688,7 @@
         <v>-3</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3</v>
       </c>
       <c r="K40" s="1">
@@ -2591,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2608,7 +2720,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3</v>
       </c>
       <c r="F41">
@@ -2623,7 +2735,7 @@
         <v>-2</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2</v>
       </c>
       <c r="K41">
@@ -2638,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2655,7 +2767,7 @@
         <v>-3</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3</v>
       </c>
       <c r="F42">
@@ -2670,7 +2782,7 @@
         <v>-1</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1</v>
       </c>
       <c r="K42">
@@ -2685,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2702,7 +2814,7 @@
         <v>-7</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7</v>
       </c>
       <c r="F43">
@@ -2717,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1</v>
       </c>
       <c r="K43">
@@ -2732,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2749,7 +2861,7 @@
         <v>-5</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5</v>
       </c>
       <c r="F44">
@@ -2764,7 +2876,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3</v>
       </c>
       <c r="K44">
@@ -2779,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2796,7 +2908,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2</v>
       </c>
       <c r="F45">
@@ -2811,7 +2923,7 @@
         <v>5</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5</v>
       </c>
       <c r="K45">
@@ -2826,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2843,7 +2955,7 @@
         <v>8</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8</v>
       </c>
       <c r="F46">
@@ -2858,7 +2970,7 @@
         <v>6</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6</v>
       </c>
       <c r="K46">
@@ -2873,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2890,7 +3002,7 @@
         <v>8</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8</v>
       </c>
       <c r="F47">
@@ -2905,7 +3017,7 @@
         <v>8</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8</v>
       </c>
       <c r="K47">
@@ -2920,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2937,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0</v>
       </c>
       <c r="F48">
@@ -2952,7 +3064,7 @@
         <v>8</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8</v>
       </c>
       <c r="K48">
@@ -2967,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -2984,7 +3096,7 @@
         <v>-8</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8</v>
       </c>
       <c r="F49">
@@ -2999,7 +3111,7 @@
         <v>9</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9</v>
       </c>
       <c r="K49">
@@ -3014,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3031,7 +3143,7 @@
         <v>-10</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10</v>
       </c>
       <c r="F50">
@@ -3046,7 +3158,7 @@
         <v>8</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8</v>
       </c>
       <c r="K50">
@@ -3061,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3078,7 +3190,7 @@
         <v>-3</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3</v>
       </c>
       <c r="F51">
@@ -3093,7 +3205,7 @@
         <v>7</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7</v>
       </c>
       <c r="K51" s="1">
@@ -3108,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3125,7 +3237,7 @@
         <v>8</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8</v>
       </c>
       <c r="F52">
@@ -3140,7 +3252,7 @@
         <v>5</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5</v>
       </c>
       <c r="K52">
@@ -3155,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3172,7 +3284,7 @@
         <v>13</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13</v>
       </c>
       <c r="F53">
@@ -3187,7 +3299,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2</v>
       </c>
       <c r="K53">
@@ -3202,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3219,7 +3331,7 @@
         <v>7</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7</v>
       </c>
       <c r="F54">
@@ -3234,7 +3346,7 @@
         <v>-1</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1</v>
       </c>
       <c r="K54">
@@ -3249,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3266,7 +3378,7 @@
         <v>-7</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7</v>
       </c>
       <c r="F55">
@@ -3281,7 +3393,7 @@
         <v>-4</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4</v>
       </c>
       <c r="K55">
@@ -3296,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1</v>
       </c>
     </row>
@@ -3313,7 +3425,7 @@
         <v>-16</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16</v>
       </c>
       <c r="F56">
@@ -3328,7 +3440,7 @@
         <v>-8</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8</v>
       </c>
       <c r="K56">
@@ -3343,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1</v>
       </c>
     </row>
@@ -3360,7 +3472,7 @@
         <v>-12</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12</v>
       </c>
       <c r="F57">
@@ -3375,7 +3487,7 @@
         <v>-11</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11</v>
       </c>
       <c r="K57">
@@ -3390,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1</v>
       </c>
     </row>
@@ -3407,7 +3519,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4</v>
       </c>
       <c r="F58">
@@ -3422,7 +3534,7 @@
         <v>-14</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14</v>
       </c>
       <c r="K58">
@@ -3437,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1</v>
       </c>
     </row>
@@ -3454,7 +3566,7 @@
         <v>19</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19</v>
       </c>
       <c r="F59">
@@ -3469,7 +3581,7 @@
         <v>-17</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17</v>
       </c>
       <c r="K59">
@@ -3484,7 +3596,7 @@
         <v>1</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1</v>
       </c>
     </row>
@@ -3501,7 +3613,7 @@
         <v>18</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18</v>
       </c>
       <c r="F60">
@@ -3516,7 +3628,7 @@
         <v>-18</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18</v>
       </c>
       <c r="K60">
@@ -3531,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0</v>
       </c>
     </row>
@@ -3548,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0</v>
       </c>
       <c r="F61">
@@ -3563,7 +3675,7 @@
         <v>-18</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18</v>
       </c>
       <c r="K61">
@@ -3578,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0</v>
       </c>
     </row>
@@ -3595,7 +3707,7 @@
         <v>-21</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21</v>
       </c>
       <c r="F62">
@@ -3610,7 +3722,7 @@
         <v>-16</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16</v>
       </c>
       <c r="K62" s="1">
@@ -3625,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0</v>
       </c>
     </row>
@@ -3642,7 +3754,7 @@
         <v>-27</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27</v>
       </c>
       <c r="F63">
@@ -3657,7 +3769,7 @@
         <v>-13</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13</v>
       </c>
       <c r="K63">
@@ -3672,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -3689,7 +3801,7 @@
         <v>-8</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8</v>
       </c>
       <c r="F64">
@@ -3704,7 +3816,7 @@
         <v>-8</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8</v>
       </c>
       <c r="K64">
@@ -3719,7 +3831,7 @@
         <v>-1</v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1</v>
       </c>
     </row>
@@ -3736,7 +3848,7 @@
         <v>23</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23</v>
       </c>
       <c r="F65">
@@ -3751,7 +3863,7 @@
         <v>-1</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1</v>
       </c>
       <c r="K65">
@@ -3766,7 +3878,7 @@
         <v>-1</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1</v>
       </c>
     </row>
@@ -3783,7 +3895,7 @@
         <v>40</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40</v>
       </c>
       <c r="F66">
@@ -3798,7 +3910,7 @@
         <v>7</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7</v>
       </c>
       <c r="K66">
@@ -3813,7 +3925,7 @@
         <v>-1</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1</v>
       </c>
     </row>
@@ -3830,7 +3942,7 @@
         <v>21</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21</v>
       </c>
       <c r="F67">
@@ -3845,7 +3957,7 @@
         <v>16</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16</v>
       </c>
       <c r="K67">
@@ -3860,7 +3972,7 @@
         <v>-1</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1</v>
       </c>
     </row>
@@ -3877,7 +3989,7 @@
         <v>-25</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25</v>
       </c>
       <c r="F68">
@@ -3892,7 +4004,7 @@
         <v>27</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27</v>
       </c>
       <c r="K68">
@@ -3907,7 +4019,7 @@
         <v>-1</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1</v>
       </c>
     </row>
@@ -3916,45 +4028,45 @@
         <v>-6.2604193124299407E-2</v>
       </c>
       <c r="B69">
-        <f t="shared" ref="B69:B132" si="12">A69*1024</f>
+        <f t="shared" ref="B69:B132" si="16">A69*1024</f>
         <v>-64.106693759282592</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:C132" si="13">ROUND(B69,0)</f>
+        <f t="shared" ref="C69:C132" si="17">ROUND(B69,0)</f>
         <v>-64</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64</v>
       </c>
       <c r="F69">
         <v>3.6448469384432698E-2</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G132" si="14">F69*1024</f>
+        <f t="shared" ref="G69:G132" si="18">F69*1024</f>
         <v>37.323232649659083</v>
       </c>
       <c r="H69">
-        <f t="shared" ref="H69:H132" si="15">ROUND(G69,0)</f>
+        <f t="shared" ref="H69:H132" si="19">ROUND(G69,0)</f>
         <v>37</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37</v>
       </c>
       <c r="K69">
         <v>-1.17756792418474E-3</v>
       </c>
       <c r="L69">
-        <f t="shared" ref="L69:L132" si="16">K69*1024</f>
+        <f t="shared" ref="L69:L132" si="20">K69*1024</f>
         <v>-1.2058295543651738</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:M132" si="17">ROUND(L69,0)</f>
+        <f t="shared" ref="M69:M132" si="21">ROUND(L69,0)</f>
         <v>-1</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1</v>
       </c>
     </row>
@@ -3963,45 +4075,45 @@
         <v>-5.2647007037701497E-2</v>
       </c>
       <c r="B70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-53.910535206606333</v>
       </c>
       <c r="C70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-54</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" ref="D70:D133" si="18">CONCATENATE(D69,", ",C70)</f>
+        <f t="shared" ref="D70:D133" si="22">CONCATENATE(D69,", ",C70)</f>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54</v>
       </c>
       <c r="F70">
         <v>4.7004163260535803E-2</v>
       </c>
       <c r="G70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>48.132263178788662</v>
       </c>
       <c r="H70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>48</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" ref="I70:I133" si="19">CONCATENATE(I69,", ",H70)</f>
+        <f t="shared" ref="I70:I133" si="23">CONCATENATE(I69,", ",H70)</f>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48</v>
       </c>
       <c r="K70">
         <v>-1.0511192539460401E-3</v>
       </c>
       <c r="L70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-1.076346116040745</v>
       </c>
       <c r="M70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-1</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" ref="N70:N133" si="20">CONCATENATE(N69,", ",M70)</f>
+        <f t="shared" ref="N70:N133" si="24">CONCATENATE(N69,", ",M70)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1</v>
       </c>
     </row>
@@ -4010,45 +4122,45 @@
         <v>2.5075940414236799E-2</v>
       </c>
       <c r="B71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>25.677762984178482</v>
       </c>
       <c r="C71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>26</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26</v>
       </c>
       <c r="F71">
         <v>5.7176037065042297E-2</v>
       </c>
       <c r="G71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>58.548261954603312</v>
       </c>
       <c r="H71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>59</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59</v>
       </c>
       <c r="K71">
         <v>-8.2406283336857204E-4</v>
       </c>
       <c r="L71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.84384034136941777</v>
       </c>
       <c r="M71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-1</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1</v>
       </c>
     </row>
@@ -4057,45 +4169,45 @@
         <v>0.14851307290093901</v>
       </c>
       <c r="B72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>152.07738665056155</v>
       </c>
       <c r="C72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>152</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152</v>
       </c>
       <c r="F72">
         <v>6.6507394523251107E-2</v>
       </c>
       <c r="G72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>68.103571991809133</v>
       </c>
       <c r="H72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>68</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68</v>
       </c>
       <c r="K72">
         <v>-5.05524916229736E-4</v>
       </c>
       <c r="L72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.51765751421924966</v>
       </c>
       <c r="M72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-1</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1</v>
       </c>
     </row>
@@ -4104,45 +4216,45 @@
         <v>0.26200806284168698</v>
       </c>
       <c r="B73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>268.29625634988747</v>
       </c>
       <c r="C73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>268</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268</v>
       </c>
       <c r="F73">
         <v>7.4567872679991501E-2</v>
       </c>
       <c r="G73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>76.357501624311297</v>
       </c>
       <c r="H73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>76</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76</v>
       </c>
       <c r="K73">
         <v>-1.13179140360855E-4</v>
       </c>
       <c r="L73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.11589543972951552</v>
       </c>
       <c r="M73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0</v>
       </c>
     </row>
@@ -4151,45 +4263,45 @@
         <v>0.30793577186684701</v>
       </c>
       <c r="B74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>315.32623039165134</v>
       </c>
       <c r="C74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>315</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315</v>
       </c>
       <c r="F74">
         <v>8.0977906099365102E-2</v>
       </c>
       <c r="G74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>82.921375845749864</v>
       </c>
       <c r="H74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>83</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83</v>
       </c>
       <c r="K74">
         <v>3.27536944162918E-4</v>
       </c>
       <c r="L74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.33539783082282804</v>
       </c>
       <c r="M74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0</v>
       </c>
     </row>
@@ -4198,45 +4310,45 @@
         <v>0.26200806284168698</v>
       </c>
       <c r="B75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>268.29625634988747</v>
       </c>
       <c r="C75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>268</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268</v>
       </c>
       <c r="F75">
         <v>8.5431437901348495E-2</v>
       </c>
       <c r="G75">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>87.481792410980859</v>
       </c>
       <c r="H75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>87</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87</v>
       </c>
       <c r="K75">
         <v>7.8470838166812295E-4</v>
       </c>
       <c r="L75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.8035413828281579</v>
       </c>
       <c r="M75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="N75" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1</v>
       </c>
     </row>
@@ -4245,45 +4357,45 @@
         <v>0.14851307290093901</v>
       </c>
       <c r="B76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>152.07738665056155</v>
       </c>
       <c r="C76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>152</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152</v>
       </c>
       <c r="F76">
         <v>8.7713589138552997E-2</v>
       </c>
       <c r="G76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>89.818715277878269</v>
       </c>
       <c r="H76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>90</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90</v>
       </c>
       <c r="K76">
         <v>1.2220423801477E-3</v>
       </c>
       <c r="L76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.2513713972712448</v>
       </c>
       <c r="M76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="N76" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1</v>
       </c>
     </row>
@@ -4292,45 +4404,45 @@
         <v>2.5075940414236799E-2</v>
       </c>
       <c r="B77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>25.677762984178482</v>
       </c>
       <c r="C77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>26</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26</v>
       </c>
       <c r="F77">
         <v>8.7713589138552997E-2</v>
       </c>
       <c r="G77">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>89.818715277878269</v>
       </c>
       <c r="H77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>90</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90</v>
       </c>
       <c r="K77" s="1">
         <v>1.6014086483712E-3</v>
       </c>
       <c r="L77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.6398424559321088</v>
       </c>
       <c r="M77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="N77" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2</v>
       </c>
     </row>
@@ -4339,45 +4451,45 @@
         <v>-5.2647007037701497E-2</v>
       </c>
       <c r="B78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-53.910535206606333</v>
       </c>
       <c r="C78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-54</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54</v>
       </c>
       <c r="F78">
         <v>8.5431437901348495E-2</v>
       </c>
       <c r="G78">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>87.481792410980859</v>
       </c>
       <c r="H78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>87</v>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87</v>
       </c>
       <c r="K78">
         <v>1.8858596843242799E-3</v>
       </c>
       <c r="L78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.9311203167480626</v>
       </c>
       <c r="M78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="N78" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2</v>
       </c>
     </row>
@@ -4386,45 +4498,45 @@
         <v>-6.2604193124299407E-2</v>
       </c>
       <c r="B79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-64.106693759282592</v>
       </c>
       <c r="C79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-64</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64</v>
       </c>
       <c r="F79">
         <v>8.0977906099365102E-2</v>
       </c>
       <c r="G79">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>82.921375845749864</v>
       </c>
       <c r="H79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>83</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83</v>
       </c>
       <c r="K79">
         <v>2.0424978890667901E-3</v>
       </c>
       <c r="L79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2.0915178384043931</v>
       </c>
       <c r="M79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="N79" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2</v>
       </c>
     </row>
@@ -4433,45 +4545,45 @@
         <v>-2.4128967891027201E-2</v>
       </c>
       <c r="B80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-24.708063120411854</v>
       </c>
       <c r="C80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-25</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25</v>
       </c>
       <c r="F80">
         <v>7.4567872679991501E-2</v>
       </c>
       <c r="G80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>76.357501624311297</v>
       </c>
       <c r="H80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>76</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76</v>
       </c>
       <c r="K80">
         <v>2.0459196595336202E-3</v>
       </c>
       <c r="L80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2.0950217313624271</v>
       </c>
       <c r="M80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="N80" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2</v>
       </c>
     </row>
@@ -4480,45 +4592,45 @@
         <v>2.0969084366429001E-2</v>
       </c>
       <c r="B81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>21.472342391223297</v>
       </c>
       <c r="C81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21</v>
       </c>
       <c r="F81">
         <v>6.6507394523251107E-2</v>
       </c>
       <c r="G81">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>68.103571991809133</v>
       </c>
       <c r="H81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>68</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68</v>
       </c>
       <c r="K81">
         <v>1.8804912501151701E-3</v>
       </c>
       <c r="L81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.9256230401179342</v>
       </c>
       <c r="M81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="N81" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2</v>
       </c>
     </row>
@@ -4527,45 +4639,45 @@
         <v>3.8626734916027E-2</v>
       </c>
       <c r="B82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>39.553776554011648</v>
       </c>
       <c r="C82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>40</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40</v>
       </c>
       <c r="F82">
         <v>5.7176037065042297E-2</v>
       </c>
       <c r="G82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>58.548261954603312</v>
       </c>
       <c r="H82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>59</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59</v>
       </c>
       <c r="K82">
         <v>1.54269454967713E-3</v>
       </c>
       <c r="L82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.5797192188693812</v>
       </c>
       <c r="M82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="N82" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2</v>
       </c>
     </row>
@@ -4574,45 +4686,45 @@
         <v>2.2609189709489198E-2</v>
       </c>
       <c r="B83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>23.151810262516939</v>
       </c>
       <c r="C83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23</v>
       </c>
       <c r="F83">
         <v>4.7004163260535803E-2</v>
       </c>
       <c r="G83">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>48.132263178788662</v>
       </c>
       <c r="H83">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>48</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48</v>
       </c>
       <c r="K83">
         <v>1.0424804818891199E-3</v>
       </c>
       <c r="L83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.0675000134544588</v>
       </c>
       <c r="M83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="N83" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1</v>
       </c>
     </row>
@@ -4621,45 +4733,45 @@
         <v>-7.5642623596063599E-3</v>
       </c>
       <c r="B84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-7.7458046562369125</v>
       </c>
       <c r="C84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-8</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8</v>
       </c>
       <c r="F84">
         <v>3.6448469384432698E-2</v>
       </c>
       <c r="G84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37.323232649659083</v>
       </c>
       <c r="H84">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>37</v>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37</v>
       </c>
       <c r="K84">
         <v>4.0368626848191801E-4</v>
       </c>
       <c r="L84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.41337473892548404</v>
       </c>
       <c r="M84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N84" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0</v>
       </c>
     </row>
@@ -4668,45 +4780,45 @@
         <v>-2.59786296436437E-2</v>
       </c>
       <c r="B85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-26.602116755091149</v>
       </c>
       <c r="C85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-27</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27</v>
       </c>
       <c r="F85">
         <v>2.5965875886918899E-2</v>
       </c>
       <c r="G85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>26.589056908204952</v>
       </c>
       <c r="H85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27</v>
       </c>
       <c r="K85">
         <v>-3.3660322222760003E-4</v>
       </c>
       <c r="L85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.34468169956106243</v>
       </c>
       <c r="M85">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N85" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0</v>
       </c>
     </row>
@@ -4715,45 +4827,45 @@
         <v>-2.0602604025493399E-2</v>
       </c>
       <c r="B86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-21.097066522105241</v>
       </c>
       <c r="C86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-21</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21</v>
       </c>
       <c r="F86">
         <v>1.5988402242422602E-2</v>
       </c>
       <c r="G86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>16.372123896240744</v>
       </c>
       <c r="H86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="I86" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16</v>
       </c>
       <c r="K86">
         <v>-1.1297040661204299E-3</v>
       </c>
       <c r="L86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-1.1568169637073202</v>
       </c>
       <c r="M86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-1</v>
       </c>
       <c r="N86" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1</v>
       </c>
     </row>
@@ -4762,45 +4874,45 @@
         <v>2.0948887734010101E-4</v>
       </c>
       <c r="B87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.21451661039626344</v>
       </c>
       <c r="C87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0</v>
       </c>
       <c r="F87">
         <v>6.9002332173836401E-3</v>
       </c>
       <c r="G87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>7.0658388146008475</v>
       </c>
       <c r="H87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7</v>
       </c>
       <c r="K87" s="1">
         <v>-1.9180271655594499E-3</v>
       </c>
       <c r="L87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-1.9640598175328767</v>
       </c>
       <c r="M87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-2</v>
       </c>
       <c r="N87" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2</v>
       </c>
     </row>
@@ -4809,45 +4921,45 @@
         <v>1.7547151311754602E-2</v>
       </c>
       <c r="B88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>17.968282943236712</v>
       </c>
       <c r="C88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18</v>
       </c>
       <c r="F88">
         <v>-9.8185662818333404E-4</v>
       </c>
       <c r="G88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-1.0054211872597341</v>
       </c>
       <c r="H88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1</v>
       </c>
       <c r="K88">
         <v>-2.6386063996935E-3</v>
       </c>
       <c r="L88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-2.701932953286144</v>
       </c>
       <c r="M88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-3</v>
       </c>
       <c r="N88" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3</v>
       </c>
     </row>
@@ -4856,45 +4968,45 @@
         <v>1.8218706805891799E-2</v>
       </c>
       <c r="B89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>18.655955769233202</v>
       </c>
       <c r="C89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>19</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19</v>
       </c>
       <c r="F89">
         <v>-7.4225852625211097E-3</v>
       </c>
       <c r="G89">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-7.6007273088216163</v>
       </c>
       <c r="H89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-8</v>
       </c>
       <c r="I89" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8</v>
       </c>
       <c r="K89">
         <v>-3.2272956756481601E-3</v>
       </c>
       <c r="L89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-3.3047507718637159</v>
       </c>
       <c r="M89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-3</v>
       </c>
       <c r="N89" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3</v>
       </c>
     </row>
@@ -4903,45 +5015,45 @@
         <v>4.1514914181358603E-3</v>
       </c>
       <c r="B90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4.251127212171121</v>
       </c>
       <c r="C90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4</v>
       </c>
       <c r="F90">
         <v>-1.2277900157896E-2</v>
       </c>
       <c r="G90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-12.572569761685504</v>
       </c>
       <c r="H90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-13</v>
       </c>
       <c r="I90" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13</v>
       </c>
       <c r="K90">
         <v>-3.6233530641963199E-3</v>
       </c>
       <c r="L90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-3.7103135377370315</v>
       </c>
       <c r="M90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-4</v>
       </c>
       <c r="N90" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4</v>
       </c>
     </row>
@@ -4950,45 +5062,45 @@
         <v>-1.1320136907988601E-2</v>
       </c>
       <c r="B91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-11.591820193780327</v>
       </c>
       <c r="C91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-12</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12</v>
       </c>
       <c r="F91">
         <v>-1.54973755579117E-2</v>
       </c>
       <c r="G91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-15.869312571301581</v>
       </c>
       <c r="H91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-16</v>
       </c>
       <c r="I91" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16</v>
       </c>
       <c r="K91">
         <v>-3.7740947189691199E-3</v>
       </c>
       <c r="L91">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-3.8646729922243788</v>
       </c>
       <c r="M91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-4</v>
       </c>
       <c r="N91" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4</v>
       </c>
     </row>
@@ -4997,45 +5109,45 @@
         <v>-1.55832378252121E-2</v>
       </c>
       <c r="B92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-15.95723553301719</v>
       </c>
       <c r="C92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-16</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16</v>
       </c>
       <c r="F92">
         <v>-1.71217338018602E-2</v>
       </c>
       <c r="G92">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-17.532655413104845</v>
       </c>
       <c r="H92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-18</v>
       </c>
       <c r="I92" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18</v>
       </c>
       <c r="K92">
         <v>-3.6392547586449101E-3</v>
       </c>
       <c r="L92">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-3.7265968728523879</v>
       </c>
       <c r="M92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-4</v>
       </c>
       <c r="N92" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4</v>
       </c>
     </row>
@@ -5044,45 +5156,45 @@
         <v>-6.6725365299933198E-3</v>
       </c>
       <c r="B93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-6.8326774067131595</v>
       </c>
       <c r="C93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-7</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7</v>
       </c>
       <c r="F93">
         <v>-1.7274578282228299E-2</v>
       </c>
       <c r="G93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-17.689168161001778</v>
       </c>
       <c r="H93">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-18</v>
       </c>
       <c r="I93" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18</v>
       </c>
       <c r="K93">
         <v>-3.1947452926514202E-3</v>
       </c>
       <c r="L93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-3.2714191796750542</v>
       </c>
       <c r="M93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-3</v>
       </c>
       <c r="N93" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3</v>
       </c>
     </row>
@@ -5091,45 +5203,45 @@
         <v>6.5420403970275201E-3</v>
       </c>
       <c r="B94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.6990493665561806</v>
       </c>
       <c r="C94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7</v>
       </c>
       <c r="F94">
         <v>-1.6149436448152501E-2</v>
       </c>
       <c r="G94">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-16.537022922908161</v>
       </c>
       <c r="H94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-17</v>
       </c>
       <c r="I94" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17</v>
       </c>
       <c r="K94">
         <v>-2.4354866346171498E-3</v>
       </c>
       <c r="L94">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-2.4939383138479614</v>
       </c>
       <c r="M94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-2</v>
       </c>
       <c r="N94" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2</v>
       </c>
     </row>
@@ -5138,45 +5250,45 @@
         <v>1.28304079036457E-2</v>
       </c>
       <c r="B95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13.138337693333197</v>
       </c>
       <c r="C95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13</v>
       </c>
       <c r="F95">
         <v>-1.3993135006185001E-2</v>
       </c>
       <c r="G95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-14.328970246333441</v>
       </c>
       <c r="H95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-14</v>
       </c>
       <c r="I95" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14</v>
       </c>
       <c r="K95">
         <v>-1.3770632191021301E-3</v>
       </c>
       <c r="L95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-1.4101127363605812</v>
       </c>
       <c r="M95">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-1</v>
       </c>
       <c r="N95" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1</v>
       </c>
     </row>
@@ -5185,45 +5297,45 @@
         <v>7.9246238618450003E-3</v>
       </c>
       <c r="B96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>8.1148148345292803</v>
       </c>
       <c r="C96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8</v>
       </c>
       <c r="F96">
         <v>-1.10868784906707E-2</v>
       </c>
       <c r="G96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-11.352963574446797</v>
       </c>
       <c r="H96">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-11</v>
       </c>
       <c r="I96" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11</v>
       </c>
       <c r="K96" s="1">
         <v>-5.6025615728318497E-5</v>
       </c>
       <c r="L96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-5.7370230505798141E-2</v>
       </c>
       <c r="M96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N96" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0</v>
       </c>
     </row>
@@ -5232,45 +5344,45 @@
         <v>-2.8705146006650201E-3</v>
       </c>
       <c r="B97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-2.9394069510809806</v>
       </c>
       <c r="C97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-3</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3</v>
       </c>
       <c r="F97">
         <v>-7.7266950707862297E-3</v>
       </c>
       <c r="G97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-7.9121357524850993</v>
       </c>
       <c r="H97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-8</v>
       </c>
       <c r="I97" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8</v>
       </c>
       <c r="K97">
         <v>1.4712441107666799E-3</v>
       </c>
       <c r="L97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.5065539694250802</v>
       </c>
       <c r="M97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="N97" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2</v>
       </c>
     </row>
@@ -5279,45 +5391,45 @@
         <v>-1.00891703751348E-2</v>
       </c>
       <c r="B98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-10.331310464138035</v>
       </c>
       <c r="C98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-10</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10</v>
       </c>
       <c r="F98">
         <v>-4.2036357543005099E-3</v>
       </c>
       <c r="G98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-4.3045230124037221</v>
       </c>
       <c r="H98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-4</v>
       </c>
       <c r="I98" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4</v>
       </c>
       <c r="K98">
         <v>3.1310977919498202E-3</v>
       </c>
       <c r="L98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3.2062441389566159</v>
       </c>
       <c r="M98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="N98" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3</v>
       </c>
     </row>
@@ -5326,45 +5438,45 @@
         <v>-8.2551226408476407E-3</v>
       </c>
       <c r="B99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-8.4532455842279841</v>
       </c>
       <c r="C99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-8</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8</v>
       </c>
       <c r="F99">
         <v>-7.8634168168336999E-4</v>
       </c>
       <c r="G99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-0.80521388204377087</v>
       </c>
       <c r="H99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I99" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1</v>
       </c>
       <c r="K99">
         <v>4.8364840486169597E-3</v>
       </c>
       <c r="L99">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4.9525596657837667</v>
       </c>
       <c r="M99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="N99" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5</v>
       </c>
     </row>
@@ -5373,45 +5485,45 @@
         <v>1.2224334270097799E-4</v>
       </c>
       <c r="B100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.12517718292580146</v>
       </c>
       <c r="C100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0</v>
       </c>
       <c r="F100">
         <v>2.2941679650818501E-3</v>
       </c>
       <c r="G100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.3492279962438145</v>
       </c>
       <c r="H100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="I100" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2</v>
       </c>
       <c r="K100">
         <v>6.4919019240613799E-3</v>
       </c>
       <c r="L100">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>6.6477075702388531</v>
       </c>
       <c r="M100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="N100" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7</v>
       </c>
     </row>
@@ -5420,45 +5532,45 @@
         <v>7.48008157757446E-3</v>
       </c>
       <c r="B101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.6596035354362471</v>
       </c>
       <c r="C101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8</v>
       </c>
       <c r="F101">
         <v>4.8557318230469304E-3</v>
       </c>
       <c r="G101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4.9722693868000567</v>
       </c>
       <c r="H101">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="I101" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5</v>
       </c>
       <c r="K101">
         <v>7.9991387074203005E-3</v>
       </c>
       <c r="L101">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>8.1911180363983878</v>
       </c>
       <c r="M101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="N101" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8</v>
       </c>
     </row>
@@ -5467,45 +5579,45 @@
         <v>7.9179700489016291E-3</v>
       </c>
       <c r="B102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>8.1080013300752682</v>
       </c>
       <c r="C102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8</v>
       </c>
       <c r="F102">
         <v>6.7722891809736197E-3</v>
       </c>
       <c r="G102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.9348241213169866</v>
       </c>
       <c r="H102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="I102" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7</v>
       </c>
       <c r="K102">
         <v>9.2634197343541905E-3</v>
       </c>
       <c r="L102">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>9.485741807978691</v>
       </c>
       <c r="M102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="N102" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9</v>
       </c>
     </row>
@@ -5514,45 +5626,45 @@
         <v>1.82843004762087E-3</v>
       </c>
       <c r="B103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.8723123687637708</v>
       </c>
       <c r="C103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2</v>
       </c>
       <c r="F103">
         <v>7.9770032222973297E-3</v>
       </c>
       <c r="G103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.1684512996324656</v>
       </c>
       <c r="H103">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="I103" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8</v>
       </c>
       <c r="K103">
         <v>1.01995560909744E-2</v>
       </c>
       <c r="L103">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.444345437157786</v>
       </c>
       <c r="M103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="N103" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10</v>
       </c>
     </row>
@@ -5561,45 +5673,45 @@
         <v>-5.1048168570316504E-3</v>
       </c>
       <c r="B104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-5.22733246160041</v>
       </c>
       <c r="C104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-5</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5</v>
       </c>
       <c r="F104">
         <v>8.4602941479259997E-3</v>
       </c>
       <c r="G104">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.6633412074762237</v>
       </c>
       <c r="H104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="I104" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9</v>
       </c>
       <c r="K104">
         <v>1.07376727373087E-2</v>
       </c>
       <c r="L104">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.995376883004109</v>
       </c>
       <c r="M104">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="N104" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11</v>
       </c>
     </row>
@@ -5608,45 +5720,45 @@
         <v>-7.1184750335236196E-3</v>
       </c>
       <c r="B105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-7.2893184343281865</v>
       </c>
       <c r="C105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-7</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7</v>
       </c>
       <c r="F105">
         <v>8.2658083170385494E-3</v>
       </c>
       <c r="G105">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.4641877166474746</v>
       </c>
       <c r="H105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="I105" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8</v>
       </c>
       <c r="K105">
         <v>1.08281060327147E-2</v>
       </c>
       <c r="L105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11.087980577499852</v>
       </c>
       <c r="M105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="N105" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11</v>
       </c>
     </row>
@@ -5655,45 +5767,45 @@
         <v>-3.0897867744295099E-3</v>
       </c>
       <c r="B106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-3.1639416570158181</v>
       </c>
       <c r="C106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-3</v>
       </c>
       <c r="D106" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3</v>
       </c>
       <c r="F106">
         <v>7.4808461674140299E-3</v>
       </c>
       <c r="G106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>7.6603864754319666</v>
       </c>
       <c r="H106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="I106" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8</v>
       </c>
       <c r="K106">
         <v>1.04451212202434E-2</v>
       </c>
       <c r="L106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.695804129529241</v>
       </c>
       <c r="M106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="N106" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11</v>
       </c>
     </row>
@@ -5702,45 +5814,45 @@
         <v>3.0408550172863302E-3</v>
       </c>
       <c r="B107">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.1138355377012021</v>
       </c>
       <c r="C107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3</v>
       </c>
       <c r="F107">
         <v>6.2264261555799198E-3</v>
       </c>
       <c r="G107">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.3758603833138379</v>
       </c>
       <c r="H107">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="I107" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6</v>
       </c>
       <c r="K107">
         <v>9.5891700258089393E-3</v>
       </c>
       <c r="L107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>9.8193101064283539</v>
       </c>
       <c r="M107">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="N107" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10</v>
       </c>
     </row>
@@ -5749,45 +5861,45 @@
         <v>6.0314999876801296E-3</v>
       </c>
       <c r="B108">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.1762559873844527</v>
       </c>
       <c r="C108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6</v>
       </c>
       <c r="F108">
         <v>4.6450999246200504E-3</v>
       </c>
       <c r="G108">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4.7565823228109316</v>
       </c>
       <c r="H108">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="I108" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5</v>
       </c>
       <c r="K108">
         <v>8.2875044450328294E-3</v>
       </c>
       <c r="L108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>8.4864045517136173</v>
       </c>
       <c r="M108">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="N108" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8</v>
       </c>
     </row>
@@ -5796,45 +5908,45 @@
         <v>3.76861846619318E-3</v>
       </c>
       <c r="B109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.8590653093818164</v>
       </c>
       <c r="C109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="D109" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4</v>
       </c>
       <c r="F109">
         <v>2.8884445548751402E-3</v>
       </c>
       <c r="G109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.9577672241921436</v>
       </c>
       <c r="H109">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="I109" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3</v>
       </c>
       <c r="K109">
         <v>6.5930766798161598E-3</v>
       </c>
       <c r="L109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>6.7513105201317476</v>
       </c>
       <c r="M109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="N109" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7</v>
       </c>
     </row>
@@ -5843,45 +5955,45 @@
         <v>-1.33621728115617E-3</v>
       </c>
       <c r="B110">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-1.368286495903918</v>
       </c>
       <c r="C110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1</v>
       </c>
       <c r="F110">
         <v>1.1049987059132699E-3</v>
       </c>
       <c r="G110">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.1315186748551884</v>
       </c>
       <c r="H110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I110" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1</v>
       </c>
       <c r="K110">
         <v>4.5817770033893604E-3</v>
       </c>
       <c r="L110">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4.691739651470705</v>
       </c>
       <c r="M110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="N110" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5</v>
       </c>
     </row>
@@ -5890,45 +6002,45 @@
         <v>-4.8036118160601103E-3</v>
       </c>
       <c r="B111">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-4.9188984996455529</v>
       </c>
       <c r="C111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-5</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5</v>
       </c>
       <c r="F111">
         <v>-5.7029976905142196E-4</v>
       </c>
       <c r="G111">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-0.58398696350865609</v>
       </c>
       <c r="H111">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I111" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1</v>
       </c>
       <c r="K111">
         <v>2.34816971255141E-3</v>
       </c>
       <c r="L111">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2.4045257856526439</v>
       </c>
       <c r="M111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="N111" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2</v>
       </c>
     </row>
@@ -5937,45 +6049,45 @@
         <v>-3.9715179742928E-3</v>
       </c>
       <c r="B112">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-4.0668344056758272</v>
       </c>
       <c r="C112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-4</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4</v>
       </c>
       <c r="F112">
         <v>-2.0245191568828199E-3</v>
       </c>
       <c r="G112">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-2.0731076166480076</v>
       </c>
       <c r="H112">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-2</v>
       </c>
       <c r="I112" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2</v>
       </c>
       <c r="K112">
         <v>0</v>
       </c>
       <c r="L112">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N112" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0</v>
       </c>
     </row>
@@ -5984,45 +6096,45 @@
         <v>1.51501825474768E-5</v>
       </c>
       <c r="B113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.5513786928616243E-2</v>
       </c>
       <c r="C113">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0</v>
       </c>
       <c r="F113">
         <v>-3.1731499620790702E-3</v>
       </c>
       <c r="G113">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-3.2493055611689678</v>
       </c>
       <c r="H113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-3</v>
       </c>
       <c r="I113" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3</v>
       </c>
       <c r="K113">
         <v>-2.34816971255141E-3</v>
       </c>
       <c r="L113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-2.4045257856526439</v>
       </c>
       <c r="M113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-2</v>
       </c>
       <c r="N113" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2</v>
       </c>
     </row>
@@ -6031,45 +6143,45 @@
         <v>3.5571979523515E-3</v>
       </c>
       <c r="B114">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.642570703207936</v>
       </c>
       <c r="C114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4</v>
       </c>
       <c r="F114">
         <v>-3.9632798142873104E-3</v>
       </c>
       <c r="G114">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-4.0583985298302059</v>
       </c>
       <c r="H114">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-4</v>
       </c>
       <c r="I114" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4</v>
       </c>
       <c r="K114">
         <v>-4.5817770033893604E-3</v>
       </c>
       <c r="L114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-4.691739651470705</v>
       </c>
       <c r="M114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-5</v>
       </c>
       <c r="N114" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5</v>
       </c>
     </row>
@@ -6078,45 +6190,45 @@
         <v>3.8090051338016701E-3</v>
       </c>
       <c r="B115">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.9004212570129102</v>
       </c>
       <c r="C115">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4</v>
       </c>
       <c r="F115">
         <v>-4.3745277784091102E-3</v>
       </c>
       <c r="G115">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-4.4795164450909288</v>
       </c>
       <c r="H115">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-4</v>
       </c>
       <c r="I115" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4</v>
       </c>
       <c r="K115">
         <v>-6.5930766798161598E-3</v>
       </c>
       <c r="L115">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-6.7513105201317476</v>
       </c>
       <c r="M115">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-7</v>
       </c>
       <c r="N115" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7</v>
       </c>
     </row>
@@ -6125,45 +6237,45 @@
         <v>9.2550763835286005E-4</v>
       </c>
       <c r="B116">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.94771982167332869</v>
       </c>
       <c r="C116">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1</v>
       </c>
       <c r="F116">
         <v>-4.4170620352491198E-3</v>
       </c>
       <c r="G116">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-4.5230715240950987</v>
       </c>
       <c r="H116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-5</v>
       </c>
       <c r="I116" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5</v>
       </c>
       <c r="K116">
         <v>-8.2875044450328294E-3</v>
       </c>
       <c r="L116">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-8.4864045517136173</v>
       </c>
       <c r="M116">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-8</v>
       </c>
       <c r="N116" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8</v>
       </c>
     </row>
@@ -6172,45 +6284,45 @@
         <v>-2.3933478233715902E-3</v>
       </c>
       <c r="B117">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-2.4507881711325084</v>
       </c>
       <c r="C117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-2</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2</v>
       </c>
       <c r="F117">
         <v>-4.1277137327169998E-3</v>
       </c>
       <c r="G117">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-4.2267788623022078</v>
       </c>
       <c r="H117">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-4</v>
       </c>
       <c r="I117" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4</v>
       </c>
       <c r="K117">
         <v>-9.5891700258089393E-3</v>
       </c>
       <c r="L117">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-9.8193101064283539</v>
       </c>
       <c r="M117">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-10</v>
       </c>
       <c r="N117" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10</v>
       </c>
     </row>
@@ -6219,45 +6331,45 @@
         <v>-3.3920618149878802E-3</v>
       </c>
       <c r="B118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-3.4734712985475893</v>
       </c>
       <c r="C118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-3</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3</v>
       </c>
       <c r="F118">
         <v>-3.5646014984962501E-3</v>
       </c>
       <c r="G118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-3.6501519344601601</v>
       </c>
       <c r="H118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-4</v>
       </c>
       <c r="I118" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4</v>
       </c>
       <c r="K118">
         <v>-1.04451212202434E-2</v>
       </c>
       <c r="L118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-10.695804129529241</v>
       </c>
       <c r="M118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-11</v>
       </c>
       <c r="N118" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11</v>
       </c>
     </row>
@@ -6266,45 +6378,45 @@
         <v>-1.5184167477814601E-3</v>
       </c>
       <c r="B119">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-1.5548587497282151</v>
       </c>
       <c r="C119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-2</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2</v>
       </c>
       <c r="F119">
         <v>-2.7995599620471399E-3</v>
       </c>
       <c r="G119">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-2.8667494011362713</v>
       </c>
       <c r="H119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-3</v>
       </c>
       <c r="I119" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3</v>
       </c>
       <c r="K119">
         <v>-1.08281060327147E-2</v>
       </c>
       <c r="L119">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-11.087980577499852</v>
       </c>
       <c r="M119">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-11</v>
       </c>
       <c r="N119" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11</v>
       </c>
     </row>
@@ -6313,45 +6425,45 @@
         <v>1.3754745821687999E-3</v>
       </c>
       <c r="B120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.4084859721408511</v>
       </c>
       <c r="C120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1</v>
       </c>
       <c r="F120">
         <v>-1.91317653031027E-3</v>
       </c>
       <c r="G120">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-1.9590927670377165</v>
       </c>
       <c r="H120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-2</v>
       </c>
       <c r="I120" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2</v>
       </c>
       <c r="K120">
         <v>-1.07376727373087E-2</v>
       </c>
       <c r="L120">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-10.995376883004109</v>
       </c>
       <c r="M120">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-11</v>
       </c>
       <c r="N120" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11</v>
       </c>
     </row>
@@ -6360,45 +6472,45 @@
         <v>2.8179697324882901E-3</v>
       </c>
       <c r="B121">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.8856010060680091</v>
       </c>
       <c r="C121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3</v>
       </c>
       <c r="F121">
         <v>-9.8517196028931396E-4</v>
       </c>
       <c r="G121">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-1.0088160873362575</v>
       </c>
       <c r="H121">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I121" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1</v>
       </c>
       <c r="K121">
         <v>-1.01995560909744E-2</v>
       </c>
       <c r="L121">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-10.444345437157786</v>
       </c>
       <c r="M121">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-10</v>
       </c>
       <c r="N121" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10</v>
       </c>
     </row>
@@ -6407,45 +6519,45 @@
         <v>1.8053392300166401E-3</v>
       </c>
       <c r="B122">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.8486673715370394</v>
       </c>
       <c r="C122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2</v>
       </c>
       <c r="F122" s="1">
         <v>-9.0114806315754899E-5</v>
       </c>
       <c r="G122">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-9.2277561667333016E-2</v>
       </c>
       <c r="H122">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I122" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0</v>
       </c>
       <c r="K122">
         <v>-9.2634197343541905E-3</v>
       </c>
       <c r="L122">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-9.485741807978691</v>
       </c>
       <c r="M122">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-9</v>
       </c>
       <c r="N122" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9</v>
       </c>
     </row>
@@ -6454,45 +6566,45 @@
         <v>-5.5113178922965803E-4</v>
       </c>
       <c r="B123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-0.56435895217116983</v>
       </c>
       <c r="C123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1</v>
       </c>
       <c r="F123">
         <v>7.0827556858191795E-4</v>
       </c>
       <c r="G123">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.72527418222788398</v>
       </c>
       <c r="H123">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I123" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1</v>
       </c>
       <c r="K123">
         <v>-7.9991387074203005E-3</v>
       </c>
       <c r="L123">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-8.1911180363983878</v>
       </c>
       <c r="M123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-8</v>
       </c>
       <c r="N123" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8</v>
       </c>
     </row>
@@ -6501,45 +6613,45 @@
         <v>-2.1792052640551901E-3</v>
       </c>
       <c r="B124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-2.2315061903925146</v>
       </c>
       <c r="C124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-2</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2</v>
       </c>
       <c r="F124">
         <v>1.3608935262920401E-3</v>
       </c>
       <c r="G124">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.393554970923049</v>
       </c>
       <c r="H124">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I124" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1</v>
       </c>
       <c r="K124">
         <v>-6.4919019240613799E-3</v>
       </c>
       <c r="L124">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-6.6477075702388531</v>
       </c>
       <c r="M124">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-7</v>
       </c>
       <c r="N124" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7</v>
       </c>
     </row>
@@ -6548,45 +6660,45 @@
         <v>-1.8475015937174401E-3</v>
       </c>
       <c r="B125">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-1.8918416319666587</v>
       </c>
       <c r="C125">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-2</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2</v>
       </c>
       <c r="F125">
         <v>1.83557932277297E-3</v>
       </c>
       <c r="G125">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.8796332265195212</v>
       </c>
       <c r="H125">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="I125" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2</v>
       </c>
       <c r="K125">
         <v>-4.8364840486169597E-3</v>
       </c>
       <c r="L125">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-4.9525596657837667</v>
       </c>
       <c r="M125">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-5</v>
       </c>
       <c r="N125" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5</v>
       </c>
     </row>
@@ -6595,45 +6707,45 @@
         <v>-6.4556312606768403E-5</v>
       </c>
       <c r="B126">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-6.6105664109330844E-2</v>
       </c>
       <c r="C126">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0</v>
       </c>
       <c r="F126">
         <v>2.1175559658164599E-3</v>
       </c>
       <c r="G126">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.168377308996055</v>
       </c>
       <c r="H126">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="I126" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2</v>
       </c>
       <c r="K126">
         <v>-3.1310977919498202E-3</v>
       </c>
       <c r="L126">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-3.2062441389566159</v>
       </c>
       <c r="M126">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-3</v>
       </c>
       <c r="N126" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3</v>
       </c>
     </row>
@@ -6642,45 +6754,45 @@
         <v>1.5477307641604101E-3</v>
       </c>
       <c r="B127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.5848763025002599</v>
       </c>
       <c r="C127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2</v>
       </c>
       <c r="F127">
         <v>2.2084821017099802E-3</v>
       </c>
       <c r="G127">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.2614856721510197</v>
       </c>
       <c r="H127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="I127" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2</v>
       </c>
       <c r="K127">
         <v>-1.4712441107666799E-3</v>
       </c>
       <c r="L127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-1.5065539694250802</v>
       </c>
       <c r="M127">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-2</v>
       </c>
       <c r="N127" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2</v>
       </c>
     </row>
@@ -6689,45 +6801,45 @@
         <v>1.7089070707318201E-3</v>
       </c>
       <c r="B128">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.7499208404293838</v>
       </c>
       <c r="C128">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2</v>
       </c>
       <c r="F128">
         <v>2.1246047062756998E-3</v>
       </c>
       <c r="G128">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.1755952192263166</v>
       </c>
       <c r="H128">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="I128" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2</v>
       </c>
       <c r="K128" s="1">
         <v>5.6025615728318497E-5</v>
       </c>
       <c r="L128">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5.7370230505798141E-2</v>
       </c>
       <c r="M128">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N128" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0</v>
       </c>
     </row>
@@ -6736,45 +6848,45 @@
         <v>4.7398615009049897E-4</v>
       </c>
       <c r="B129">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.48536181769267095</v>
       </c>
       <c r="C129">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0</v>
       </c>
       <c r="F129">
         <v>1.8936017100226799E-3</v>
       </c>
       <c r="G129">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.9390481510632243</v>
       </c>
       <c r="H129">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="I129" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2</v>
       </c>
       <c r="K129">
         <v>1.3770632191021301E-3</v>
       </c>
       <c r="L129">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.4101127363605812</v>
       </c>
       <c r="M129">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="N129" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1</v>
       </c>
     </row>
@@ -6783,45 +6895,45 @@
         <v>-9.8121530331626589E-4</v>
       </c>
       <c r="B130">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-1.0047644705958563</v>
       </c>
       <c r="C130">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1</v>
       </c>
       <c r="F130">
         <v>1.5512126999921499E-3</v>
       </c>
       <c r="G130">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.5884418047919615</v>
       </c>
       <c r="H130">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="I130" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2</v>
       </c>
       <c r="K130">
         <v>2.4354866346171498E-3</v>
       </c>
       <c r="L130">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2.4939383138479614</v>
       </c>
       <c r="M130">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="N130" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2</v>
       </c>
     </row>
@@ -6830,45 +6942,45 @@
         <v>-1.4558106185388101E-3</v>
       </c>
       <c r="B131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-1.4907500733837415</v>
       </c>
       <c r="C131">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1</v>
       </c>
       <c r="F131">
         <v>1.13722923041083E-3</v>
       </c>
       <c r="G131">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.1645227319406899</v>
       </c>
       <c r="H131">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I131" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1</v>
       </c>
       <c r="K131">
         <v>3.1947452926514202E-3</v>
       </c>
       <c r="L131">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3.2714191796750542</v>
       </c>
       <c r="M131">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="N131" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3</v>
       </c>
     </row>
@@ -6877,45 +6989,45 @@
         <v>-6.9740989959984803E-4</v>
       </c>
       <c r="B132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-0.71414773719024438</v>
       </c>
       <c r="C132">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1</v>
       </c>
       <c r="F132">
         <v>6.9192863182007496E-4</v>
       </c>
       <c r="G132">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.70853491898375676</v>
       </c>
       <c r="H132">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I132" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1</v>
       </c>
       <c r="K132">
         <v>3.6392547586449101E-3</v>
       </c>
       <c r="L132">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3.7265968728523879</v>
       </c>
       <c r="M132">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="N132" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4</v>
       </c>
     </row>
@@ -6924,45 +7036,45 @@
         <v>5.18868897343777E-4</v>
       </c>
       <c r="B133">
-        <f t="shared" ref="B133:B144" si="21">A133*1024</f>
+        <f t="shared" ref="B133:B144" si="25">A133*1024</f>
         <v>0.53132175088002764</v>
       </c>
       <c r="C133">
-        <f t="shared" ref="C133:C144" si="22">ROUND(B133,0)</f>
+        <f t="shared" ref="C133:C144" si="26">ROUND(B133,0)</f>
         <v>1</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1</v>
       </c>
       <c r="F133">
         <v>2.5297956413623601E-4</v>
       </c>
       <c r="G133">
-        <f t="shared" ref="G133:G149" si="23">F133*1024</f>
+        <f t="shared" ref="G133:G149" si="27">F133*1024</f>
         <v>0.25905107367550567</v>
       </c>
       <c r="H133">
-        <f t="shared" ref="H133:H149" si="24">ROUND(G133,0)</f>
+        <f t="shared" ref="H133:H149" si="28">ROUND(G133,0)</f>
         <v>0</v>
       </c>
       <c r="I133" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0</v>
       </c>
       <c r="K133">
         <v>3.7740947189691199E-3</v>
       </c>
       <c r="L133">
-        <f t="shared" ref="L133:L196" si="25">K133*1024</f>
+        <f t="shared" ref="L133:L196" si="29">K133*1024</f>
         <v>3.8646729922243788</v>
       </c>
       <c r="M133">
-        <f t="shared" ref="M133:M196" si="26">ROUND(L133,0)</f>
+        <f t="shared" ref="M133:M196" si="30">ROUND(L133,0)</f>
         <v>4</v>
       </c>
       <c r="N133" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4</v>
       </c>
     </row>
@@ -6971,45 +7083,45 @@
         <v>1.1523214039664399E-3</v>
       </c>
       <c r="B134">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.1799771176616345</v>
       </c>
       <c r="C134">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" ref="D134:D144" si="27">CONCATENATE(D133,", ",C134)</f>
+        <f t="shared" ref="D134:D144" si="31">CONCATENATE(D133,", ",C134)</f>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1, 1</v>
       </c>
       <c r="F134">
         <v>-1.4928157695282199E-4</v>
       </c>
       <c r="G134">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-0.15286433479968972</v>
       </c>
       <c r="H134">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I134" t="str">
-        <f t="shared" ref="I134:I149" si="28">CONCATENATE(I133,", ",H134)</f>
+        <f t="shared" ref="I134:I149" si="32">CONCATENATE(I133,", ",H134)</f>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0</v>
       </c>
       <c r="K134">
         <v>3.6233530641963199E-3</v>
       </c>
       <c r="L134">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>3.7103135377370315</v>
       </c>
       <c r="M134">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="N134" t="str">
-        <f t="shared" ref="N134:N197" si="29">CONCATENATE(N133,", ",M134)</f>
+        <f t="shared" ref="N134:N197" si="33">CONCATENATE(N133,", ",M134)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4</v>
       </c>
     </row>
@@ -7018,45 +7130,45 @@
         <v>7.69680616780028E-4</v>
       </c>
       <c r="B135">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.78815295158274867</v>
       </c>
       <c r="C135">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1, 1, 1</v>
       </c>
       <c r="F135">
         <v>-4.8742292563532799E-4</v>
       </c>
       <c r="G135">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-0.49912107585057586</v>
       </c>
       <c r="H135">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I135" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0</v>
       </c>
       <c r="K135">
         <v>3.2272956756481601E-3</v>
       </c>
       <c r="L135">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>3.3047507718637159</v>
       </c>
       <c r="M135">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="N135" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3</v>
       </c>
     </row>
@@ -7065,45 +7177,45 @@
         <v>-1.86577621584006E-4</v>
       </c>
       <c r="B136">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-0.19105548450202214</v>
       </c>
       <c r="C136">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1, 1, 1, 0</v>
       </c>
       <c r="F136">
         <v>-7.4768285152619098E-4</v>
       </c>
       <c r="G136">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-0.76562723996281956</v>
       </c>
       <c r="H136">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="I136" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1</v>
       </c>
       <c r="K136">
         <v>2.6386063996935E-3</v>
       </c>
       <c r="L136">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>2.701932953286144</v>
       </c>
       <c r="M136">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="N136" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3</v>
       </c>
     </row>
@@ -7112,45 +7224,45 @@
         <v>-8.6503031819317496E-4</v>
       </c>
       <c r="B137">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-0.88579104582981116</v>
       </c>
       <c r="C137">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-1</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1, 1, 1, 0, -1</v>
       </c>
       <c r="F137">
         <v>-9.21743737457086E-4</v>
       </c>
       <c r="G137">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-0.94386558715605606</v>
       </c>
       <c r="H137">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="I137" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1</v>
       </c>
       <c r="K137">
         <v>1.9180271655594499E-3</v>
       </c>
       <c r="L137">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.9640598175328767</v>
       </c>
       <c r="M137">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="N137" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2</v>
       </c>
     </row>
@@ -7159,45 +7271,45 @@
         <v>-7.2831083521994401E-4</v>
       </c>
       <c r="B138">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-0.74579029526522267</v>
       </c>
       <c r="C138">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-1</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1, 1, 1, 0, -1, -1</v>
       </c>
       <c r="F138">
         <v>-1.0096295972699099E-3</v>
       </c>
       <c r="G138">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-1.0338607076043878</v>
       </c>
       <c r="H138">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="I138" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1</v>
       </c>
       <c r="K138">
         <v>1.1297040661204299E-3</v>
       </c>
       <c r="L138">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.1568169637073202</v>
       </c>
       <c r="M138">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="N138" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1</v>
       </c>
     </row>
@@ -7206,45 +7318,45 @@
         <v>7.5513605923293304E-5</v>
       </c>
       <c r="B139">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>7.7325932465452343E-2</v>
       </c>
       <c r="C139">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1, 1, 1, 0, -1, -1, 0</v>
       </c>
       <c r="F139">
         <v>-1.01832069148661E-3</v>
       </c>
       <c r="G139">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-1.0427603880822887</v>
       </c>
       <c r="H139">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="I139" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1, -1</v>
       </c>
       <c r="K139">
         <v>3.3660322222760003E-4</v>
       </c>
       <c r="L139">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.34468169956106243</v>
       </c>
       <c r="M139">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N139" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0</v>
       </c>
     </row>
@@ -7253,45 +7365,45 @@
         <v>9.2741698195050097E-4</v>
       </c>
       <c r="B140">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.949674989517313</v>
       </c>
       <c r="C140">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1, 1, 1, 0, -1, -1, 0, 1</v>
       </c>
       <c r="F140">
         <v>-9.6056728729668997E-4</v>
       </c>
       <c r="G140">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-0.98362090219181053</v>
       </c>
       <c r="H140">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="I140" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1, -1, -1</v>
       </c>
       <c r="K140">
         <v>-4.0368626848191801E-4</v>
       </c>
       <c r="L140">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.41337473892548404</v>
       </c>
       <c r="M140">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N140" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0</v>
       </c>
     </row>
@@ -7300,45 +7412,45 @@
         <v>1.2738522399934899E-3</v>
       </c>
       <c r="B141">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.3044246937533337</v>
       </c>
       <c r="C141">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1, 1, 1, 0, -1, -1, 0, 1, 1</v>
       </c>
       <c r="F141">
         <v>-8.5247758443499403E-4</v>
       </c>
       <c r="G141">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-0.87293704646143389</v>
       </c>
       <c r="H141">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="I141" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1, -1, -1, -1</v>
       </c>
       <c r="K141">
         <v>-1.0424804818891199E-3</v>
       </c>
       <c r="L141">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-1.0675000134544588</v>
       </c>
       <c r="M141">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-1</v>
       </c>
       <c r="N141" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1</v>
       </c>
     </row>
@@ -7347,45 +7459,45 @@
         <v>1.0227134931042299E-3</v>
       </c>
       <c r="B142">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.0472586169387315</v>
       </c>
       <c r="C142">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="D142" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1</v>
       </c>
       <c r="F142">
         <v>-7.1172945870717405E-4</v>
       </c>
       <c r="G142">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-0.72881096571614623</v>
       </c>
       <c r="H142">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="I142" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1</v>
       </c>
       <c r="K142">
         <v>-1.54269454967713E-3</v>
       </c>
       <c r="L142">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-1.5797192188693812</v>
       </c>
       <c r="M142">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-2</v>
       </c>
       <c r="N142" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2</v>
       </c>
     </row>
@@ -7394,45 +7506,45 @@
         <v>5.3938834251829998E-4</v>
       </c>
       <c r="B143">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.55233366273873918</v>
       </c>
       <c r="C143">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, 1</v>
       </c>
       <c r="F143">
         <v>-5.5570706594963899E-4</v>
       </c>
       <c r="G143">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-0.56904403553243033</v>
       </c>
       <c r="H143">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="I143" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1</v>
       </c>
       <c r="K143">
         <v>-1.8804912501151701E-3</v>
       </c>
       <c r="L143">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-1.9256230401179342</v>
       </c>
       <c r="M143">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-2</v>
       </c>
       <c r="N143" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2</v>
       </c>
     </row>
@@ -7441,45 +7553,45 @@
         <v>-3.2830352230933099E-4</v>
       </c>
       <c r="B144">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-0.33618280684475493</v>
       </c>
       <c r="C144">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0, 1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, -1, -1, 0, 2, 2, 0, -2, -2, -1, 2, 3, 1, -2, -3, -2, 1, 4, 4, 0, -4, -5, -1, 4, 6, 3, -3, -7, -5, 2, 8, 8, 0, -8, -10, -3, 8, 13, 7, -7, -16, -12, 4, 19, 18, 0, -21, -27, -8, 23, 40, 21, -25, -64, -54, 26, 152, 268, 315, 268, 152, 26, -54, -64, -25, 21, 40, 23, -8, -27, -21, 0, 18, 19, 4, -12, -16, -7, 7, 13, 8, -3, -10, -8, 0, 8, 8, 2, -5, -7, -3, 3, 6, 4, -1, -5, -4, 0, 4, 4, 1, -2, -3, -2, 1, 3, 2, -1, -2, -2, 0, 2, 2, 0, -1, -1, -1, 1, 1, 1, 0, -1, -1, 0, 1, 1, 1, 1, 0</v>
       </c>
       <c r="F144">
         <v>-4.0023457811622998E-4</v>
       </c>
       <c r="G144">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-0.4098402079910195</v>
       </c>
       <c r="H144">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I144" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0</v>
       </c>
       <c r="K144">
         <v>-2.0459196595336202E-3</v>
       </c>
       <c r="L144">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-2.0950217313624271</v>
       </c>
       <c r="M144">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-2</v>
       </c>
       <c r="N144" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2</v>
       </c>
     </row>
@@ -7488,30 +7600,30 @@
         <v>-2.5851323526222299E-4</v>
       </c>
       <c r="G145">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-0.26471755290851634</v>
       </c>
       <c r="H145">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I145" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0</v>
       </c>
       <c r="K145">
         <v>-2.0424978890667901E-3</v>
       </c>
       <c r="L145">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-2.0915178384043931</v>
       </c>
       <c r="M145">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-2</v>
       </c>
       <c r="N145" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2</v>
       </c>
     </row>
@@ -7520,30 +7632,30 @@
         <v>-1.4071804710439099E-4</v>
       </c>
       <c r="G146">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-0.14409528023489637</v>
       </c>
       <c r="H146">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I146" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0</v>
       </c>
       <c r="K146">
         <v>-1.8858596843242799E-3</v>
       </c>
       <c r="L146">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-1.9311203167480626</v>
       </c>
       <c r="M146">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-2</v>
       </c>
       <c r="N146" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2</v>
       </c>
     </row>
@@ -7552,30 +7664,30 @@
         <v>-5.3565292040318997E-5</v>
       </c>
       <c r="G147">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-5.4850859049286653E-2</v>
       </c>
       <c r="H147">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I147" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0</v>
       </c>
       <c r="K147">
         <v>-1.6014086483712E-3</v>
       </c>
       <c r="L147">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-1.6398424559321088</v>
       </c>
       <c r="M147">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-2</v>
       </c>
       <c r="N147" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2</v>
       </c>
     </row>
@@ -7584,30 +7696,30 @@
         <v>-7.7524831296898804E-7</v>
       </c>
       <c r="G148">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-7.9385427248024375E-4</v>
       </c>
       <c r="H148">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I148" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0</v>
       </c>
       <c r="K148">
         <v>-1.2220423801477E-3</v>
       </c>
       <c r="L148">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-1.2513713972712448</v>
       </c>
       <c r="M148">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-1</v>
       </c>
       <c r="N148" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1</v>
       </c>
     </row>
@@ -7616,30 +7728,30 @@
         <v>4.90122274272995E-4</v>
       </c>
       <c r="G149">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.50188520885554688</v>
       </c>
       <c r="H149">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I149" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 1, 3, 5, 6, 8, 8, 9, 8, 7, 5, 2, -1, -4, -8, -11, -14, -17, -18, -18, -16, -13, -8, -1, 7, 16, 27, 37, 48, 59, 68, 76, 83, 87, 90, 90, 87, 83, 76, 68, 59, 48, 37, 27, 16, 7, -1, -8, -13, -16, -18, -18, -17, -14, -11, -8, -4, -1, 2, 5, 7, 8, 9, 8, 8, 6, 5, 3, 1, -1, -2, -3, -4, -4, -5, -4, -4, -3, -2, -1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 1</v>
       </c>
       <c r="K149">
         <v>-7.8470838166812295E-4</v>
       </c>
       <c r="L149">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.8035413828281579</v>
       </c>
       <c r="M149">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-1</v>
       </c>
       <c r="N149" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1</v>
       </c>
     </row>
@@ -7648,15 +7760,15 @@
         <v>-3.27536944162918E-4</v>
       </c>
       <c r="L150">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.33539783082282804</v>
       </c>
       <c r="M150">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N150" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0</v>
       </c>
     </row>
@@ -7665,15 +7777,15 @@
         <v>1.13179140360855E-4</v>
       </c>
       <c r="L151">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.11589543972951552</v>
       </c>
       <c r="M151">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N151" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0</v>
       </c>
     </row>
@@ -7682,15 +7794,15 @@
         <v>5.05524916229736E-4</v>
       </c>
       <c r="L152">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.51765751421924966</v>
       </c>
       <c r="M152">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="N152" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1</v>
       </c>
     </row>
@@ -7699,15 +7811,15 @@
         <v>8.2406283336857204E-4</v>
       </c>
       <c r="L153">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.84384034136941777</v>
       </c>
       <c r="M153">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="N153" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1</v>
       </c>
     </row>
@@ -7716,15 +7828,15 @@
         <v>1.0511192539460401E-3</v>
       </c>
       <c r="L154">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.076346116040745</v>
       </c>
       <c r="M154">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="N154" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1</v>
       </c>
     </row>
@@ -7733,15 +7845,15 @@
         <v>1.17756792418474E-3</v>
       </c>
       <c r="L155">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.2058295543651738</v>
       </c>
       <c r="M155">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="N155" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1</v>
       </c>
     </row>
@@ -7750,15 +7862,15 @@
         <v>1.20275592166441E-3</v>
       </c>
       <c r="L156">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.2316220637843558</v>
       </c>
       <c r="M156">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="N156" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1</v>
       </c>
     </row>
@@ -7767,15 +7879,15 @@
         <v>1.1338320029934601E-3</v>
       </c>
       <c r="L157">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.1610439710653031</v>
       </c>
       <c r="M157">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="N157" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1</v>
       </c>
     </row>
@@ -7784,15 +7896,15 @@
         <v>9.8453469642337905E-4</v>
       </c>
       <c r="L158">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.0081635291375401</v>
       </c>
       <c r="M158">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="N158" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1</v>
       </c>
     </row>
@@ -7801,15 +7913,15 @@
         <v>7.7358210345616104E-4</v>
       </c>
       <c r="L159">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.79214807393910891</v>
       </c>
       <c r="M159">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="N159" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1</v>
       </c>
     </row>
@@ -7818,15 +7930,15 @@
         <v>5.2277736809367196E-4</v>
       </c>
       <c r="L160">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.53532402492792008</v>
       </c>
       <c r="M160">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="N160" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1</v>
       </c>
     </row>
@@ -7835,15 +7947,15 @@
         <v>2.5506024197327902E-4</v>
       </c>
       <c r="L161">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.26118168778063772</v>
       </c>
       <c r="M161">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N161" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0</v>
       </c>
     </row>
@@ -7852,15 +7964,15 @@
         <v>-7.3815555673333397E-6</v>
       </c>
       <c r="L162">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-7.5587129009493399E-3</v>
       </c>
       <c r="M162">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N162" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0</v>
       </c>
     </row>
@@ -7869,15 +7981,15 @@
         <v>-2.4477413246277102E-4</v>
       </c>
       <c r="L163">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.25064871164187752</v>
       </c>
       <c r="M163">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N163" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0</v>
       </c>
     </row>
@@ -7886,15 +7998,15 @@
         <v>-4.4108680891981398E-4</v>
       </c>
       <c r="L164">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.45167289233388952</v>
       </c>
       <c r="M164">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N164" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -7903,15 +8015,15 @@
         <v>-5.8494986588518102E-4</v>
       </c>
       <c r="L165">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.59898866266642536</v>
       </c>
       <c r="M165">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-1</v>
       </c>
       <c r="N165" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1</v>
       </c>
     </row>
@@ -7920,15 +8032,15 @@
         <v>-6.7013731463984403E-4</v>
       </c>
       <c r="L166">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.68622061019120029</v>
       </c>
       <c r="M166">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-1</v>
       </c>
       <c r="N166" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1</v>
       </c>
     </row>
@@ -7937,15 +8049,15 @@
         <v>-6.95588316788745E-4</v>
       </c>
       <c r="L167">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.71228243639167488</v>
       </c>
       <c r="M167">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-1</v>
       </c>
       <c r="N167" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1</v>
       </c>
     </row>
@@ -7954,15 +8066,15 @@
         <v>-6.6502054776954901E-4</v>
       </c>
       <c r="L168">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.68098104091601819</v>
       </c>
       <c r="M168">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-1</v>
       </c>
       <c r="N168" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1</v>
       </c>
     </row>
@@ -7971,15 +8083,15 @@
         <v>-5.8619670707469598E-4</v>
       </c>
       <c r="L169">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.60026542804448868</v>
       </c>
       <c r="M169">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-1</v>
       </c>
       <c r="N169" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1</v>
       </c>
     </row>
@@ -7988,15 +8100,15 @@
         <v>-4.6993464892905202E-4</v>
       </c>
       <c r="L170">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.48121308050334927</v>
       </c>
       <c r="M170">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N170" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0</v>
       </c>
     </row>
@@ -8005,15 +8117,15 @@
         <v>-3.28960859003726E-4</v>
       </c>
       <c r="L171">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.33685591961981542</v>
       </c>
       <c r="M171">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N171" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0</v>
       </c>
     </row>
@@ -8022,15 +8134,15 @@
         <v>-1.76721359262782E-4</v>
       </c>
       <c r="L172">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.18096267188508877</v>
       </c>
       <c r="M172">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N172" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0</v>
       </c>
     </row>
@@ -8039,15 +8151,15 @@
         <v>-2.6239119947102802E-5</v>
       </c>
       <c r="L173">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-2.6868858825833269E-2</v>
       </c>
       <c r="M173">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N173" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8056,15 +8168,15 @@
         <v>1.10885483184633E-4</v>
       </c>
       <c r="L174">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.1135467347810642</v>
       </c>
       <c r="M174">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N174" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8073,15 +8185,15 @@
         <v>2.2526465820916301E-4</v>
       </c>
       <c r="L175">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.23067101000618292</v>
       </c>
       <c r="M175">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N175" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8090,15 +8202,15 @@
         <v>3.1025980911609602E-4</v>
       </c>
       <c r="L176">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.31770604453488233</v>
       </c>
       <c r="M176">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N176" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8107,15 +8219,15 @@
         <v>3.6224522041747998E-4</v>
       </c>
       <c r="L177">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.37093910570749949</v>
       </c>
       <c r="M177">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N177" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8124,15 +8236,15 @@
         <v>3.8059742517690702E-4</v>
       </c>
       <c r="L178">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.38973176338115278</v>
       </c>
       <c r="M178">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N178" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8141,15 +8253,15 @@
         <v>3.6744282182530702E-4</v>
       </c>
       <c r="L179">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.37626144954911439</v>
       </c>
       <c r="M179">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N179" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8158,15 +8270,15 @@
         <v>3.2720401295834701E-4</v>
       </c>
       <c r="L180">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.33505690926934734</v>
       </c>
       <c r="M180">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N180" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8175,15 +8287,15 @@
         <v>2.6600255413101299E-4</v>
       </c>
       <c r="L181">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.2723866154301573</v>
       </c>
       <c r="M181">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N181" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8192,15 +8304,15 @@
         <v>1.90984049620394E-4</v>
       </c>
       <c r="L182">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.19556766681128346</v>
       </c>
       <c r="M182">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N182" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8209,15 +8321,15 @@
         <v>1.0962883858125699E-4</v>
       </c>
       <c r="L183">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.11225993070720716</v>
       </c>
       <c r="M183">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N183" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8226,15 +8338,15 @@
         <v>2.9104350520069101E-5</v>
       </c>
       <c r="L184">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>2.9802854932550759E-2</v>
       </c>
       <c r="M184">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N184" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8243,15 +8355,15 @@
         <v>-4.4287384102540103E-5</v>
       </c>
       <c r="L185">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-4.5350281321001065E-2</v>
       </c>
       <c r="M185">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N185" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8260,15 +8372,15 @@
         <v>-1.0553215525011E-4</v>
       </c>
       <c r="L186">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.10806492697611264</v>
       </c>
       <c r="M186">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N186" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8277,15 +8389,15 @@
         <v>-1.51174928743395E-4</v>
       </c>
       <c r="L187">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.15480312703323648</v>
       </c>
       <c r="M187">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N187" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8294,15 +8406,15 @@
         <v>-1.7942950254150501E-4</v>
       </c>
       <c r="L188">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.18373581060250113</v>
       </c>
       <c r="M188">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N188" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8311,15 +8423,15 @@
         <v>-1.9013602556871E-4</v>
       </c>
       <c r="L189">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.19469929018235904</v>
       </c>
       <c r="M189">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N189" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8328,15 +8440,15 @@
         <v>-1.84587386037665E-4</v>
       </c>
       <c r="L190">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.18901748330256896</v>
       </c>
       <c r="M190">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N190" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8345,15 +8457,15 @@
         <v>-1.65251485651119E-4</v>
       </c>
       <c r="L191">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.16921752130674586</v>
       </c>
       <c r="M191">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N191" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8362,15 +8474,15 @@
         <v>-1.3542508109423601E-4</v>
       </c>
       <c r="L192">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.13867528304049767</v>
       </c>
       <c r="M192">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N192" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8379,15 +8491,15 @@
         <v>-9.8859605588908105E-5</v>
       </c>
       <c r="L193">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.1012322361230419</v>
       </c>
       <c r="M193">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N193" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8396,15 +8508,15 @@
         <v>-5.9389308003384499E-5</v>
       </c>
       <c r="L194">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-6.0814651395465727E-2</v>
       </c>
       <c r="M194">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N194" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8413,15 +8525,15 @@
         <v>-2.0597566582747302E-5</v>
       </c>
       <c r="L195">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-2.1091908180733237E-2</v>
       </c>
       <c r="M195">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N195" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8430,15 +8542,15 @@
         <v>1.44545189695725E-5</v>
       </c>
       <c r="L196">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.480142742484224E-2</v>
       </c>
       <c r="M196">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N196" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8447,15 +8559,15 @@
         <v>4.3422427083773503E-5</v>
       </c>
       <c r="L197">
-        <f t="shared" ref="L197:L220" si="30">K197*1024</f>
+        <f t="shared" ref="L197:L220" si="34">K197*1024</f>
         <v>4.4464565333784067E-2</v>
       </c>
       <c r="M197">
-        <f t="shared" ref="M197:M220" si="31">ROUND(L197,0)</f>
+        <f t="shared" ref="M197:M220" si="35">ROUND(L197,0)</f>
         <v>0</v>
       </c>
       <c r="N197" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8464,15 +8576,15 @@
         <v>6.4788520850025399E-5</v>
       </c>
       <c r="L198">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>6.6343445350426009E-2</v>
       </c>
       <c r="M198">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N198" t="str">
-        <f t="shared" ref="N198:N220" si="32">CONCATENATE(N197,", ",M198)</f>
+        <f t="shared" ref="N198:N220" si="36">CONCATENATE(N197,", ",M198)</f>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8481,15 +8593,15 @@
         <v>7.7881819886036797E-5</v>
       </c>
       <c r="L199">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>7.9750983563301681E-2</v>
       </c>
       <c r="M199">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N199" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8498,15 +8610,15 @@
         <v>8.2824803478863106E-5</v>
       </c>
       <c r="L200">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>8.481259876235582E-2</v>
       </c>
       <c r="M200">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N200" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8515,15 +8627,15 @@
         <v>8.0414878491712798E-5</v>
       </c>
       <c r="L201">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>8.2344835575513906E-2</v>
       </c>
       <c r="M201">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N201" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8532,15 +8644,15 @@
         <v>7.1961959946604897E-5</v>
       </c>
       <c r="L202">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>7.3689046985323414E-2</v>
       </c>
       <c r="M202">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N202" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8549,15 +8661,15 @@
         <v>5.9102480672852098E-5</v>
       </c>
       <c r="L203">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>6.0520940209000548E-2</v>
       </c>
       <c r="M203">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N203" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8566,15 +8678,15 @@
         <v>4.3612618989894302E-5</v>
       </c>
       <c r="L204">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>4.4659321845651766E-2</v>
       </c>
       <c r="M204">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N204" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8583,15 +8695,15 @@
         <v>2.7224496959975001E-5</v>
       </c>
       <c r="L205">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>2.7877884887014402E-2</v>
       </c>
       <c r="M205">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N205" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8600,15 +8712,15 @@
         <v>1.1479893136351201E-5</v>
       </c>
       <c r="L206">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1.1755410571623629E-2</v>
       </c>
       <c r="M206">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N206" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8617,15 +8729,15 @@
         <v>-2.3803464910664799E-6</v>
       </c>
       <c r="L207">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-2.4374748068520754E-3</v>
       </c>
       <c r="M207">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N207" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8634,15 +8746,15 @@
         <v>-1.34829113682585E-5</v>
       </c>
       <c r="L208">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-1.3806501241096704E-2</v>
       </c>
       <c r="M208">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N208" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8651,15 +8763,15 @@
         <v>-2.1348791359884099E-5</v>
       </c>
       <c r="L209">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-2.1861162352521318E-2</v>
       </c>
       <c r="M209">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N209" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8668,15 +8780,15 @@
         <v>-2.5869804488769702E-5</v>
       </c>
       <c r="L210">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-2.6490679796500174E-2</v>
       </c>
       <c r="M210">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N210" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8685,15 +8797,15 @@
         <v>-2.72737400958964E-5</v>
       </c>
       <c r="L211">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-2.7928309858197914E-2</v>
       </c>
       <c r="M211">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N211" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8702,15 +8814,15 @@
         <v>-2.60416094612303E-5</v>
       </c>
       <c r="L212">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-2.6666608088299827E-2</v>
       </c>
       <c r="M212">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N212" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8719,15 +8831,15 @@
         <v>-2.28192037765618E-5</v>
       </c>
       <c r="L213">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-2.3366864667199283E-2</v>
       </c>
       <c r="M213">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N213" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8736,15 +8848,15 @@
         <v>-1.8329485474859E-5</v>
       </c>
       <c r="L214">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-1.8769393126255616E-2</v>
       </c>
       <c r="M214">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N214" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8753,15 +8865,15 @@
         <v>-1.3311147573094E-5</v>
       </c>
       <c r="L215">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-1.3630615114848256E-2</v>
       </c>
       <c r="M215">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N215" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8770,15 +8882,15 @@
         <v>-8.4058081039701792E-6</v>
       </c>
       <c r="L216">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-8.6075474984654635E-3</v>
       </c>
       <c r="M216">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N216" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8787,15 +8899,15 @@
         <v>-4.1541581777440102E-6</v>
       </c>
       <c r="L217">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-4.2538579740098665E-3</v>
       </c>
       <c r="M217">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N217" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8804,15 +8916,15 @@
         <v>-9.36766281628549E-7</v>
       </c>
       <c r="L218">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-9.5924867238763418E-4</v>
       </c>
       <c r="M218">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N218" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8821,15 +8933,15 @@
         <v>1.0201040121734901E-6</v>
       </c>
       <c r="L219">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1.0445865084656538E-3</v>
       </c>
       <c r="M219">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N219" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
@@ -8838,15 +8950,15 @@
         <v>2.4479262355257999E-5</v>
       </c>
       <c r="L220">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>2.5066764651784191E-2</v>
       </c>
       <c r="M220">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N220" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 1, 0, 0, -1, -2, -3, -3, -4, -4, -4, -3, -2, -1, 0, 2, 3, 5, 7, 8, 9, 10, 11, 11, 11, 10, 8, 7, 5, 2, 0, -2, -5, -7, -8, -10, -11, -11, -11, -10, -9, -8, -7, -5, -3, -2, 0, 1, 2, 3, 4, 4, 4, 3, 3, 2, 1, 0, 0, -1, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
     </row>
